--- a/mappings/package_F06/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F06/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="1054">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.8.1</t>
+    <t>2.8.3</t>
   </si>
   <si>
     <r>
@@ -1444,6 +1444,9 @@
     </r>
   </si>
   <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/URL_GENERAL</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1481,9 +1484,6 @@
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/URL_GENERAL</t>
   </si>
   <si>
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/URL_BUYER</t>
@@ -7474,6 +7474,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FFB7B7B7"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <color rgb="FF0000FF"/>
@@ -7487,10 +7491,6 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -7594,7 +7594,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7665,6 +7665,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -7764,7 +7770,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="186">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7985,16 +7991,22 @@
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="7" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -8003,16 +8015,16 @@
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -8081,19 +8093,25 @@
     <xf quotePrefix="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8272,7 +8290,7 @@
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -11701,6 +11719,7 @@
     <col customWidth="1" min="7" max="7" width="24.0"/>
     <col customWidth="1" min="8" max="8" width="32.88"/>
     <col customWidth="1" min="9" max="10" width="26.13"/>
+    <col customWidth="1" min="11" max="11" width="54.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12828,12 +12847,8 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="47" t="s">
-        <v>172</v>
-      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="6"/>
@@ -12859,11 +12874,15 @@
         <v>134</v>
       </c>
       <c r="E35" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="45"/>
+      <c r="G35" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
       <c r="I35" s="45"/>
       <c r="J35" s="45"/>
       <c r="K35" s="60"/>
@@ -13608,11 +13627,17 @@
       <c r="R58" s="29"/>
     </row>
     <row r="59">
-      <c r="A59" s="76"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" s="77" t="s">
+        <v>8</v>
+      </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="42" t="s">
         <v>282</v>
@@ -13982,7 +14007,7 @@
       <c r="H71" s="39"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="77" t="s">
+      <c r="K71" s="78" t="s">
         <v>328</v>
       </c>
       <c r="L71" s="29"/>
@@ -13994,7 +14019,7 @@
       <c r="R71" s="29"/>
     </row>
     <row r="72">
-      <c r="A72" s="76"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="4"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -14005,7 +14030,7 @@
       <c r="G72" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="H72" s="78" t="s">
+      <c r="H72" s="80" t="s">
         <v>331</v>
       </c>
       <c r="I72" s="6"/>
@@ -14039,7 +14064,7 @@
       <c r="G73" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="H73" s="79" t="s">
+      <c r="H73" s="81" t="s">
         <v>337</v>
       </c>
       <c r="I73" s="6"/>
@@ -14054,10 +14079,10 @@
       <c r="R73" s="29"/>
     </row>
     <row r="74">
-      <c r="A74" s="80" t="s">
+      <c r="A74" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="B74" s="81" t="s">
+      <c r="B74" s="83" t="s">
         <v>339</v>
       </c>
       <c r="C74" s="53" t="s">
@@ -14073,7 +14098,7 @@
       <c r="G74" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="H74" s="82" t="s">
+      <c r="H74" s="84" t="s">
         <v>344</v>
       </c>
       <c r="I74" s="6"/>
@@ -14088,10 +14113,10 @@
       <c r="R74" s="29"/>
     </row>
     <row r="75">
-      <c r="A75" s="80" t="s">
+      <c r="A75" s="82" t="s">
         <v>345</v>
       </c>
-      <c r="B75" s="81" t="s">
+      <c r="B75" s="83" t="s">
         <v>346</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -14107,7 +14132,7 @@
       <c r="G75" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="H75" s="82" t="s">
+      <c r="H75" s="84" t="s">
         <v>350</v>
       </c>
       <c r="I75" s="6"/>
@@ -14122,7 +14147,7 @@
       <c r="R75" s="29"/>
     </row>
     <row r="76">
-      <c r="A76" s="76"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -14133,7 +14158,7 @@
       <c r="G76" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="H76" s="78" t="s">
+      <c r="H76" s="80" t="s">
         <v>352</v>
       </c>
       <c r="I76" s="6"/>
@@ -14167,7 +14192,7 @@
       <c r="G77" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="H77" s="79" t="s">
+      <c r="H77" s="81" t="s">
         <v>355</v>
       </c>
       <c r="I77" s="6"/>
@@ -14182,10 +14207,10 @@
       <c r="R77" s="29"/>
     </row>
     <row r="78">
-      <c r="A78" s="80" t="s">
+      <c r="A78" s="82" t="s">
         <v>356</v>
       </c>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="83" t="s">
         <v>339</v>
       </c>
       <c r="C78" s="53" t="s">
@@ -14201,7 +14226,7 @@
       <c r="G78" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="H78" s="82" t="s">
+      <c r="H78" s="84" t="s">
         <v>344</v>
       </c>
       <c r="I78" s="6"/>
@@ -14216,10 +14241,10 @@
       <c r="R78" s="29"/>
     </row>
     <row r="79">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="82" t="s">
         <v>358</v>
       </c>
-      <c r="B79" s="81" t="s">
+      <c r="B79" s="83" t="s">
         <v>346</v>
       </c>
       <c r="C79" s="53" t="s">
@@ -14250,7 +14275,7 @@
       <c r="R79" s="29"/>
     </row>
     <row r="80">
-      <c r="A80" s="76"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -14295,7 +14320,7 @@
       <c r="G81" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="H81" s="79" t="s">
+      <c r="H81" s="81" t="s">
         <v>364</v>
       </c>
       <c r="I81" s="6"/>
@@ -14310,10 +14335,10 @@
       <c r="R81" s="29"/>
     </row>
     <row r="82">
-      <c r="A82" s="80" t="s">
+      <c r="A82" s="82" t="s">
         <v>365</v>
       </c>
-      <c r="B82" s="81" t="s">
+      <c r="B82" s="83" t="s">
         <v>346</v>
       </c>
       <c r="C82" s="53" t="s">
@@ -14402,16 +14427,16 @@
       <c r="R84" s="29"/>
     </row>
     <row r="85">
-      <c r="A85" s="83" t="s">
+      <c r="A85" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="B85" s="84" t="s">
+      <c r="B85" s="86" t="s">
         <v>370</v>
       </c>
-      <c r="C85" s="85" t="s">
+      <c r="C85" s="87" t="s">
         <v>371</v>
       </c>
-      <c r="D85" s="85" t="s">
+      <c r="D85" s="87" t="s">
         <v>370</v>
       </c>
       <c r="E85" s="53" t="s">
@@ -14487,7 +14512,7 @@
       <c r="K87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="86" t="s">
+      <c r="A88" s="88" t="s">
         <v>386</v>
       </c>
       <c r="B88" s="59" t="s">
@@ -14514,16 +14539,16 @@
       <c r="K88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="87" t="s">
+      <c r="A89" s="89" t="s">
         <v>386</v>
       </c>
-      <c r="B89" s="88" t="s">
+      <c r="B89" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="C89" s="89" t="s">
+      <c r="C89" s="91" t="s">
         <v>388</v>
       </c>
-      <c r="D89" s="89" t="s">
+      <c r="D89" s="91" t="s">
         <v>389</v>
       </c>
       <c r="E89" s="53" t="s">
@@ -14541,7 +14566,7 @@
       <c r="K89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="86" t="s">
+      <c r="A90" s="88" t="s">
         <v>395</v>
       </c>
       <c r="B90" s="59" t="s">
@@ -14560,7 +14585,7 @@
       <c r="G90" s="53" t="s">
         <v>400</v>
       </c>
-      <c r="H90" s="90" t="s">
+      <c r="H90" s="92" t="s">
         <v>401</v>
       </c>
       <c r="I90" s="6"/>
@@ -14587,7 +14612,7 @@
       <c r="G91" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="H91" s="91" t="s">
+      <c r="H91" s="93" t="s">
         <v>407</v>
       </c>
       <c r="I91" s="6"/>
@@ -14595,7 +14620,7 @@
       <c r="K91" s="6"/>
     </row>
     <row r="92">
-      <c r="A92" s="92" t="s">
+      <c r="A92" s="94" t="s">
         <v>408</v>
       </c>
       <c r="B92" s="41" t="s">
@@ -14629,7 +14654,7 @@
       <c r="K93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="86" t="s">
+      <c r="A94" s="88" t="s">
         <v>411</v>
       </c>
       <c r="B94" s="59" t="s">
@@ -14648,7 +14673,7 @@
       <c r="G94" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="H94" s="78" t="s">
+      <c r="H94" s="80" t="s">
         <v>417</v>
       </c>
       <c r="I94" s="6"/>
@@ -14656,7 +14681,7 @@
       <c r="K94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="86" t="s">
+      <c r="A95" s="88" t="s">
         <v>418</v>
       </c>
       <c r="B95" s="59" t="s">
@@ -14675,7 +14700,7 @@
       <c r="G95" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="H95" s="78" t="s">
+      <c r="H95" s="80" t="s">
         <v>421</v>
       </c>
       <c r="I95" s="6"/>
@@ -14683,7 +14708,7 @@
       <c r="K95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="86" t="s">
+      <c r="A96" s="88" t="s">
         <v>422</v>
       </c>
       <c r="B96" s="59" t="s">
@@ -14695,14 +14720,14 @@
       <c r="D96" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="E96" s="93" t="s">
+      <c r="E96" s="95" t="s">
         <v>424</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="H96" s="94" t="s">
+      <c r="H96" s="96" t="s">
         <v>425</v>
       </c>
       <c r="I96" s="6"/>
@@ -14710,7 +14735,7 @@
       <c r="K96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="86" t="s">
+      <c r="A97" s="88" t="s">
         <v>426</v>
       </c>
       <c r="B97" s="59" t="s">
@@ -14722,7 +14747,7 @@
       <c r="D97" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="E97" s="93" t="s">
+      <c r="E97" s="95" t="s">
         <v>428</v>
       </c>
       <c r="F97" s="37"/>
@@ -14737,7 +14762,7 @@
       <c r="K97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="86" t="s">
+      <c r="A98" s="88" t="s">
         <v>430</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -14749,14 +14774,14 @@
       <c r="D98" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="E98" s="93" t="s">
+      <c r="E98" s="95" t="s">
         <v>432</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="H98" s="94" t="s">
+      <c r="H98" s="96" t="s">
         <v>433</v>
       </c>
       <c r="I98" s="6"/>
@@ -14764,7 +14789,7 @@
       <c r="K98" s="6"/>
     </row>
     <row r="99">
-      <c r="A99" s="86" t="s">
+      <c r="A99" s="88" t="s">
         <v>434</v>
       </c>
       <c r="B99" s="59" t="s">
@@ -14776,14 +14801,14 @@
       <c r="D99" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="E99" s="93" t="s">
+      <c r="E99" s="95" t="s">
         <v>436</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="H99" s="78" t="s">
+      <c r="H99" s="80" t="s">
         <v>437</v>
       </c>
       <c r="I99" s="6"/>
@@ -14797,7 +14822,7 @@
       <c r="B100" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="C100" s="95" t="s">
+      <c r="C100" s="97" t="s">
         <v>440</v>
       </c>
       <c r="D100" s="4"/>
@@ -14810,7 +14835,7 @@
       <c r="K100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="86" t="s">
+      <c r="A101" s="88" t="s">
         <v>441</v>
       </c>
       <c r="B101" s="59" t="s">
@@ -14837,7 +14862,7 @@
       <c r="K101" s="6"/>
     </row>
     <row r="102">
-      <c r="A102" s="86" t="s">
+      <c r="A102" s="88" t="s">
         <v>448</v>
       </c>
       <c r="B102" s="59" t="s">
@@ -14856,7 +14881,7 @@
       <c r="G102" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="H102" s="78" t="s">
+      <c r="H102" s="80" t="s">
         <v>454</v>
       </c>
       <c r="I102" s="6"/>
@@ -14883,7 +14908,7 @@
       <c r="K103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="86" t="s">
+      <c r="A104" s="88" t="s">
         <v>457</v>
       </c>
       <c r="B104" s="59" t="s">
@@ -14929,7 +14954,7 @@
       <c r="G105" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="H105" s="78" t="s">
+      <c r="H105" s="80" t="s">
         <v>470</v>
       </c>
       <c r="I105" s="6"/>
@@ -14937,16 +14962,16 @@
       <c r="K105" s="6"/>
     </row>
     <row r="106">
-      <c r="A106" s="96" t="s">
+      <c r="A106" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="B106" s="97" t="s">
+      <c r="B106" s="99" t="s">
         <v>465</v>
       </c>
-      <c r="C106" s="89" t="s">
+      <c r="C106" s="91" t="s">
         <v>466</v>
       </c>
-      <c r="D106" s="98" t="s">
+      <c r="D106" s="100" t="s">
         <v>467</v>
       </c>
       <c r="E106" s="74" t="s">
@@ -14956,7 +14981,7 @@
       <c r="G106" s="64" t="s">
         <v>469</v>
       </c>
-      <c r="H106" s="99" t="s">
+      <c r="H106" s="101" t="s">
         <v>472</v>
       </c>
       <c r="I106" s="6"/>
@@ -14964,7 +14989,7 @@
       <c r="K106" s="6"/>
     </row>
     <row r="107">
-      <c r="A107" s="92" t="s">
+      <c r="A107" s="94" t="s">
         <v>473</v>
       </c>
       <c r="B107" s="41" t="s">
@@ -15008,16 +15033,16 @@
       <c r="K108" s="6"/>
     </row>
     <row r="109">
-      <c r="A109" s="80" t="s">
+      <c r="A109" s="82" t="s">
         <v>482</v>
       </c>
-      <c r="B109" s="100"/>
-      <c r="C109" s="101"/>
-      <c r="D109" s="102"/>
-      <c r="E109" s="102" t="s">
+      <c r="B109" s="102"/>
+      <c r="C109" s="103"/>
+      <c r="D109" s="104"/>
+      <c r="E109" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="F109" s="102"/>
+      <c r="F109" s="104"/>
       <c r="G109" s="68" t="s">
         <v>483</v>
       </c>
@@ -15029,16 +15054,16 @@
       <c r="K109" s="6"/>
     </row>
     <row r="110">
-      <c r="A110" s="80" t="s">
+      <c r="A110" s="82" t="s">
         <v>485</v>
       </c>
-      <c r="B110" s="100"/>
-      <c r="C110" s="101"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101" t="s">
+      <c r="B110" s="102"/>
+      <c r="C110" s="103"/>
+      <c r="D110" s="103"/>
+      <c r="E110" s="103" t="s">
         <v>479</v>
       </c>
-      <c r="F110" s="101"/>
+      <c r="F110" s="103"/>
       <c r="G110" s="42" t="s">
         <v>486</v>
       </c>
@@ -15067,7 +15092,7 @@
       <c r="K111" s="6"/>
     </row>
     <row r="112">
-      <c r="A112" s="86" t="s">
+      <c r="A112" s="88" t="s">
         <v>490</v>
       </c>
       <c r="B112" s="59" t="s">
@@ -15086,7 +15111,7 @@
       <c r="G112" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="H112" s="99" t="s">
+      <c r="H112" s="101" t="s">
         <v>496</v>
       </c>
       <c r="I112" s="6"/>
@@ -15111,7 +15136,7 @@
       <c r="K113" s="6"/>
     </row>
     <row r="114">
-      <c r="A114" s="86" t="s">
+      <c r="A114" s="88" t="s">
         <v>499</v>
       </c>
       <c r="B114" s="59" t="s">
@@ -15138,7 +15163,7 @@
       <c r="K114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="103" t="s">
+      <c r="A115" s="105" t="s">
         <v>505</v>
       </c>
       <c r="B115" s="35" t="s">
@@ -15163,10 +15188,10 @@
       <c r="K115" s="6"/>
     </row>
     <row r="116">
-      <c r="A116" s="104" t="s">
+      <c r="A116" s="106" t="s">
         <v>505</v>
       </c>
-      <c r="B116" s="105" t="s">
+      <c r="B116" s="107" t="s">
         <v>506</v>
       </c>
       <c r="C116" s="64"/>
@@ -15265,7 +15290,7 @@
       <c r="G119" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="H119" s="82" t="s">
+      <c r="H119" s="84" t="s">
         <v>532</v>
       </c>
       <c r="I119" s="6"/>
@@ -15273,16 +15298,16 @@
       <c r="K119" s="6"/>
     </row>
     <row r="120">
-      <c r="A120" s="96" t="s">
+      <c r="A120" s="98" t="s">
         <v>526</v>
       </c>
-      <c r="B120" s="97" t="s">
+      <c r="B120" s="99" t="s">
         <v>527</v>
       </c>
-      <c r="C120" s="106" t="s">
+      <c r="C120" s="108" t="s">
         <v>528</v>
       </c>
-      <c r="D120" s="106" t="s">
+      <c r="D120" s="108" t="s">
         <v>529</v>
       </c>
       <c r="E120" s="51" t="s">
@@ -15292,7 +15317,7 @@
       <c r="G120" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="H120" s="82" t="s">
+      <c r="H120" s="84" t="s">
         <v>535</v>
       </c>
       <c r="I120" s="6"/>
@@ -15300,13 +15325,13 @@
       <c r="K120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="92" t="s">
+      <c r="A121" s="94" t="s">
         <v>536</v>
       </c>
       <c r="B121" s="41" t="s">
         <v>537</v>
       </c>
-      <c r="C121" s="107" t="s">
+      <c r="C121" s="109" t="s">
         <v>440</v>
       </c>
       <c r="D121" s="64"/>
@@ -15325,16 +15350,16 @@
       <c r="B122" s="50" t="s">
         <v>539</v>
       </c>
-      <c r="C122" s="107" t="s">
+      <c r="C122" s="109" t="s">
         <v>440</v>
       </c>
       <c r="D122" s="64"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37" t="s">
+      <c r="E122" s="110"/>
+      <c r="F122" s="110"/>
+      <c r="G122" s="111" t="s">
         <v>540</v>
       </c>
-      <c r="H122" s="37" t="s">
+      <c r="H122" s="111" t="s">
         <v>541</v>
       </c>
       <c r="I122" s="6"/>
@@ -15342,7 +15367,7 @@
       <c r="K122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="86" t="s">
+      <c r="A123" s="88" t="s">
         <v>542</v>
       </c>
       <c r="B123" s="59" t="s">
@@ -15361,7 +15386,7 @@
       <c r="G123" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="H123" s="94" t="s">
+      <c r="H123" s="96" t="s">
         <v>548</v>
       </c>
       <c r="I123" s="6"/>
@@ -15369,7 +15394,7 @@
       <c r="K123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="86" t="s">
+      <c r="A124" s="88" t="s">
         <v>549</v>
       </c>
       <c r="B124" s="59" t="s">
@@ -15388,7 +15413,7 @@
       <c r="G124" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="H124" s="82" t="s">
+      <c r="H124" s="84" t="s">
         <v>552</v>
       </c>
       <c r="I124" s="6"/>
@@ -15396,13 +15421,13 @@
       <c r="K124" s="6"/>
     </row>
     <row r="125">
-      <c r="A125" s="86" t="s">
+      <c r="A125" s="88" t="s">
         <v>553</v>
       </c>
       <c r="B125" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="C125" s="108" t="s">
+      <c r="C125" s="112" t="s">
         <v>555</v>
       </c>
       <c r="D125" s="64"/>
@@ -15413,7 +15438,7 @@
       <c r="G125" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="H125" s="94" t="s">
+      <c r="H125" s="96" t="s">
         <v>558</v>
       </c>
       <c r="I125" s="6"/>
@@ -15421,13 +15446,13 @@
       <c r="K125" s="6"/>
     </row>
     <row r="126">
-      <c r="A126" s="92" t="s">
+      <c r="A126" s="94" t="s">
         <v>559</v>
       </c>
       <c r="B126" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="C126" s="107" t="s">
+      <c r="C126" s="109" t="s">
         <v>440</v>
       </c>
       <c r="D126" s="64"/>
@@ -15440,7 +15465,7 @@
       <c r="K126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="86" t="s">
+      <c r="A127" s="88" t="s">
         <v>560</v>
       </c>
       <c r="B127" s="59"/>
@@ -15461,10 +15486,10 @@
       <c r="K127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="86" t="s">
+      <c r="A128" s="88" t="s">
         <v>560</v>
       </c>
-      <c r="B128" s="109"/>
+      <c r="B128" s="113"/>
       <c r="C128" s="64"/>
       <c r="D128" s="6"/>
       <c r="E128" s="53" t="s">
@@ -15474,7 +15499,7 @@
       <c r="G128" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="H128" s="94" t="s">
+      <c r="H128" s="96" t="s">
         <v>564</v>
       </c>
       <c r="I128" s="6"/>
@@ -15501,7 +15526,7 @@
       <c r="G129" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="H129" s="82" t="s">
+      <c r="H129" s="84" t="s">
         <v>570</v>
       </c>
       <c r="I129" s="6"/>
@@ -15515,16 +15540,16 @@
       <c r="B130" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="C130" s="110"/>
-      <c r="D130" s="110"/>
-      <c r="E130" s="111" t="s">
+      <c r="C130" s="114"/>
+      <c r="D130" s="114"/>
+      <c r="E130" s="115" t="s">
         <v>530</v>
       </c>
-      <c r="F130" s="112"/>
+      <c r="F130" s="116"/>
       <c r="G130" s="53" t="s">
         <v>573</v>
       </c>
-      <c r="H130" s="113" t="s">
+      <c r="H130" s="117" t="s">
         <v>574</v>
       </c>
       <c r="I130" s="6"/>
@@ -15587,7 +15612,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="86" t="s">
+      <c r="A134" s="88" t="s">
         <v>580</v>
       </c>
       <c r="B134" s="59" t="s">
@@ -15614,7 +15639,7 @@
       <c r="K134" s="6"/>
     </row>
     <row r="135">
-      <c r="A135" s="86" t="s">
+      <c r="A135" s="88" t="s">
         <v>587</v>
       </c>
       <c r="B135" s="59" t="s">
@@ -15637,7 +15662,7 @@
       <c r="K135" s="6"/>
     </row>
     <row r="136">
-      <c r="A136" s="86" t="s">
+      <c r="A136" s="88" t="s">
         <v>592</v>
       </c>
       <c r="B136" s="59" t="s">
@@ -15660,7 +15685,7 @@
       <c r="K136" s="6"/>
     </row>
     <row r="137">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="88" t="s">
         <v>596</v>
       </c>
       <c r="B137" s="59" t="s">
@@ -15683,7 +15708,7 @@
       <c r="K137" s="6"/>
     </row>
     <row r="138">
-      <c r="A138" s="86" t="s">
+      <c r="A138" s="88" t="s">
         <v>600</v>
       </c>
       <c r="B138" s="59" t="s">
@@ -15706,13 +15731,13 @@
       <c r="K138" s="6"/>
     </row>
     <row r="139">
-      <c r="A139" s="86" t="s">
+      <c r="A139" s="88" t="s">
         <v>604</v>
       </c>
       <c r="B139" s="59" t="s">
         <v>605</v>
       </c>
-      <c r="C139" s="114" t="s">
+      <c r="C139" s="118" t="s">
         <v>606</v>
       </c>
       <c r="D139" s="64"/>
@@ -15737,7 +15762,7 @@
       <c r="B140" s="50" t="s">
         <v>609</v>
       </c>
-      <c r="C140" s="107" t="s">
+      <c r="C140" s="109" t="s">
         <v>440</v>
       </c>
       <c r="D140" s="64"/>
@@ -15777,8 +15802,8 @@
       <c r="D142" s="73"/>
       <c r="E142" s="39"/>
       <c r="F142" s="73"/>
-      <c r="G142" s="115"/>
-      <c r="H142" s="115"/>
+      <c r="G142" s="119"/>
+      <c r="H142" s="119"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
       <c r="K142" s="19" t="s">
@@ -15786,7 +15811,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="86" t="s">
+      <c r="A143" s="88" t="s">
         <v>612</v>
       </c>
       <c r="B143" s="59" t="s">
@@ -15813,7 +15838,7 @@
       <c r="K143" s="6"/>
     </row>
     <row r="144">
-      <c r="A144" s="86" t="s">
+      <c r="A144" s="88" t="s">
         <v>615</v>
       </c>
       <c r="B144" s="59" t="s">
@@ -15840,7 +15865,7 @@
       <c r="K144" s="6"/>
     </row>
     <row r="145">
-      <c r="A145" s="86" t="s">
+      <c r="A145" s="88" t="s">
         <v>618</v>
       </c>
       <c r="B145" s="59" t="s">
@@ -15867,7 +15892,7 @@
       <c r="K145" s="6"/>
     </row>
     <row r="146">
-      <c r="A146" s="86" t="s">
+      <c r="A146" s="88" t="s">
         <v>621</v>
       </c>
       <c r="B146" s="59" t="s">
@@ -15894,7 +15919,7 @@
       <c r="K146" s="6"/>
     </row>
     <row r="147">
-      <c r="A147" s="86" t="s">
+      <c r="A147" s="88" t="s">
         <v>624</v>
       </c>
       <c r="B147" s="59" t="s">
@@ -15923,7 +15948,7 @@
       <c r="K147" s="6"/>
     </row>
     <row r="148">
-      <c r="A148" s="86" t="s">
+      <c r="A148" s="88" t="s">
         <v>628</v>
       </c>
       <c r="B148" s="59" t="s">
@@ -15950,7 +15975,7 @@
       <c r="K148" s="6"/>
     </row>
     <row r="149">
-      <c r="A149" s="86" t="s">
+      <c r="A149" s="88" t="s">
         <v>632</v>
       </c>
       <c r="B149" s="59" t="s">
@@ -15977,7 +16002,7 @@
       <c r="K149" s="6"/>
     </row>
     <row r="150">
-      <c r="A150" s="86" t="s">
+      <c r="A150" s="88" t="s">
         <v>635</v>
       </c>
       <c r="B150" s="59" t="s">
@@ -15996,7 +16021,7 @@
       <c r="G150" s="53" t="s">
         <v>637</v>
       </c>
-      <c r="H150" s="94" t="s">
+      <c r="H150" s="96" t="s">
         <v>638</v>
       </c>
       <c r="I150" s="6"/>
@@ -16004,7 +16029,7 @@
       <c r="K150" s="6"/>
     </row>
     <row r="151">
-      <c r="A151" s="86" t="s">
+      <c r="A151" s="88" t="s">
         <v>639</v>
       </c>
       <c r="B151" s="59" t="s">
@@ -16023,7 +16048,7 @@
       <c r="G151" s="53" t="s">
         <v>641</v>
       </c>
-      <c r="H151" s="94" t="s">
+      <c r="H151" s="96" t="s">
         <v>642</v>
       </c>
       <c r="I151" s="6"/>
@@ -16031,7 +16056,7 @@
       <c r="K151" s="6"/>
     </row>
     <row r="152">
-      <c r="A152" s="86" t="s">
+      <c r="A152" s="88" t="s">
         <v>643</v>
       </c>
       <c r="B152" s="59" t="s">
@@ -16058,7 +16083,7 @@
       <c r="K152" s="6"/>
     </row>
     <row r="153">
-      <c r="A153" s="86" t="s">
+      <c r="A153" s="88" t="s">
         <v>647</v>
       </c>
       <c r="B153" s="59" t="s">
@@ -16085,7 +16110,7 @@
       <c r="K153" s="6"/>
     </row>
     <row r="154">
-      <c r="A154" s="86" t="s">
+      <c r="A154" s="88" t="s">
         <v>650</v>
       </c>
       <c r="B154" s="59" t="s">
@@ -16104,7 +16129,7 @@
       <c r="G154" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="H154" s="116" t="s">
+      <c r="H154" s="120" t="s">
         <v>656</v>
       </c>
       <c r="I154" s="6"/>
@@ -16112,7 +16137,7 @@
       <c r="K154" s="6"/>
     </row>
     <row r="155">
-      <c r="A155" s="76"/>
+      <c r="A155" s="79"/>
       <c r="B155" s="4"/>
       <c r="C155" s="64"/>
       <c r="D155" s="64"/>
@@ -16123,7 +16148,7 @@
       <c r="G155" s="45" t="s">
         <v>657</v>
       </c>
-      <c r="H155" s="117" t="s">
+      <c r="H155" s="121" t="s">
         <v>658</v>
       </c>
       <c r="I155" s="6"/>
@@ -16137,7 +16162,7 @@
       <c r="B156" s="50" t="s">
         <v>660</v>
       </c>
-      <c r="C156" s="107" t="s">
+      <c r="C156" s="109" t="s">
         <v>440</v>
       </c>
       <c r="D156" s="64"/>
@@ -16186,7 +16211,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="86" t="s">
+      <c r="A159" s="88" t="s">
         <v>663</v>
       </c>
       <c r="B159" s="59" t="s">
@@ -16213,7 +16238,7 @@
       <c r="K159" s="6"/>
     </row>
     <row r="160">
-      <c r="A160" s="86" t="s">
+      <c r="A160" s="88" t="s">
         <v>669</v>
       </c>
       <c r="B160" s="59" t="s">
@@ -16240,7 +16265,7 @@
       <c r="K160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="86" t="s">
+      <c r="A161" s="88" t="s">
         <v>676</v>
       </c>
       <c r="B161" s="59" t="s">
@@ -16267,13 +16292,13 @@
       <c r="K161" s="6"/>
     </row>
     <row r="162">
-      <c r="A162" s="80" t="s">
+      <c r="A162" s="82" t="s">
         <v>680</v>
       </c>
-      <c r="B162" s="81" t="s">
+      <c r="B162" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="C162" s="118" t="s">
+      <c r="C162" s="122" t="s">
         <v>681</v>
       </c>
       <c r="D162" s="64"/>
@@ -16292,7 +16317,7 @@
       <c r="K162" s="6"/>
     </row>
     <row r="163">
-      <c r="A163" s="86" t="s">
+      <c r="A163" s="88" t="s">
         <v>685</v>
       </c>
       <c r="B163" s="59" t="s">
@@ -16319,13 +16344,13 @@
       <c r="K163" s="6"/>
     </row>
     <row r="164">
-      <c r="A164" s="86" t="s">
+      <c r="A164" s="88" t="s">
         <v>688</v>
       </c>
       <c r="B164" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="C164" s="118" t="s">
+      <c r="C164" s="122" t="s">
         <v>681</v>
       </c>
       <c r="D164" s="64"/>
@@ -16350,7 +16375,7 @@
       <c r="B165" s="50" t="s">
         <v>691</v>
       </c>
-      <c r="C165" s="107" t="s">
+      <c r="C165" s="109" t="s">
         <v>440</v>
       </c>
       <c r="D165" s="64"/>
@@ -16363,7 +16388,7 @@
       <c r="K165" s="6"/>
     </row>
     <row r="166">
-      <c r="A166" s="86" t="s">
+      <c r="A166" s="88" t="s">
         <v>692</v>
       </c>
       <c r="B166" s="59" t="s">
@@ -16382,7 +16407,7 @@
       <c r="G166" s="53" t="s">
         <v>697</v>
       </c>
-      <c r="H166" s="119" t="s">
+      <c r="H166" s="123" t="s">
         <v>698</v>
       </c>
       <c r="I166" s="6"/>
@@ -16390,7 +16415,7 @@
       <c r="K166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="86" t="s">
+      <c r="A167" s="88" t="s">
         <v>699</v>
       </c>
       <c r="B167" s="59" t="s">
@@ -16407,7 +16432,7 @@
       <c r="K167" s="6"/>
     </row>
     <row r="168">
-      <c r="A168" s="86" t="s">
+      <c r="A168" s="88" t="s">
         <v>701</v>
       </c>
       <c r="B168" s="59" t="s">
@@ -16419,10 +16444,10 @@
       <c r="D168" s="74" t="s">
         <v>704</v>
       </c>
-      <c r="E168" s="120" t="s">
+      <c r="E168" s="124" t="s">
         <v>705</v>
       </c>
-      <c r="F168" s="120"/>
+      <c r="F168" s="124"/>
       <c r="G168" s="37" t="s">
         <v>706</v>
       </c>
@@ -16434,20 +16459,20 @@
       <c r="K168" s="6"/>
     </row>
     <row r="169">
-      <c r="A169" s="86" t="s">
+      <c r="A169" s="88" t="s">
         <v>708</v>
       </c>
       <c r="B169" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="C169" s="118" t="s">
+      <c r="C169" s="122" t="s">
         <v>681</v>
       </c>
       <c r="D169" s="64"/>
-      <c r="E169" s="120" t="s">
+      <c r="E169" s="124" t="s">
         <v>709</v>
       </c>
-      <c r="F169" s="120"/>
+      <c r="F169" s="124"/>
       <c r="G169" s="53" t="s">
         <v>710</v>
       </c>
@@ -16459,7 +16484,7 @@
       <c r="K169" s="6"/>
     </row>
     <row r="170">
-      <c r="A170" s="86" t="s">
+      <c r="A170" s="88" t="s">
         <v>712</v>
       </c>
       <c r="B170" s="59" t="s">
@@ -16471,10 +16496,10 @@
       <c r="D170" s="64" t="s">
         <v>715</v>
       </c>
-      <c r="E170" s="120" t="s">
+      <c r="E170" s="124" t="s">
         <v>716</v>
       </c>
-      <c r="F170" s="120"/>
+      <c r="F170" s="124"/>
       <c r="G170" s="74" t="s">
         <v>717</v>
       </c>
@@ -16486,7 +16511,7 @@
       <c r="K170" s="6"/>
     </row>
     <row r="171">
-      <c r="A171" s="86" t="s">
+      <c r="A171" s="88" t="s">
         <v>719</v>
       </c>
       <c r="B171" s="59" t="s">
@@ -16498,10 +16523,10 @@
       <c r="D171" s="37" t="s">
         <v>722</v>
       </c>
-      <c r="E171" s="120" t="s">
+      <c r="E171" s="124" t="s">
         <v>723</v>
       </c>
-      <c r="F171" s="120"/>
+      <c r="F171" s="124"/>
       <c r="G171" s="53" t="s">
         <v>724</v>
       </c>
@@ -16516,13 +16541,13 @@
       <c r="A172" s="71" t="s">
         <v>726</v>
       </c>
-      <c r="B172" s="121" t="s">
+      <c r="B172" s="125" t="s">
         <v>727</v>
       </c>
       <c r="C172" s="73"/>
       <c r="D172" s="73"/>
-      <c r="E172" s="122"/>
-      <c r="F172" s="123"/>
+      <c r="E172" s="126"/>
+      <c r="F172" s="127"/>
       <c r="G172" s="73"/>
       <c r="H172" s="73"/>
       <c r="I172" s="6"/>
@@ -16537,11 +16562,11 @@
         <v>702</v>
       </c>
       <c r="C173" s="73"/>
-      <c r="D173" s="124"/>
-      <c r="E173" s="125" t="s">
+      <c r="D173" s="128"/>
+      <c r="E173" s="129" t="s">
         <v>729</v>
       </c>
-      <c r="F173" s="123"/>
+      <c r="F173" s="127"/>
       <c r="G173" s="65" t="s">
         <v>730</v>
       </c>
@@ -16560,11 +16585,11 @@
         <v>275</v>
       </c>
       <c r="C174" s="73"/>
-      <c r="D174" s="124"/>
-      <c r="E174" s="125" t="s">
+      <c r="D174" s="128"/>
+      <c r="E174" s="129" t="s">
         <v>733</v>
       </c>
-      <c r="F174" s="123"/>
+      <c r="F174" s="127"/>
       <c r="G174" s="65" t="s">
         <v>734</v>
       </c>
@@ -16579,12 +16604,12 @@
       <c r="A175" s="71" t="s">
         <v>736</v>
       </c>
-      <c r="B175" s="121" t="s">
+      <c r="B175" s="125" t="s">
         <v>737</v>
       </c>
       <c r="C175" s="73"/>
-      <c r="D175" s="124"/>
-      <c r="E175" s="126" t="s">
+      <c r="D175" s="128"/>
+      <c r="E175" s="130" t="s">
         <v>738</v>
       </c>
       <c r="F175" s="39"/>
@@ -16659,7 +16684,7 @@
       <c r="G179" s="65" t="s">
         <v>746</v>
       </c>
-      <c r="H179" s="127" t="s">
+      <c r="H179" s="131" t="s">
         <v>747</v>
       </c>
       <c r="I179" s="6"/>
@@ -16692,10 +16717,10 @@
       <c r="B181" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="C181" s="128" t="s">
+      <c r="C181" s="132" t="s">
         <v>752</v>
       </c>
-      <c r="D181" s="129" t="s">
+      <c r="D181" s="133" t="s">
         <v>753</v>
       </c>
       <c r="E181" s="65" t="s">
@@ -16719,8 +16744,8 @@
       <c r="B182" s="72"/>
       <c r="C182" s="73"/>
       <c r="D182" s="73"/>
-      <c r="E182" s="130"/>
-      <c r="F182" s="123"/>
+      <c r="E182" s="134"/>
+      <c r="F182" s="127"/>
       <c r="G182" s="65"/>
       <c r="H182" s="65"/>
       <c r="I182" s="6"/>
@@ -16734,8 +16759,8 @@
       <c r="B183" s="72"/>
       <c r="C183" s="73"/>
       <c r="D183" s="73"/>
-      <c r="E183" s="130"/>
-      <c r="F183" s="123"/>
+      <c r="E183" s="134"/>
+      <c r="F183" s="127"/>
       <c r="G183" s="65"/>
       <c r="H183" s="65"/>
       <c r="I183" s="6"/>
@@ -16751,16 +16776,16 @@
       <c r="B184" s="70" t="s">
         <v>757</v>
       </c>
-      <c r="C184" s="128" t="s">
+      <c r="C184" s="132" t="s">
         <v>758</v>
       </c>
-      <c r="D184" s="129" t="s">
+      <c r="D184" s="133" t="s">
         <v>759</v>
       </c>
-      <c r="E184" s="130" t="s">
+      <c r="E184" s="134" t="s">
         <v>760</v>
       </c>
-      <c r="F184" s="123"/>
+      <c r="F184" s="127"/>
       <c r="G184" s="39" t="s">
         <v>761</v>
       </c>
@@ -16778,10 +16803,10 @@
       <c r="B185" s="70" t="s">
         <v>764</v>
       </c>
-      <c r="C185" s="131" t="s">
+      <c r="C185" s="135" t="s">
         <v>765</v>
       </c>
-      <c r="D185" s="132" t="s">
+      <c r="D185" s="136" t="s">
         <v>766</v>
       </c>
       <c r="E185" s="65" t="s">
@@ -16795,7 +16820,7 @@
       <c r="K185" s="6"/>
     </row>
     <row r="186">
-      <c r="A186" s="103" t="s">
+      <c r="A186" s="105" t="s">
         <v>768</v>
       </c>
       <c r="B186" s="35" t="s">
@@ -16812,7 +16837,7 @@
       <c r="K186" s="6"/>
     </row>
     <row r="187">
-      <c r="A187" s="92" t="s">
+      <c r="A187" s="94" t="s">
         <v>770</v>
       </c>
       <c r="B187" s="41" t="s">
@@ -16824,14 +16849,14 @@
       <c r="D187" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="E187" s="120" t="s">
+      <c r="E187" s="124" t="s">
         <v>771</v>
       </c>
-      <c r="F187" s="120"/>
-      <c r="G187" s="133" t="s">
+      <c r="F187" s="124"/>
+      <c r="G187" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="H187" s="134" t="s">
+      <c r="H187" s="138" t="s">
         <v>772</v>
       </c>
       <c r="I187" s="6"/>
@@ -16839,18 +16864,18 @@
       <c r="K187" s="6"/>
     </row>
     <row r="188">
-      <c r="A188" s="92" t="s">
+      <c r="A188" s="94" t="s">
         <v>773</v>
       </c>
       <c r="B188" s="41" t="s">
         <v>774</v>
       </c>
-      <c r="C188" s="107" t="s">
+      <c r="C188" s="109" t="s">
         <v>440</v>
       </c>
       <c r="D188" s="6"/>
-      <c r="E188" s="135"/>
-      <c r="F188" s="135"/>
+      <c r="E188" s="139"/>
+      <c r="F188" s="139"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="6"/>
@@ -16864,7 +16889,7 @@
       <c r="B189" s="50" t="s">
         <v>776</v>
       </c>
-      <c r="C189" s="136" t="s">
+      <c r="C189" s="140" t="s">
         <v>440</v>
       </c>
       <c r="D189" s="6"/>
@@ -16883,7 +16908,7 @@
       <c r="K189" s="6"/>
     </row>
     <row r="190">
-      <c r="A190" s="86" t="s">
+      <c r="A190" s="88" t="s">
         <v>780</v>
       </c>
       <c r="B190" s="59" t="s">
@@ -16910,7 +16935,7 @@
       <c r="K190" s="6"/>
     </row>
     <row r="191">
-      <c r="A191" s="86" t="s">
+      <c r="A191" s="88" t="s">
         <v>783</v>
       </c>
       <c r="B191" s="59" t="s">
@@ -16937,7 +16962,7 @@
       <c r="K191" s="6"/>
     </row>
     <row r="192">
-      <c r="A192" s="86" t="s">
+      <c r="A192" s="88" t="s">
         <v>786</v>
       </c>
       <c r="B192" s="59" t="s">
@@ -16964,7 +16989,7 @@
       <c r="K192" s="6"/>
     </row>
     <row r="193">
-      <c r="A193" s="86" t="s">
+      <c r="A193" s="88" t="s">
         <v>789</v>
       </c>
       <c r="B193" s="59" t="s">
@@ -16991,7 +17016,7 @@
       <c r="K193" s="6"/>
     </row>
     <row r="194">
-      <c r="A194" s="86" t="s">
+      <c r="A194" s="88" t="s">
         <v>793</v>
       </c>
       <c r="B194" s="59" t="s">
@@ -17018,7 +17043,7 @@
       <c r="K194" s="6"/>
     </row>
     <row r="195">
-      <c r="A195" s="86" t="s">
+      <c r="A195" s="88" t="s">
         <v>796</v>
       </c>
       <c r="B195" s="59" t="s">
@@ -17045,7 +17070,7 @@
       <c r="K195" s="6"/>
     </row>
     <row r="196">
-      <c r="A196" s="86" t="s">
+      <c r="A196" s="88" t="s">
         <v>798</v>
       </c>
       <c r="B196" s="59" t="s">
@@ -17072,7 +17097,7 @@
       <c r="K196" s="6"/>
     </row>
     <row r="197">
-      <c r="A197" s="86" t="s">
+      <c r="A197" s="88" t="s">
         <v>800</v>
       </c>
       <c r="B197" s="59" t="s">
@@ -17099,7 +17124,7 @@
       <c r="K197" s="6"/>
     </row>
     <row r="198">
-      <c r="A198" s="86" t="s">
+      <c r="A198" s="88" t="s">
         <v>803</v>
       </c>
       <c r="B198" s="59" t="s">
@@ -17132,10 +17157,10 @@
       <c r="B199" s="50" t="s">
         <v>806</v>
       </c>
-      <c r="C199" s="137" t="s">
+      <c r="C199" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="D199" s="138"/>
+      <c r="D199" s="142"/>
       <c r="E199" s="4" t="s">
         <v>777</v>
       </c>
@@ -17151,7 +17176,7 @@
       <c r="K199" s="6"/>
     </row>
     <row r="200">
-      <c r="A200" s="86" t="s">
+      <c r="A200" s="88" t="s">
         <v>808</v>
       </c>
       <c r="B200" s="59" t="s">
@@ -17178,7 +17203,7 @@
       <c r="K200" s="6"/>
     </row>
     <row r="201">
-      <c r="A201" s="86" t="s">
+      <c r="A201" s="88" t="s">
         <v>811</v>
       </c>
       <c r="B201" s="59" t="s">
@@ -17205,7 +17230,7 @@
       <c r="K201" s="6"/>
     </row>
     <row r="202">
-      <c r="A202" s="86" t="s">
+      <c r="A202" s="88" t="s">
         <v>814</v>
       </c>
       <c r="B202" s="59" t="s">
@@ -17232,7 +17257,7 @@
       <c r="K202" s="6"/>
     </row>
     <row r="203">
-      <c r="A203" s="86" t="s">
+      <c r="A203" s="88" t="s">
         <v>817</v>
       </c>
       <c r="B203" s="59" t="s">
@@ -17259,16 +17284,16 @@
       <c r="K203" s="6"/>
     </row>
     <row r="204">
-      <c r="A204" s="86" t="s">
+      <c r="A204" s="88" t="s">
         <v>820</v>
       </c>
       <c r="B204" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C204" s="139" t="s">
+      <c r="C204" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="D204" s="139" t="s">
+      <c r="D204" s="143" t="s">
         <v>99</v>
       </c>
       <c r="E204" s="53" t="s">
@@ -17286,7 +17311,7 @@
       <c r="K204" s="6"/>
     </row>
     <row r="205">
-      <c r="A205" s="86" t="s">
+      <c r="A205" s="88" t="s">
         <v>823</v>
       </c>
       <c r="B205" s="59" t="s">
@@ -17313,7 +17338,7 @@
       <c r="K205" s="6"/>
     </row>
     <row r="206">
-      <c r="A206" s="86" t="s">
+      <c r="A206" s="88" t="s">
         <v>825</v>
       </c>
       <c r="B206" s="59" t="s">
@@ -17340,7 +17365,7 @@
       <c r="K206" s="6"/>
     </row>
     <row r="207">
-      <c r="A207" s="86" t="s">
+      <c r="A207" s="88" t="s">
         <v>827</v>
       </c>
       <c r="B207" s="59" t="s">
@@ -17367,7 +17392,7 @@
       <c r="K207" s="6"/>
     </row>
     <row r="208">
-      <c r="A208" s="86" t="s">
+      <c r="A208" s="88" t="s">
         <v>830</v>
       </c>
       <c r="B208" s="59" t="s">
@@ -17410,10 +17435,10 @@
         <v>836</v>
       </c>
       <c r="F209" s="64"/>
-      <c r="G209" s="133" t="s">
+      <c r="G209" s="137" t="s">
         <v>837</v>
       </c>
-      <c r="H209" s="140" t="s">
+      <c r="H209" s="144" t="s">
         <v>838</v>
       </c>
       <c r="I209" s="6"/>
@@ -17436,7 +17461,7 @@
       <c r="G210" s="37" t="s">
         <v>841</v>
       </c>
-      <c r="H210" s="113" t="s">
+      <c r="H210" s="117" t="s">
         <v>779</v>
       </c>
       <c r="I210" s="6"/>
@@ -17444,7 +17469,7 @@
       <c r="K210" s="6"/>
     </row>
     <row r="211">
-      <c r="A211" s="86" t="s">
+      <c r="A211" s="88" t="s">
         <v>842</v>
       </c>
       <c r="B211" s="59" t="s">
@@ -17460,10 +17485,10 @@
         <v>843</v>
       </c>
       <c r="F211" s="74"/>
-      <c r="G211" s="77" t="s">
+      <c r="G211" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="H211" s="141" t="s">
+      <c r="H211" s="145" t="s">
         <v>844</v>
       </c>
       <c r="I211" s="6"/>
@@ -17471,7 +17496,7 @@
       <c r="K211" s="6"/>
     </row>
     <row r="212">
-      <c r="A212" s="86" t="s">
+      <c r="A212" s="88" t="s">
         <v>845</v>
       </c>
       <c r="B212" s="59" t="s">
@@ -17490,7 +17515,7 @@
       <c r="G212" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="H212" s="82" t="s">
+      <c r="H212" s="84" t="s">
         <v>847</v>
       </c>
       <c r="I212" s="6"/>
@@ -17498,7 +17523,7 @@
       <c r="K212" s="6"/>
     </row>
     <row r="213">
-      <c r="A213" s="86" t="s">
+      <c r="A213" s="88" t="s">
         <v>848</v>
       </c>
       <c r="B213" s="59" t="s">
@@ -17517,7 +17542,7 @@
       <c r="G213" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="H213" s="82" t="s">
+      <c r="H213" s="84" t="s">
         <v>850</v>
       </c>
       <c r="I213" s="6"/>
@@ -17525,7 +17550,7 @@
       <c r="K213" s="6"/>
     </row>
     <row r="214">
-      <c r="A214" s="86" t="s">
+      <c r="A214" s="88" t="s">
         <v>851</v>
       </c>
       <c r="B214" s="59" t="s">
@@ -17552,7 +17577,7 @@
       <c r="K214" s="6"/>
     </row>
     <row r="215">
-      <c r="A215" s="86" t="s">
+      <c r="A215" s="88" t="s">
         <v>854</v>
       </c>
       <c r="B215" s="59" t="s">
@@ -17571,7 +17596,7 @@
       <c r="G215" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="H215" s="94" t="s">
+      <c r="H215" s="96" t="s">
         <v>856</v>
       </c>
       <c r="I215" s="6"/>
@@ -17579,7 +17604,7 @@
       <c r="K215" s="6"/>
     </row>
     <row r="216">
-      <c r="A216" s="86" t="s">
+      <c r="A216" s="88" t="s">
         <v>857</v>
       </c>
       <c r="B216" s="59" t="s">
@@ -17606,7 +17631,7 @@
       <c r="K216" s="6"/>
     </row>
     <row r="217">
-      <c r="A217" s="86" t="s">
+      <c r="A217" s="88" t="s">
         <v>859</v>
       </c>
       <c r="B217" s="59" t="s">
@@ -17633,7 +17658,7 @@
       <c r="K217" s="6"/>
     </row>
     <row r="218">
-      <c r="A218" s="86" t="s">
+      <c r="A218" s="88" t="s">
         <v>861</v>
       </c>
       <c r="B218" s="59" t="s">
@@ -17660,7 +17685,7 @@
       <c r="K218" s="6"/>
     </row>
     <row r="219">
-      <c r="A219" s="86" t="s">
+      <c r="A219" s="88" t="s">
         <v>864</v>
       </c>
       <c r="B219" s="59" t="s">
@@ -17679,7 +17704,7 @@
       <c r="G219" s="53" t="s">
         <v>641</v>
       </c>
-      <c r="H219" s="94" t="s">
+      <c r="H219" s="96" t="s">
         <v>649</v>
       </c>
       <c r="I219" s="6"/>
@@ -17687,26 +17712,26 @@
       <c r="K219" s="6"/>
     </row>
     <row r="220">
-      <c r="A220" s="92" t="s">
+      <c r="A220" s="94" t="s">
         <v>866</v>
       </c>
       <c r="B220" s="41" t="s">
         <v>867</v>
       </c>
-      <c r="C220" s="142" t="s">
+      <c r="C220" s="146" t="s">
         <v>868</v>
       </c>
-      <c r="D220" s="142" t="s">
+      <c r="D220" s="146" t="s">
         <v>869</v>
       </c>
-      <c r="E220" s="143" t="s">
+      <c r="E220" s="147" t="s">
         <v>870</v>
       </c>
-      <c r="F220" s="143"/>
-      <c r="G220" s="144" t="s">
+      <c r="F220" s="147"/>
+      <c r="G220" s="148" t="s">
         <v>871</v>
       </c>
-      <c r="H220" s="145" t="s">
+      <c r="H220" s="149" t="s">
         <v>872</v>
       </c>
       <c r="I220" s="6"/>
@@ -17717,7 +17742,7 @@
       <c r="A221" s="69" t="s">
         <v>873</v>
       </c>
-      <c r="B221" s="146" t="s">
+      <c r="B221" s="150" t="s">
         <v>874</v>
       </c>
       <c r="C221" s="73"/>
@@ -17734,14 +17759,14 @@
       <c r="A222" s="69" t="s">
         <v>875</v>
       </c>
-      <c r="B222" s="146" t="s">
+      <c r="B222" s="150" t="s">
         <v>876</v>
       </c>
-      <c r="C222" s="147" t="s">
+      <c r="C222" s="151" t="s">
         <v>440</v>
       </c>
       <c r="D222" s="73"/>
-      <c r="E222" s="148" t="s">
+      <c r="E222" s="152" t="s">
         <v>877</v>
       </c>
       <c r="F222" s="73"/>
@@ -17755,7 +17780,7 @@
       <c r="A223" s="69" t="s">
         <v>878</v>
       </c>
-      <c r="B223" s="146" t="s">
+      <c r="B223" s="150" t="s">
         <v>879</v>
       </c>
       <c r="C223" s="73" t="s">
@@ -17764,14 +17789,14 @@
       <c r="D223" s="73" t="s">
         <v>881</v>
       </c>
-      <c r="E223" s="149" t="s">
+      <c r="E223" s="153" t="s">
         <v>882</v>
       </c>
       <c r="F223" s="73"/>
-      <c r="G223" s="149" t="s">
+      <c r="G223" s="153" t="s">
         <v>883</v>
       </c>
-      <c r="H223" s="150" t="s">
+      <c r="H223" s="154" t="s">
         <v>884</v>
       </c>
       <c r="I223" s="6"/>
@@ -17782,7 +17807,7 @@
       <c r="A224" s="69" t="s">
         <v>885</v>
       </c>
-      <c r="B224" s="146" t="s">
+      <c r="B224" s="150" t="s">
         <v>886</v>
       </c>
       <c r="C224" s="73" t="s">
@@ -17798,7 +17823,7 @@
       <c r="G224" s="65" t="s">
         <v>883</v>
       </c>
-      <c r="H224" s="127" t="s">
+      <c r="H224" s="131" t="s">
         <v>888</v>
       </c>
       <c r="I224" s="6"/>
@@ -17809,7 +17834,7 @@
       <c r="A225" s="69" t="s">
         <v>889</v>
       </c>
-      <c r="B225" s="146" t="s">
+      <c r="B225" s="150" t="s">
         <v>890</v>
       </c>
       <c r="C225" s="73"/>
@@ -17826,7 +17851,7 @@
       <c r="A226" s="69" t="s">
         <v>891</v>
       </c>
-      <c r="B226" s="146" t="s">
+      <c r="B226" s="150" t="s">
         <v>892</v>
       </c>
       <c r="C226" s="73" t="s">
@@ -17835,14 +17860,14 @@
       <c r="D226" s="73" t="s">
         <v>881</v>
       </c>
-      <c r="E226" s="151" t="s">
+      <c r="E226" s="155" t="s">
         <v>893</v>
       </c>
       <c r="F226" s="73"/>
       <c r="G226" s="73" t="s">
         <v>883</v>
       </c>
-      <c r="H226" s="150" t="s">
+      <c r="H226" s="154" t="s">
         <v>894</v>
       </c>
       <c r="I226" s="6"/>
@@ -17853,7 +17878,7 @@
       <c r="A227" s="69" t="s">
         <v>895</v>
       </c>
-      <c r="B227" s="146" t="s">
+      <c r="B227" s="150" t="s">
         <v>896</v>
       </c>
       <c r="C227" s="73" t="s">
@@ -17862,14 +17887,14 @@
       <c r="D227" s="73" t="s">
         <v>881</v>
       </c>
-      <c r="E227" s="151" t="s">
+      <c r="E227" s="155" t="s">
         <v>897</v>
       </c>
       <c r="F227" s="73"/>
       <c r="G227" s="73" t="s">
         <v>883</v>
       </c>
-      <c r="H227" s="150" t="s">
+      <c r="H227" s="154" t="s">
         <v>898</v>
       </c>
       <c r="I227" s="6"/>
@@ -17880,7 +17905,7 @@
       <c r="A228" s="69" t="s">
         <v>899</v>
       </c>
-      <c r="B228" s="146" t="s">
+      <c r="B228" s="150" t="s">
         <v>900</v>
       </c>
       <c r="C228" s="73" t="s">
@@ -17889,14 +17914,14 @@
       <c r="D228" s="73" t="s">
         <v>881</v>
       </c>
-      <c r="E228" s="151" t="s">
+      <c r="E228" s="155" t="s">
         <v>901</v>
       </c>
       <c r="F228" s="73"/>
       <c r="G228" s="73" t="s">
         <v>883</v>
       </c>
-      <c r="H228" s="150" t="s">
+      <c r="H228" s="154" t="s">
         <v>902</v>
       </c>
       <c r="I228" s="6"/>
@@ -17907,23 +17932,23 @@
       <c r="A229" s="69" t="s">
         <v>903</v>
       </c>
-      <c r="B229" s="146" t="s">
+      <c r="B229" s="150" t="s">
         <v>904</v>
       </c>
-      <c r="C229" s="152" t="s">
+      <c r="C229" s="156" t="s">
         <v>880</v>
       </c>
       <c r="D229" s="73" t="s">
         <v>881</v>
       </c>
-      <c r="E229" s="151" t="s">
+      <c r="E229" s="155" t="s">
         <v>905</v>
       </c>
       <c r="F229" s="73"/>
       <c r="G229" s="73" t="s">
         <v>883</v>
       </c>
-      <c r="H229" s="150" t="s">
+      <c r="H229" s="154" t="s">
         <v>906</v>
       </c>
       <c r="I229" s="6"/>
@@ -17934,23 +17959,23 @@
       <c r="A230" s="69" t="s">
         <v>907</v>
       </c>
-      <c r="B230" s="146" t="s">
+      <c r="B230" s="150" t="s">
         <v>908</v>
       </c>
-      <c r="C230" s="152" t="s">
+      <c r="C230" s="156" t="s">
         <v>880</v>
       </c>
       <c r="D230" s="73" t="s">
         <v>881</v>
       </c>
-      <c r="E230" s="151" t="s">
+      <c r="E230" s="155" t="s">
         <v>909</v>
       </c>
       <c r="F230" s="73"/>
       <c r="G230" s="73" t="s">
         <v>883</v>
       </c>
-      <c r="H230" s="150" t="s">
+      <c r="H230" s="154" t="s">
         <v>910</v>
       </c>
       <c r="I230" s="6"/>
@@ -17961,23 +17986,23 @@
       <c r="A231" s="69" t="s">
         <v>911</v>
       </c>
-      <c r="B231" s="146" t="s">
+      <c r="B231" s="150" t="s">
         <v>912</v>
       </c>
-      <c r="C231" s="152" t="s">
+      <c r="C231" s="156" t="s">
         <v>880</v>
       </c>
       <c r="D231" s="73" t="s">
         <v>881</v>
       </c>
-      <c r="E231" s="151" t="s">
+      <c r="E231" s="155" t="s">
         <v>913</v>
       </c>
       <c r="F231" s="73"/>
       <c r="G231" s="73" t="s">
         <v>883</v>
       </c>
-      <c r="H231" s="150" t="s">
+      <c r="H231" s="154" t="s">
         <v>914</v>
       </c>
       <c r="I231" s="6"/>
@@ -17988,23 +18013,23 @@
       <c r="A232" s="69" t="s">
         <v>915</v>
       </c>
-      <c r="B232" s="146" t="s">
+      <c r="B232" s="150" t="s">
         <v>916</v>
       </c>
-      <c r="C232" s="152" t="s">
+      <c r="C232" s="156" t="s">
         <v>880</v>
       </c>
       <c r="D232" s="73" t="s">
         <v>881</v>
       </c>
-      <c r="E232" s="151" t="s">
+      <c r="E232" s="155" t="s">
         <v>917</v>
       </c>
       <c r="F232" s="73"/>
       <c r="G232" s="73" t="s">
         <v>883</v>
       </c>
-      <c r="H232" s="150" t="s">
+      <c r="H232" s="154" t="s">
         <v>918</v>
       </c>
       <c r="I232" s="6"/>
@@ -18015,23 +18040,23 @@
       <c r="A233" s="69" t="s">
         <v>919</v>
       </c>
-      <c r="B233" s="146" t="s">
+      <c r="B233" s="150" t="s">
         <v>920</v>
       </c>
-      <c r="C233" s="147" t="s">
+      <c r="C233" s="151" t="s">
         <v>880</v>
       </c>
-      <c r="D233" s="149" t="s">
+      <c r="D233" s="153" t="s">
         <v>881</v>
       </c>
-      <c r="E233" s="149" t="s">
+      <c r="E233" s="153" t="s">
         <v>921</v>
       </c>
       <c r="F233" s="73"/>
       <c r="G233" s="73" t="s">
         <v>883</v>
       </c>
-      <c r="H233" s="150" t="s">
+      <c r="H233" s="154" t="s">
         <v>922</v>
       </c>
       <c r="I233" s="6"/>
@@ -18042,14 +18067,14 @@
       <c r="A234" s="69" t="s">
         <v>923</v>
       </c>
-      <c r="B234" s="146" t="s">
+      <c r="B234" s="150" t="s">
         <v>924</v>
       </c>
-      <c r="C234" s="147" t="s">
+      <c r="C234" s="151" t="s">
         <v>440</v>
       </c>
-      <c r="D234" s="149"/>
-      <c r="E234" s="149"/>
+      <c r="D234" s="153"/>
+      <c r="E234" s="153"/>
       <c r="F234" s="73"/>
       <c r="G234" s="73"/>
       <c r="H234" s="73"/>
@@ -18061,23 +18086,23 @@
       <c r="A235" s="69" t="s">
         <v>925</v>
       </c>
-      <c r="B235" s="146" t="s">
+      <c r="B235" s="150" t="s">
         <v>926</v>
       </c>
-      <c r="C235" s="149" t="s">
+      <c r="C235" s="153" t="s">
         <v>880</v>
       </c>
-      <c r="D235" s="149" t="s">
+      <c r="D235" s="153" t="s">
         <v>881</v>
       </c>
-      <c r="E235" s="149" t="s">
+      <c r="E235" s="153" t="s">
         <v>927</v>
       </c>
       <c r="F235" s="73"/>
       <c r="G235" s="73" t="s">
         <v>883</v>
       </c>
-      <c r="H235" s="150" t="s">
+      <c r="H235" s="154" t="s">
         <v>928</v>
       </c>
       <c r="I235" s="6"/>
@@ -18088,23 +18113,23 @@
       <c r="A236" s="69" t="s">
         <v>929</v>
       </c>
-      <c r="B236" s="146" t="s">
+      <c r="B236" s="150" t="s">
         <v>930</v>
       </c>
-      <c r="C236" s="149" t="s">
+      <c r="C236" s="153" t="s">
         <v>880</v>
       </c>
-      <c r="D236" s="149" t="s">
+      <c r="D236" s="153" t="s">
         <v>881</v>
       </c>
-      <c r="E236" s="149" t="s">
+      <c r="E236" s="153" t="s">
         <v>931</v>
       </c>
       <c r="F236" s="73"/>
       <c r="G236" s="73" t="s">
         <v>883</v>
       </c>
-      <c r="H236" s="150" t="s">
+      <c r="H236" s="154" t="s">
         <v>932</v>
       </c>
       <c r="I236" s="6"/>
@@ -18115,7 +18140,7 @@
       <c r="A237" s="69" t="s">
         <v>933</v>
       </c>
-      <c r="B237" s="146" t="s">
+      <c r="B237" s="150" t="s">
         <v>934</v>
       </c>
       <c r="C237" s="73" t="s">
@@ -18124,14 +18149,14 @@
       <c r="D237" s="73" t="s">
         <v>881</v>
       </c>
-      <c r="E237" s="151" t="s">
+      <c r="E237" s="155" t="s">
         <v>935</v>
       </c>
       <c r="F237" s="73"/>
-      <c r="G237" s="149" t="s">
+      <c r="G237" s="153" t="s">
         <v>883</v>
       </c>
-      <c r="H237" s="150" t="s">
+      <c r="H237" s="154" t="s">
         <v>936</v>
       </c>
       <c r="I237" s="6"/>
@@ -18142,12 +18167,12 @@
       <c r="A238" s="69" t="s">
         <v>937</v>
       </c>
-      <c r="B238" s="146" t="s">
+      <c r="B238" s="150" t="s">
         <v>938</v>
       </c>
-      <c r="C238" s="149"/>
-      <c r="D238" s="149"/>
-      <c r="E238" s="149"/>
+      <c r="C238" s="153"/>
+      <c r="D238" s="153"/>
+      <c r="E238" s="153"/>
       <c r="F238" s="73"/>
       <c r="G238" s="73"/>
       <c r="H238" s="73"/>
@@ -18159,21 +18184,21 @@
       <c r="A239" s="69" t="s">
         <v>939</v>
       </c>
-      <c r="B239" s="146" t="s">
+      <c r="B239" s="150" t="s">
         <v>940</v>
       </c>
-      <c r="C239" s="153" t="s">
+      <c r="C239" s="157" t="s">
         <v>555</v>
       </c>
       <c r="D239" s="73"/>
-      <c r="E239" s="149" t="s">
+      <c r="E239" s="153" t="s">
         <v>941</v>
       </c>
       <c r="F239" s="73"/>
       <c r="G239" s="73" t="s">
         <v>883</v>
       </c>
-      <c r="H239" s="150" t="s">
+      <c r="H239" s="154" t="s">
         <v>942</v>
       </c>
       <c r="I239" s="6"/>
@@ -18184,12 +18209,12 @@
       <c r="A240" s="69" t="s">
         <v>943</v>
       </c>
-      <c r="B240" s="146" t="s">
+      <c r="B240" s="150" t="s">
         <v>944</v>
       </c>
-      <c r="C240" s="149"/>
-      <c r="D240" s="149"/>
-      <c r="E240" s="149"/>
+      <c r="C240" s="153"/>
+      <c r="D240" s="153"/>
+      <c r="E240" s="153"/>
       <c r="F240" s="73"/>
       <c r="G240" s="73"/>
       <c r="H240" s="73"/>
@@ -18201,23 +18226,23 @@
       <c r="A241" s="69" t="s">
         <v>945</v>
       </c>
-      <c r="B241" s="146" t="s">
+      <c r="B241" s="150" t="s">
         <v>946</v>
       </c>
-      <c r="C241" s="147" t="s">
+      <c r="C241" s="151" t="s">
         <v>947</v>
       </c>
-      <c r="D241" s="149" t="s">
+      <c r="D241" s="153" t="s">
         <v>948</v>
       </c>
-      <c r="E241" s="154" t="s">
+      <c r="E241" s="158" t="s">
         <v>949</v>
       </c>
       <c r="F241" s="73"/>
       <c r="G241" s="73" t="s">
         <v>950</v>
       </c>
-      <c r="H241" s="149" t="s">
+      <c r="H241" s="153" t="s">
         <v>951</v>
       </c>
       <c r="I241" s="6"/>
@@ -18225,322 +18250,322 @@
       <c r="K241" s="6"/>
     </row>
     <row r="242">
-      <c r="A242" s="155"/>
+      <c r="A242" s="159"/>
       <c r="G242" s="29"/>
       <c r="H242" s="29"/>
     </row>
     <row r="243">
-      <c r="A243" s="155"/>
+      <c r="A243" s="159"/>
       <c r="G243" s="29"/>
       <c r="H243" s="29"/>
     </row>
     <row r="244">
-      <c r="A244" s="155"/>
+      <c r="A244" s="159"/>
       <c r="G244" s="29"/>
       <c r="H244" s="29"/>
     </row>
     <row r="245">
-      <c r="A245" s="155"/>
+      <c r="A245" s="159"/>
       <c r="G245" s="29"/>
       <c r="H245" s="29"/>
     </row>
     <row r="246">
-      <c r="A246" s="155"/>
+      <c r="A246" s="159"/>
       <c r="G246" s="29"/>
       <c r="H246" s="29"/>
     </row>
     <row r="247">
-      <c r="A247" s="155"/>
+      <c r="A247" s="159"/>
       <c r="G247" s="29"/>
       <c r="H247" s="29"/>
     </row>
     <row r="248">
-      <c r="A248" s="155"/>
+      <c r="A248" s="159"/>
       <c r="G248" s="29"/>
       <c r="H248" s="29"/>
     </row>
     <row r="249">
-      <c r="A249" s="155"/>
+      <c r="A249" s="159"/>
       <c r="G249" s="29"/>
       <c r="H249" s="29"/>
     </row>
     <row r="250">
-      <c r="A250" s="155"/>
+      <c r="A250" s="159"/>
       <c r="G250" s="29"/>
       <c r="H250" s="29"/>
     </row>
     <row r="251">
-      <c r="A251" s="155"/>
+      <c r="A251" s="159"/>
       <c r="G251" s="29"/>
       <c r="H251" s="29"/>
     </row>
     <row r="252">
-      <c r="A252" s="155"/>
+      <c r="A252" s="159"/>
       <c r="G252" s="29"/>
       <c r="H252" s="29"/>
     </row>
     <row r="253">
-      <c r="A253" s="155"/>
+      <c r="A253" s="159"/>
       <c r="G253" s="29"/>
       <c r="H253" s="29"/>
     </row>
     <row r="254">
-      <c r="A254" s="155"/>
+      <c r="A254" s="159"/>
       <c r="G254" s="29"/>
       <c r="H254" s="29"/>
     </row>
     <row r="255">
-      <c r="A255" s="155"/>
+      <c r="A255" s="159"/>
       <c r="G255" s="29"/>
       <c r="H255" s="29"/>
     </row>
     <row r="256">
-      <c r="A256" s="155"/>
+      <c r="A256" s="159"/>
       <c r="G256" s="29"/>
       <c r="H256" s="29"/>
     </row>
     <row r="257">
-      <c r="A257" s="155"/>
+      <c r="A257" s="159"/>
       <c r="G257" s="29"/>
       <c r="H257" s="29"/>
     </row>
     <row r="258">
-      <c r="A258" s="155"/>
+      <c r="A258" s="159"/>
       <c r="G258" s="29"/>
       <c r="H258" s="29"/>
     </row>
     <row r="259">
-      <c r="A259" s="155"/>
+      <c r="A259" s="159"/>
       <c r="G259" s="29"/>
       <c r="H259" s="29"/>
     </row>
     <row r="260">
-      <c r="A260" s="155"/>
+      <c r="A260" s="159"/>
       <c r="G260" s="29"/>
       <c r="H260" s="29"/>
     </row>
     <row r="261">
-      <c r="A261" s="155"/>
+      <c r="A261" s="159"/>
       <c r="G261" s="29"/>
       <c r="H261" s="29"/>
     </row>
     <row r="262">
-      <c r="A262" s="155"/>
+      <c r="A262" s="159"/>
       <c r="G262" s="29"/>
       <c r="H262" s="29"/>
     </row>
     <row r="263">
-      <c r="A263" s="155"/>
+      <c r="A263" s="159"/>
       <c r="G263" s="29"/>
       <c r="H263" s="29"/>
     </row>
     <row r="264">
-      <c r="A264" s="155"/>
+      <c r="A264" s="159"/>
       <c r="G264" s="29"/>
       <c r="H264" s="29"/>
     </row>
     <row r="265">
-      <c r="A265" s="155"/>
+      <c r="A265" s="159"/>
       <c r="G265" s="29"/>
       <c r="H265" s="29"/>
     </row>
     <row r="266">
-      <c r="A266" s="155"/>
+      <c r="A266" s="159"/>
       <c r="G266" s="29"/>
       <c r="H266" s="29"/>
     </row>
     <row r="267">
-      <c r="A267" s="155"/>
+      <c r="A267" s="159"/>
       <c r="G267" s="29"/>
       <c r="H267" s="29"/>
     </row>
     <row r="268">
-      <c r="A268" s="155"/>
+      <c r="A268" s="159"/>
       <c r="G268" s="29"/>
       <c r="H268" s="29"/>
     </row>
     <row r="269">
-      <c r="A269" s="155"/>
+      <c r="A269" s="159"/>
       <c r="G269" s="29"/>
       <c r="H269" s="29"/>
     </row>
     <row r="270">
-      <c r="A270" s="155"/>
+      <c r="A270" s="159"/>
       <c r="G270" s="29"/>
       <c r="H270" s="29"/>
     </row>
     <row r="271">
-      <c r="A271" s="155"/>
+      <c r="A271" s="159"/>
       <c r="G271" s="29"/>
       <c r="H271" s="29"/>
     </row>
     <row r="272">
-      <c r="A272" s="155"/>
+      <c r="A272" s="159"/>
       <c r="G272" s="29"/>
       <c r="H272" s="29"/>
     </row>
     <row r="273">
-      <c r="A273" s="155"/>
+      <c r="A273" s="159"/>
       <c r="G273" s="29"/>
       <c r="H273" s="29"/>
     </row>
     <row r="274">
-      <c r="A274" s="155"/>
+      <c r="A274" s="159"/>
       <c r="G274" s="29"/>
       <c r="H274" s="29"/>
     </row>
     <row r="275">
-      <c r="A275" s="155"/>
+      <c r="A275" s="159"/>
       <c r="G275" s="29"/>
       <c r="H275" s="29"/>
     </row>
     <row r="276">
-      <c r="A276" s="155"/>
+      <c r="A276" s="159"/>
       <c r="G276" s="29"/>
       <c r="H276" s="29"/>
     </row>
     <row r="277">
-      <c r="A277" s="155"/>
+      <c r="A277" s="159"/>
       <c r="G277" s="29"/>
       <c r="H277" s="29"/>
     </row>
     <row r="278">
-      <c r="A278" s="155"/>
+      <c r="A278" s="159"/>
       <c r="G278" s="29"/>
       <c r="H278" s="29"/>
     </row>
     <row r="279">
-      <c r="A279" s="155"/>
+      <c r="A279" s="159"/>
       <c r="G279" s="29"/>
       <c r="H279" s="29"/>
     </row>
     <row r="280">
-      <c r="A280" s="155"/>
+      <c r="A280" s="159"/>
       <c r="G280" s="29"/>
       <c r="H280" s="29"/>
     </row>
     <row r="281">
-      <c r="A281" s="155"/>
+      <c r="A281" s="159"/>
       <c r="G281" s="29"/>
       <c r="H281" s="29"/>
     </row>
     <row r="282">
-      <c r="A282" s="155"/>
+      <c r="A282" s="159"/>
       <c r="G282" s="29"/>
       <c r="H282" s="29"/>
     </row>
     <row r="283">
-      <c r="A283" s="155"/>
+      <c r="A283" s="159"/>
       <c r="G283" s="29"/>
       <c r="H283" s="29"/>
     </row>
     <row r="284">
-      <c r="A284" s="155"/>
+      <c r="A284" s="159"/>
       <c r="G284" s="29"/>
       <c r="H284" s="29"/>
     </row>
     <row r="285">
-      <c r="A285" s="155"/>
+      <c r="A285" s="159"/>
       <c r="G285" s="29"/>
       <c r="H285" s="29"/>
     </row>
     <row r="286">
-      <c r="A286" s="155"/>
+      <c r="A286" s="159"/>
       <c r="G286" s="29"/>
       <c r="H286" s="29"/>
     </row>
     <row r="287">
-      <c r="A287" s="155"/>
+      <c r="A287" s="159"/>
       <c r="G287" s="29"/>
       <c r="H287" s="29"/>
     </row>
     <row r="288">
-      <c r="A288" s="155"/>
+      <c r="A288" s="159"/>
       <c r="G288" s="29"/>
       <c r="H288" s="29"/>
     </row>
     <row r="289">
-      <c r="A289" s="155"/>
+      <c r="A289" s="159"/>
       <c r="G289" s="29"/>
       <c r="H289" s="29"/>
     </row>
     <row r="290">
-      <c r="A290" s="155"/>
+      <c r="A290" s="159"/>
       <c r="G290" s="29"/>
       <c r="H290" s="29"/>
     </row>
     <row r="291">
-      <c r="A291" s="155"/>
+      <c r="A291" s="159"/>
       <c r="G291" s="29"/>
       <c r="H291" s="29"/>
     </row>
     <row r="292">
-      <c r="A292" s="155"/>
+      <c r="A292" s="159"/>
       <c r="G292" s="29"/>
       <c r="H292" s="29"/>
     </row>
     <row r="293">
-      <c r="A293" s="155"/>
+      <c r="A293" s="159"/>
       <c r="G293" s="29"/>
       <c r="H293" s="29"/>
     </row>
     <row r="294">
-      <c r="A294" s="155"/>
+      <c r="A294" s="159"/>
       <c r="G294" s="29"/>
       <c r="H294" s="29"/>
     </row>
     <row r="295">
-      <c r="A295" s="155"/>
+      <c r="A295" s="159"/>
       <c r="G295" s="29"/>
       <c r="H295" s="29"/>
     </row>
     <row r="296">
-      <c r="A296" s="155"/>
+      <c r="A296" s="159"/>
       <c r="G296" s="29"/>
       <c r="H296" s="29"/>
     </row>
     <row r="297">
-      <c r="A297" s="155"/>
+      <c r="A297" s="159"/>
       <c r="G297" s="29"/>
       <c r="H297" s="29"/>
     </row>
     <row r="298">
-      <c r="A298" s="155"/>
+      <c r="A298" s="159"/>
       <c r="G298" s="29"/>
       <c r="H298" s="29"/>
     </row>
     <row r="299">
-      <c r="A299" s="155"/>
+      <c r="A299" s="159"/>
       <c r="G299" s="29"/>
       <c r="H299" s="29"/>
     </row>
     <row r="300">
-      <c r="A300" s="155"/>
+      <c r="A300" s="159"/>
       <c r="G300" s="29"/>
       <c r="H300" s="29"/>
     </row>
     <row r="301">
-      <c r="A301" s="155"/>
+      <c r="A301" s="159"/>
       <c r="G301" s="29"/>
       <c r="H301" s="29"/>
     </row>
     <row r="302">
-      <c r="A302" s="155"/>
+      <c r="A302" s="159"/>
       <c r="G302" s="29"/>
       <c r="H302" s="29"/>
     </row>
     <row r="303">
-      <c r="A303" s="155"/>
+      <c r="A303" s="159"/>
       <c r="G303" s="29"/>
       <c r="H303" s="29"/>
     </row>
     <row r="304">
-      <c r="A304" s="155"/>
+      <c r="A304" s="159"/>
       <c r="G304" s="29"/>
       <c r="H304" s="29"/>
     </row>
     <row r="305">
-      <c r="A305" s="155"/>
+      <c r="A305" s="159"/>
       <c r="G305" s="29"/>
       <c r="H305" s="29"/>
     </row>
@@ -18648,27 +18673,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="157" t="s">
+      <c r="D1" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="157" t="s">
+      <c r="E1" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="157" t="s">
+      <c r="F1" s="161" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="79" t="s">
         <v>952</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -18686,10 +18711,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="79" t="s">
         <v>952</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>953</v>
       </c>
       <c r="C3" s="74" t="s">
@@ -18704,62 +18729,62 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="162" t="s">
         <v>252</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="115" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="162" t="s">
         <v>327</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="42" t="s">
         <v>961</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>962</v>
       </c>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
-      <c r="X5" s="159"/>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="159"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="163"/>
+      <c r="Y5" s="163"/>
+      <c r="Z5" s="163"/>
     </row>
     <row r="6">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="79" t="s">
         <v>963</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="78" t="s">
         <v>964</v>
       </c>
       <c r="C6" s="74" t="s">
@@ -18774,29 +18799,29 @@
       <c r="F6" s="51" t="s">
         <v>968</v>
       </c>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="159"/>
-      <c r="U6" s="159"/>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="159"/>
-      <c r="Z6" s="159"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="163"/>
+      <c r="X6" s="163"/>
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="163"/>
     </row>
     <row r="7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="79" t="s">
         <v>526</v>
       </c>
       <c r="B7" s="51" t="s">
@@ -18819,65 +18844,65 @@
       <c r="A8" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="78" t="s">
         <v>605</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="164" t="s">
         <v>606</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="78" t="s">
         <v>970</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="78" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="162" t="s">
         <v>577</v>
       </c>
       <c r="B9" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="68" t="s">
         <v>972</v>
       </c>
-      <c r="F9" s="161" t="s">
+      <c r="F9" s="165" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="162" t="s">
         <v>577</v>
       </c>
       <c r="B10" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="68" t="s">
         <v>972</v>
       </c>
-      <c r="F10" s="161" t="s">
+      <c r="F10" s="165" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="104" t="s">
         <v>610</v>
       </c>
       <c r="B11" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="68" t="s">
         <v>975</v>
       </c>
-      <c r="F11" s="161" t="s">
+      <c r="F11" s="165" t="s">
         <v>976</v>
       </c>
     </row>
@@ -18885,7 +18910,7 @@
       <c r="A12" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="78" t="s">
         <v>651</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -18894,22 +18919,22 @@
       <c r="D12" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="E12" s="77" t="s">
+      <c r="E12" s="78" t="s">
         <v>977</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="78" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="104" t="s">
         <v>661</v>
       </c>
       <c r="B13" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="68" t="s">
         <v>979</v>
       </c>
@@ -22894,7 +22919,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="166" t="s">
         <v>981</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -22902,7 +22927,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="167" t="s">
         <v>983</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -22910,12 +22935,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="168" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="169" t="s">
         <v>986</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -22934,53 +22959,53 @@
       <c r="B9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="169" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="169" t="s">
         <v>990</v>
       </c>
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="170" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="171" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="168"/>
-      <c r="B13" s="169" t="s">
+      <c r="A13" s="172"/>
+      <c r="B13" s="173" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="170" t="s">
+      <c r="B14" s="174" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="175" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="176" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="165"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="29"/>
     </row>
     <row r="18">
-      <c r="A18" s="165" t="s">
+      <c r="A18" s="169" t="s">
         <v>997</v>
       </c>
-      <c r="B18" s="173" t="s">
+      <c r="B18" s="177" t="s">
         <v>998</v>
       </c>
     </row>
@@ -22988,13 +23013,13 @@
       <c r="A19" s="6" t="s">
         <v>999</v>
       </c>
-      <c r="B19" s="174"/>
+      <c r="B19" s="178"/>
     </row>
     <row r="21">
-      <c r="A21" s="165" t="s">
+      <c r="A21" s="169" t="s">
         <v>1000</v>
       </c>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="179" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -23020,7 +23045,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="169" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -23099,7 +23124,7 @@
       <c r="A1" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="180" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -23167,7 +23192,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="166"/>
+      <c r="A1" s="170"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -23191,47 +23216,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="181" t="s">
         <v>1024</v>
       </c>
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="181" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="169" t="s">
         <v>1026</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="169" t="s">
         <v>1027</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="169" t="s">
         <v>1028</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="169" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="182" t="s">
         <v>1030</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="182" t="s">
         <v>1031</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>1032</v>
       </c>
-      <c r="D3" s="179" t="str">
+      <c r="D3" s="183" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
         <v>ADDRESS_CONTRACTING_BODY</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="182" t="s">
         <v>1033</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="182" t="s">
         <v>1031</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -23243,10 +23268,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="170" t="s">
         <v>1034</v>
       </c>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="170" t="s">
         <v>1035</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -23254,10 +23279,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="170" t="s">
         <v>1036</v>
       </c>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="170" t="s">
         <v>1037</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -23274,7 +23299,7 @@
       <c r="C7" s="21" t="s">
         <v>1032</v>
       </c>
-      <c r="D7" s="180" t="s">
+      <c r="D7" s="184" t="s">
         <v>1040</v>
       </c>
     </row>
@@ -23288,7 +23313,7 @@
       <c r="C8" s="21" t="s">
         <v>1032</v>
       </c>
-      <c r="D8" s="181" t="s">
+      <c r="D8" s="185" t="s">
         <v>1043</v>
       </c>
     </row>
@@ -23332,21 +23357,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="181" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="169" t="s">
         <v>1026</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="169" t="s">
         <v>1027</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="169" t="s">
         <v>1028</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="169" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -23373,7 +23398,7 @@
       <c r="B5" s="21" t="s">
         <v>1052</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="185" t="s">
         <v>1050</v>
       </c>
       <c r="D5" s="21" t="s">

--- a/mappings/package_F06/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F06/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F06/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F06/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>4.1.0</t>
+    <t>4.2.1</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F06/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F06/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.6.0</t>
   </si>
   <si>
     <r>
@@ -3895,10 +3895,10 @@
     <t>Information about tenders</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:concernsSubmissionsForLot ?value .</t>
+    <t>epo:SubmissionStatisticalInformation / epo:LotAwardOutcome</t>
+  </si>
+  <si>
+    <t>?this epo:summarisesInformationForLotAwardOutcome ?value .</t>
   </si>
   <si>
     <t>V.2.2.0</t>
@@ -17330,7 +17330,7 @@
         <v>845</v>
       </c>
       <c r="F207" s="50"/>
-      <c r="G207" s="124" t="s">
+      <c r="G207" s="40" t="s">
         <v>846</v>
       </c>
       <c r="H207" s="125" t="s">

--- a/mappings/package_F06/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F06/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <r>
@@ -2429,7 +2429,8 @@
     <t>II.2.5.0</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY
+OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY</t>
   </si>
   <si>
     <t xml:space="preserve">epo:Lot / epo:AwardCriterion </t>
@@ -2527,7 +2528,8 @@
     <t>Award Criterion name</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY/AC_CRITERION</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY/AC_CRITERION
+OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY/AC_CRITERION</t>
   </si>
   <si>
     <t>epo:AwardCriterion / rdf:langString</t>
@@ -2548,13 +2550,15 @@
     <t>Award Criterion complicated</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY/AC_WEIGHTING</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY/AC_WEIGHTING
+OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY/AC_WEIGHTING</t>
   </si>
   <si>
     <t>?this cccev:weight ?value .</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_COST</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_COST
+OBJECT_CONTRACT/OBJECT_DESCR/AC_COST</t>
   </si>
   <si>
     <r>
@@ -2628,16 +2632,19 @@
     <t>II.2.5.2.1</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_COST/AC_CRITERION</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_COST/AC_CRITERION
+OBJECT_CONTRACT/OBJECT_DESCR/AC_COST/AC_CRITERION</t>
   </si>
   <si>
     <t>II.2.5.2.2</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_COST/AC_WEIGHTING</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_PRICE</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_COST/AC_WEIGHTING
+OBJECT_CONTRACT/OBJECT_DESCR/AC_COST/AC_WEIGHTING</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_PRICE
+OBJECT_CONTRACT/OBJECT_DESCR/AC_PRICE</t>
   </si>
   <si>
     <r>
@@ -2714,7 +2721,8 @@
     <t>II.2.5.3.1</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_PRICE/AC_WEIGHTING</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_PRICE/AC_WEIGHTING
+OBJECT_CONTRACT/OBJECT_DESCR/AC_PRICE/AC_WEIGHTING</t>
   </si>
   <si>
     <t>II.2.11</t>
@@ -3833,7 +3841,7 @@
     <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
   </si>
   <si>
-    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` or (in earlier versions of XML) `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR` XPath</t>
+    <t>Winner is created only if there is a contractor identified by the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` (or in earlier versions of XML by the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR`) XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -3923,7 +3931,8 @@
     <t>Received Submissions Count</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED</t>
   </si>
   <si>
     <t xml:space="preserve"> epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -3938,7 +3947,8 @@
     <t>Number of tenders received from SMEs</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_SME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_SME
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_SME</t>
   </si>
   <si>
     <t>epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -3982,7 +3992,8 @@
     <t>Number of tenders received from tenderers from other EU Member States</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_OTHER_EU</t>
   </si>
   <si>
     <r>
@@ -4023,7 +4034,8 @@
     <t>Number of tenders received from tenderers from non-EU Member States</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_NON_EU</t>
   </si>
   <si>
     <r>
@@ -4064,7 +4076,8 @@
     <t>Number of tenders received by electronic means</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_EMEANS</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_EMEANS
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_EMEANS</t>
   </si>
   <si>
     <t>?this epo:hasElectronicTenders ?value .</t>

--- a/mappings/package_F06/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F06/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <r>
@@ -7251,7 +7251,7 @@
     <t>notice.rml.ttl</t>
   </si>
   <si>
-    <t>confidentiality.ttl</t>
+    <t>confidentiality.rml.ttl</t>
   </si>
   <si>
     <t>Informal (if possible to become formal)</t>
@@ -8248,7 +8248,7 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>

--- a/mappings/package_F06/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F06/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="1081">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>6.2.0</t>
   </si>
   <si>
     <r>
@@ -931,7 +931,7 @@
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_BUYER</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / epo:BuyerProfile / xsd:anyURI</t>
+    <t>epo:AgentInRole (from CL1) / xsd:anyURI</t>
   </si>
   <si>
     <r>
@@ -954,7 +954,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -1518,7 +1518,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -1723,7 +1723,7 @@
     <t>org:Organization / at-voc:main-activity (from main_activity.csv)</t>
   </si>
   <si>
-    <t>?this epo:hasMainActivityType ?value .</t>
+    <t>?this epo:hasMainActivity ?value .</t>
   </si>
   <si>
     <t>I.6.1</t>
@@ -1876,7 +1876,7 @@
     <t>epo:Procedure / epo:Purpose / at-voc:cpv (from cpv.json)</t>
   </si>
   <si>
-    <t>?this epo:hasOverallPurpose / epo:hasMainClassification ?value .</t>
+    <t>?this epo:hasPurpose / epo:hasMainClassification ?value .</t>
   </si>
   <si>
     <t>II.1.2.1</t>
@@ -1915,43 +1915,7 @@
     <t>epo:Procedure / epo:Purpose / at-voc:contract-nature (from contract_nature.json)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasOverallPurpose / epo:hasContractNatureType ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
+    <t>?this epo:hasPurpose / epo:hasContractNatureType ?value .</t>
   </si>
   <si>
     <t>II.1.4</t>
@@ -3686,31 +3650,7 @@
     <t>epo:Contract / epo:LotAwardOutcome / at-voc:winner-selection-status</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> epo:includesLotAwardOutcome / epo:hasAwardStatus   </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>&lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> .
-</t>
-    </r>
+    <t>?this epo:resultsFromLotAwardOutcome / epo:hasAwardStatus   &lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt; .</t>
   </si>
   <si>
     <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
@@ -4762,7 +4702,7 @@
 AWARD_CONTRACT/AWARDED_CONTRACT/VAL_RANGE_TOTAL/LOW</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / MonetaryValue / xsd:decimal</t>
+    <t>epo:SubmissionStatisticalInformation / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <r>
@@ -4812,7 +4752,7 @@
 AWARD_CONTRACT/AWARDED_CONTRACT/VAL_RANGE_TOTAL/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / MonetaryValue / at-voc:currency (from currency.json)</t>
+    <t>epo:SubmissionStatisticalInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <r>
@@ -4994,7 +4934,7 @@
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/VAL_SUBCONTRACTING/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:Tender / epo:SubcontractingEstimate / MonetaryValue /at-voc:currency (from currency.json)</t>
+    <t>epo:Tender / epo:SubcontractingEstimate / epo:MonetaryValue /at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <t>?this epo:foreseesSubcontracting / epo:hasSubcontractingEstimatedValue / epo:hasCurrency ?value .</t>
@@ -5519,9 +5459,6 @@
   </si>
   <si>
     <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/POSTAL_CODE</t>
-  </si>
-  <si>
-    <t>epo:AgentInRole (from CL1)  / org:Organizationn (from CL2) / locn:Address / rdf:langString</t>
   </si>
   <si>
     <r>
@@ -7210,9 +7147,6 @@
   </si>
   <si>
     <t>buyer_legal_type.csv</t>
-  </si>
-  <si>
-    <t>award_criterion_type.json</t>
   </si>
   <si>
     <t>legal_basis.json</t>
@@ -13050,7 +12984,7 @@
       <c r="G41" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="4" t="s">
         <v>205</v>
       </c>
       <c r="I41" s="6"/>
@@ -13300,7 +13234,7 @@
       <c r="G49" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="4" t="s">
         <v>245</v>
       </c>
       <c r="I49" s="6"/>
@@ -17028,10 +16962,10 @@
       </c>
       <c r="F191" s="117"/>
       <c r="G191" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H191" s="40" t="s">
         <v>802</v>
-      </c>
-      <c r="H191" s="40" t="s">
-        <v>803</v>
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
@@ -17039,7 +16973,7 @@
     </row>
     <row r="192">
       <c r="A192" s="76" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B192" s="56" t="s">
         <v>100</v>
@@ -17051,14 +16985,14 @@
         <v>102</v>
       </c>
       <c r="E192" s="117" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F192" s="117"/>
       <c r="G192" s="50" t="s">
         <v>104</v>
       </c>
       <c r="H192" s="50" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
@@ -17066,7 +17000,7 @@
     </row>
     <row r="193">
       <c r="A193" s="76" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B193" s="56" t="s">
         <v>120</v>
@@ -17078,7 +17012,7 @@
         <v>122</v>
       </c>
       <c r="E193" s="117" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F193" s="117"/>
       <c r="G193" s="50" t="s">
@@ -17093,7 +17027,7 @@
     </row>
     <row r="194">
       <c r="A194" s="76" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B194" s="56" t="s">
         <v>114</v>
@@ -17105,7 +17039,7 @@
         <v>116</v>
       </c>
       <c r="E194" s="50" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F194" s="72"/>
       <c r="G194" s="50" t="s">
@@ -17120,7 +17054,7 @@
     </row>
     <row r="195">
       <c r="A195" s="76" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B195" s="56" t="s">
         <v>645</v>
@@ -17132,14 +17066,14 @@
         <v>137</v>
       </c>
       <c r="E195" s="50" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F195" s="50"/>
       <c r="G195" s="46" t="s">
         <v>638</v>
       </c>
       <c r="H195" s="46" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
@@ -17147,7 +17081,7 @@
     </row>
     <row r="196">
       <c r="A196" s="76" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B196" s="56" t="s">
         <v>127</v>
@@ -17159,7 +17093,7 @@
         <v>129</v>
       </c>
       <c r="E196" s="50" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F196" s="50"/>
       <c r="G196" s="50" t="s">
@@ -17174,21 +17108,21 @@
     </row>
     <row r="197">
       <c r="A197" s="49" t="s">
+        <v>815</v>
+      </c>
+      <c r="B197" s="48" t="s">
         <v>816</v>
-      </c>
-      <c r="B197" s="48" t="s">
-        <v>817</v>
       </c>
       <c r="C197" s="128" t="s">
         <v>446</v>
       </c>
       <c r="D197" s="130"/>
       <c r="E197" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F197" s="37"/>
       <c r="G197" s="37" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H197" s="37" t="s">
         <v>790</v>
@@ -17199,7 +17133,7 @@
     </row>
     <row r="198">
       <c r="A198" s="76" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B198" s="56" t="s">
         <v>56</v>
@@ -17211,14 +17145,14 @@
         <v>58</v>
       </c>
       <c r="E198" s="50" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F198" s="50"/>
       <c r="G198" s="40" t="s">
         <v>60</v>
       </c>
       <c r="H198" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I198" s="6" t="s">
         <v>62</v>
@@ -17228,7 +17162,7 @@
     </row>
     <row r="199">
       <c r="A199" s="76" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B199" s="56" t="s">
         <v>72</v>
@@ -17240,14 +17174,14 @@
         <v>74</v>
       </c>
       <c r="E199" s="50" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F199" s="50"/>
       <c r="G199" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H199" s="40" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
@@ -17255,7 +17189,7 @@
     </row>
     <row r="200">
       <c r="A200" s="76" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B200" s="56" t="s">
         <v>79</v>
@@ -17267,14 +17201,14 @@
         <v>81</v>
       </c>
       <c r="E200" s="50" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F200" s="50"/>
       <c r="G200" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H200" s="40" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
@@ -17282,7 +17216,7 @@
     </row>
     <row r="201">
       <c r="A201" s="76" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B201" s="56" t="s">
         <v>93</v>
@@ -17294,14 +17228,14 @@
         <v>630</v>
       </c>
       <c r="E201" s="50" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F201" s="50"/>
       <c r="G201" s="40" t="s">
         <v>97</v>
       </c>
       <c r="H201" s="40" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
@@ -17309,7 +17243,7 @@
     </row>
     <row r="202">
       <c r="A202" s="76" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B202" s="56" t="s">
         <v>100</v>
@@ -17321,14 +17255,14 @@
         <v>102</v>
       </c>
       <c r="E202" s="50" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F202" s="50"/>
       <c r="G202" s="40" t="s">
         <v>104</v>
       </c>
       <c r="H202" s="40" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
@@ -17336,7 +17270,7 @@
     </row>
     <row r="203">
       <c r="A203" s="76" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B203" s="56" t="s">
         <v>120</v>
@@ -17348,7 +17282,7 @@
         <v>122</v>
       </c>
       <c r="E203" s="50" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F203" s="50"/>
       <c r="G203" s="50" t="s">
@@ -17363,7 +17297,7 @@
     </row>
     <row r="204">
       <c r="A204" s="76" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B204" s="56" t="s">
         <v>114</v>
@@ -17375,7 +17309,7 @@
         <v>116</v>
       </c>
       <c r="E204" s="50" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F204" s="50"/>
       <c r="G204" s="50" t="s">
@@ -17390,7 +17324,7 @@
     </row>
     <row r="205">
       <c r="A205" s="76" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B205" s="56" t="s">
         <v>645</v>
@@ -17402,14 +17336,14 @@
         <v>137</v>
       </c>
       <c r="E205" s="72" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F205" s="72"/>
       <c r="G205" s="68" t="s">
         <v>638</v>
       </c>
       <c r="H205" s="68" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
@@ -17417,7 +17351,7 @@
     </row>
     <row r="206">
       <c r="A206" s="76" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B206" s="56" t="s">
         <v>127</v>
@@ -17429,7 +17363,7 @@
         <v>129</v>
       </c>
       <c r="E206" s="50" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F206" s="72"/>
       <c r="G206" s="72" t="s">
@@ -17444,26 +17378,26 @@
     </row>
     <row r="207">
       <c r="A207" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="B207" s="48" t="s">
         <v>844</v>
       </c>
-      <c r="B207" s="48" t="s">
+      <c r="C207" s="62" t="s">
         <v>845</v>
       </c>
-      <c r="C207" s="62" t="s">
+      <c r="D207" s="62" t="s">
         <v>846</v>
       </c>
-      <c r="D207" s="62" t="s">
+      <c r="E207" s="50" t="s">
         <v>847</v>
-      </c>
-      <c r="E207" s="50" t="s">
-        <v>848</v>
       </c>
       <c r="F207" s="50"/>
       <c r="G207" s="40" t="s">
+        <v>848</v>
+      </c>
+      <c r="H207" s="126" t="s">
         <v>849</v>
-      </c>
-      <c r="H207" s="126" t="s">
-        <v>850</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
@@ -17471,15 +17405,15 @@
     </row>
     <row r="208">
       <c r="A208" s="49" t="s">
+        <v>850</v>
+      </c>
+      <c r="B208" s="48" t="s">
         <v>851</v>
-      </c>
-      <c r="B208" s="48" t="s">
-        <v>852</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="40" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F208" s="62"/>
       <c r="G208" s="37" t="s">
@@ -17494,7 +17428,7 @@
     </row>
     <row r="209">
       <c r="A209" s="76" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B209" s="56" t="s">
         <v>56</v>
@@ -17506,14 +17440,14 @@
         <v>58</v>
       </c>
       <c r="E209" s="50" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F209" s="72"/>
       <c r="G209" s="40" t="s">
         <v>60</v>
       </c>
       <c r="H209" s="81" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I209" s="6" t="s">
         <v>62</v>
@@ -17523,7 +17457,7 @@
     </row>
     <row r="210">
       <c r="A210" s="76" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B210" s="56" t="s">
         <v>72</v>
@@ -17535,14 +17469,14 @@
         <v>74</v>
       </c>
       <c r="E210" s="50" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F210" s="72"/>
       <c r="G210" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H210" s="81" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
@@ -17550,7 +17484,7 @@
     </row>
     <row r="211">
       <c r="A211" s="76" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B211" s="56" t="s">
         <v>79</v>
@@ -17562,14 +17496,14 @@
         <v>81</v>
       </c>
       <c r="E211" s="72" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F211" s="72"/>
       <c r="G211" s="83" t="s">
         <v>76</v>
       </c>
       <c r="H211" s="132" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
@@ -17577,7 +17511,7 @@
     </row>
     <row r="212">
       <c r="A212" s="76" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B212" s="56" t="s">
         <v>93</v>
@@ -17589,14 +17523,14 @@
         <v>630</v>
       </c>
       <c r="E212" s="50" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F212" s="72"/>
       <c r="G212" s="40" t="s">
         <v>97</v>
       </c>
       <c r="H212" s="81" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
@@ -17604,7 +17538,7 @@
     </row>
     <row r="213">
       <c r="A213" s="76" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B213" s="56" t="s">
         <v>100</v>
@@ -17616,14 +17550,14 @@
         <v>102</v>
       </c>
       <c r="E213" s="50" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F213" s="72"/>
       <c r="G213" s="50" t="s">
         <v>104</v>
       </c>
       <c r="H213" s="97" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
@@ -17631,7 +17565,7 @@
     </row>
     <row r="214">
       <c r="A214" s="76" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B214" s="56" t="s">
         <v>120</v>
@@ -17643,7 +17577,7 @@
         <v>122</v>
       </c>
       <c r="E214" s="50" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F214" s="72"/>
       <c r="G214" s="50" t="s">
@@ -17658,7 +17592,7 @@
     </row>
     <row r="215">
       <c r="A215" s="76" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B215" s="56" t="s">
         <v>114</v>
@@ -17670,7 +17604,7 @@
         <v>116</v>
       </c>
       <c r="E215" s="50" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F215" s="72"/>
       <c r="G215" s="50" t="s">
@@ -17685,7 +17619,7 @@
     </row>
     <row r="216">
       <c r="A216" s="76" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B216" s="56" t="s">
         <v>645</v>
@@ -17697,14 +17631,14 @@
         <v>137</v>
       </c>
       <c r="E216" s="50" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F216" s="72"/>
       <c r="G216" s="46" t="s">
         <v>638</v>
       </c>
       <c r="H216" s="46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
@@ -17712,7 +17646,7 @@
     </row>
     <row r="217">
       <c r="A217" s="76" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B217" s="56" t="s">
         <v>127</v>
@@ -17724,7 +17658,7 @@
         <v>129</v>
       </c>
       <c r="E217" s="50" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F217" s="72"/>
       <c r="G217" s="50" t="s">
@@ -17739,26 +17673,26 @@
     </row>
     <row r="218">
       <c r="A218" s="95" t="s">
+        <v>877</v>
+      </c>
+      <c r="B218" s="39" t="s">
         <v>878</v>
       </c>
-      <c r="B218" s="39" t="s">
+      <c r="C218" s="133" t="s">
         <v>879</v>
       </c>
-      <c r="C218" s="133" t="s">
+      <c r="D218" s="133" t="s">
         <v>880</v>
       </c>
-      <c r="D218" s="133" t="s">
+      <c r="E218" s="134" t="s">
         <v>881</v>
-      </c>
-      <c r="E218" s="134" t="s">
-        <v>882</v>
       </c>
       <c r="F218" s="135"/>
       <c r="G218" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="H218" s="136" t="s">
         <v>883</v>
-      </c>
-      <c r="H218" s="136" t="s">
-        <v>884</v>
       </c>
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
@@ -17766,10 +17700,10 @@
     </row>
     <row r="219">
       <c r="A219" s="34" t="s">
+        <v>884</v>
+      </c>
+      <c r="B219" s="66" t="s">
         <v>885</v>
-      </c>
-      <c r="B219" s="66" t="s">
-        <v>886</v>
       </c>
       <c r="C219" s="71"/>
       <c r="D219" s="71"/>
@@ -17783,17 +17717,17 @@
     </row>
     <row r="220">
       <c r="A220" s="38" t="s">
+        <v>886</v>
+      </c>
+      <c r="B220" s="39" t="s">
         <v>887</v>
-      </c>
-      <c r="B220" s="39" t="s">
-        <v>888</v>
       </c>
       <c r="C220" s="137" t="s">
         <v>446</v>
       </c>
       <c r="D220" s="71"/>
       <c r="E220" s="109" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F220" s="71"/>
       <c r="G220" s="71"/>
@@ -17804,26 +17738,26 @@
     </row>
     <row r="221">
       <c r="A221" s="47" t="s">
+        <v>889</v>
+      </c>
+      <c r="B221" s="138" t="s">
         <v>890</v>
       </c>
-      <c r="B221" s="138" t="s">
+      <c r="C221" s="71" t="s">
         <v>891</v>
       </c>
-      <c r="C221" s="71" t="s">
+      <c r="D221" s="71" t="s">
         <v>892</v>
       </c>
-      <c r="D221" s="71" t="s">
+      <c r="E221" s="70" t="s">
         <v>893</v>
-      </c>
-      <c r="E221" s="70" t="s">
-        <v>894</v>
       </c>
       <c r="F221" s="71"/>
       <c r="G221" s="70" t="s">
+        <v>894</v>
+      </c>
+      <c r="H221" s="123" t="s">
         <v>895</v>
-      </c>
-      <c r="H221" s="123" t="s">
-        <v>896</v>
       </c>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
@@ -17831,26 +17765,26 @@
     </row>
     <row r="222">
       <c r="A222" s="47" t="s">
+        <v>896</v>
+      </c>
+      <c r="B222" s="138" t="s">
         <v>897</v>
       </c>
-      <c r="B222" s="138" t="s">
+      <c r="C222" s="71" t="s">
+        <v>891</v>
+      </c>
+      <c r="D222" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E222" s="70" t="s">
         <v>898</v>
-      </c>
-      <c r="C222" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="D222" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="E222" s="70" t="s">
-        <v>899</v>
       </c>
       <c r="F222" s="71"/>
       <c r="G222" s="70" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H222" s="123" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
@@ -17858,10 +17792,10 @@
     </row>
     <row r="223">
       <c r="A223" s="47" t="s">
+        <v>900</v>
+      </c>
+      <c r="B223" s="138" t="s">
         <v>901</v>
-      </c>
-      <c r="B223" s="138" t="s">
-        <v>902</v>
       </c>
       <c r="C223" s="71"/>
       <c r="D223" s="71"/>
@@ -17875,26 +17809,26 @@
     </row>
     <row r="224">
       <c r="A224" s="55" t="s">
+        <v>902</v>
+      </c>
+      <c r="B224" s="139" t="s">
         <v>903</v>
       </c>
-      <c r="B224" s="139" t="s">
+      <c r="C224" s="71" t="s">
+        <v>891</v>
+      </c>
+      <c r="D224" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E224" s="57" t="s">
         <v>904</v>
-      </c>
-      <c r="C224" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="D224" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="E224" s="57" t="s">
-        <v>905</v>
       </c>
       <c r="F224" s="71"/>
       <c r="G224" s="70" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H224" s="123" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
@@ -17902,26 +17836,26 @@
     </row>
     <row r="225">
       <c r="A225" s="55" t="s">
+        <v>906</v>
+      </c>
+      <c r="B225" s="139" t="s">
         <v>907</v>
       </c>
-      <c r="B225" s="139" t="s">
+      <c r="C225" s="71" t="s">
+        <v>891</v>
+      </c>
+      <c r="D225" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E225" s="109" t="s">
         <v>908</v>
-      </c>
-      <c r="C225" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="D225" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="E225" s="109" t="s">
-        <v>909</v>
       </c>
       <c r="F225" s="71"/>
       <c r="G225" s="71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H225" s="140" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
@@ -17929,26 +17863,26 @@
     </row>
     <row r="226">
       <c r="A226" s="55" t="s">
+        <v>910</v>
+      </c>
+      <c r="B226" s="139" t="s">
         <v>911</v>
       </c>
-      <c r="B226" s="139" t="s">
+      <c r="C226" s="71" t="s">
+        <v>891</v>
+      </c>
+      <c r="D226" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E226" s="109" t="s">
         <v>912</v>
-      </c>
-      <c r="C226" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="D226" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="E226" s="109" t="s">
-        <v>913</v>
       </c>
       <c r="F226" s="71"/>
       <c r="G226" s="71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H226" s="140" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
@@ -17956,26 +17890,26 @@
     </row>
     <row r="227">
       <c r="A227" s="47" t="s">
+        <v>914</v>
+      </c>
+      <c r="B227" s="138" t="s">
         <v>915</v>
       </c>
-      <c r="B227" s="138" t="s">
+      <c r="C227" s="137" t="s">
+        <v>891</v>
+      </c>
+      <c r="D227" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E227" s="109" t="s">
         <v>916</v>
-      </c>
-      <c r="C227" s="137" t="s">
-        <v>892</v>
-      </c>
-      <c r="D227" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="E227" s="109" t="s">
-        <v>917</v>
       </c>
       <c r="F227" s="71"/>
       <c r="G227" s="71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H227" s="140" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
@@ -17983,26 +17917,26 @@
     </row>
     <row r="228">
       <c r="A228" s="47" t="s">
+        <v>918</v>
+      </c>
+      <c r="B228" s="138" t="s">
         <v>919</v>
       </c>
-      <c r="B228" s="138" t="s">
+      <c r="C228" s="137" t="s">
+        <v>891</v>
+      </c>
+      <c r="D228" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E228" s="109" t="s">
         <v>920</v>
-      </c>
-      <c r="C228" s="137" t="s">
-        <v>892</v>
-      </c>
-      <c r="D228" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="E228" s="109" t="s">
-        <v>921</v>
       </c>
       <c r="F228" s="71"/>
       <c r="G228" s="71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H228" s="140" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
@@ -18010,26 +17944,26 @@
     </row>
     <row r="229">
       <c r="A229" s="47" t="s">
+        <v>922</v>
+      </c>
+      <c r="B229" s="138" t="s">
         <v>923</v>
       </c>
-      <c r="B229" s="138" t="s">
+      <c r="C229" s="137" t="s">
+        <v>891</v>
+      </c>
+      <c r="D229" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E229" s="109" t="s">
         <v>924</v>
-      </c>
-      <c r="C229" s="137" t="s">
-        <v>892</v>
-      </c>
-      <c r="D229" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="E229" s="109" t="s">
-        <v>925</v>
       </c>
       <c r="F229" s="71"/>
       <c r="G229" s="71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H229" s="140" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
@@ -18037,26 +17971,26 @@
     </row>
     <row r="230">
       <c r="A230" s="47" t="s">
+        <v>926</v>
+      </c>
+      <c r="B230" s="138" t="s">
         <v>927</v>
       </c>
-      <c r="B230" s="138" t="s">
+      <c r="C230" s="137" t="s">
+        <v>891</v>
+      </c>
+      <c r="D230" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E230" s="109" t="s">
         <v>928</v>
-      </c>
-      <c r="C230" s="137" t="s">
-        <v>892</v>
-      </c>
-      <c r="D230" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="E230" s="109" t="s">
-        <v>929</v>
       </c>
       <c r="F230" s="71"/>
       <c r="G230" s="71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H230" s="140" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
@@ -18064,26 +17998,26 @@
     </row>
     <row r="231">
       <c r="A231" s="47" t="s">
+        <v>930</v>
+      </c>
+      <c r="B231" s="138" t="s">
         <v>931</v>
       </c>
-      <c r="B231" s="138" t="s">
+      <c r="C231" s="137" t="s">
+        <v>891</v>
+      </c>
+      <c r="D231" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E231" s="109" t="s">
         <v>932</v>
-      </c>
-      <c r="C231" s="137" t="s">
-        <v>892</v>
-      </c>
-      <c r="D231" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="E231" s="109" t="s">
-        <v>933</v>
       </c>
       <c r="F231" s="71"/>
       <c r="G231" s="71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H231" s="140" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
@@ -18091,10 +18025,10 @@
     </row>
     <row r="232">
       <c r="A232" s="47" t="s">
+        <v>934</v>
+      </c>
+      <c r="B232" s="138" t="s">
         <v>935</v>
-      </c>
-      <c r="B232" s="138" t="s">
-        <v>936</v>
       </c>
       <c r="C232" s="137" t="s">
         <v>446</v>
@@ -18110,26 +18044,26 @@
     </row>
     <row r="233">
       <c r="A233" s="55" t="s">
+        <v>936</v>
+      </c>
+      <c r="B233" s="139" t="s">
         <v>937</v>
       </c>
-      <c r="B233" s="139" t="s">
+      <c r="C233" s="71" t="s">
+        <v>891</v>
+      </c>
+      <c r="D233" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E233" s="109" t="s">
         <v>938</v>
-      </c>
-      <c r="C233" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="D233" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="E233" s="109" t="s">
-        <v>939</v>
       </c>
       <c r="F233" s="71"/>
       <c r="G233" s="71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H233" s="140" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
@@ -18137,26 +18071,26 @@
     </row>
     <row r="234">
       <c r="A234" s="55" t="s">
+        <v>940</v>
+      </c>
+      <c r="B234" s="139" t="s">
         <v>941</v>
       </c>
-      <c r="B234" s="139" t="s">
+      <c r="C234" s="71" t="s">
+        <v>891</v>
+      </c>
+      <c r="D234" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E234" s="109" t="s">
         <v>942</v>
-      </c>
-      <c r="C234" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="D234" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="E234" s="109" t="s">
-        <v>943</v>
       </c>
       <c r="F234" s="71"/>
       <c r="G234" s="71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H234" s="140" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
@@ -18164,26 +18098,26 @@
     </row>
     <row r="235">
       <c r="A235" s="47" t="s">
+        <v>944</v>
+      </c>
+      <c r="B235" s="138" t="s">
         <v>945</v>
       </c>
-      <c r="B235" s="138" t="s">
+      <c r="C235" s="71" t="s">
+        <v>891</v>
+      </c>
+      <c r="D235" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="E235" s="71" t="s">
         <v>946</v>
-      </c>
-      <c r="C235" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="D235" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="E235" s="71" t="s">
-        <v>947</v>
       </c>
       <c r="F235" s="71"/>
       <c r="G235" s="71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H235" s="140" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
@@ -18191,10 +18125,10 @@
     </row>
     <row r="236">
       <c r="A236" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="B236" s="61" t="s">
         <v>949</v>
-      </c>
-      <c r="B236" s="61" t="s">
-        <v>950</v>
       </c>
       <c r="C236" s="71"/>
       <c r="D236" s="71"/>
@@ -18208,24 +18142,24 @@
     </row>
     <row r="237">
       <c r="A237" s="47" t="s">
+        <v>950</v>
+      </c>
+      <c r="B237" s="138" t="s">
         <v>951</v>
-      </c>
-      <c r="B237" s="138" t="s">
-        <v>952</v>
       </c>
       <c r="C237" s="141" t="s">
         <v>558</v>
       </c>
       <c r="D237" s="71"/>
       <c r="E237" s="109" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F237" s="71"/>
       <c r="G237" s="71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H237" s="140" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
@@ -18233,10 +18167,10 @@
     </row>
     <row r="238">
       <c r="A238" s="38" t="s">
+        <v>954</v>
+      </c>
+      <c r="B238" s="61" t="s">
         <v>955</v>
-      </c>
-      <c r="B238" s="61" t="s">
-        <v>956</v>
       </c>
       <c r="C238" s="71"/>
       <c r="D238" s="71"/>
@@ -18250,29 +18184,29 @@
     </row>
     <row r="239">
       <c r="A239" s="47" t="s">
+        <v>956</v>
+      </c>
+      <c r="B239" s="138" t="s">
         <v>957</v>
       </c>
-      <c r="B239" s="138" t="s">
+      <c r="C239" s="137" t="s">
         <v>958</v>
       </c>
-      <c r="C239" s="137" t="s">
+      <c r="D239" s="71" t="s">
         <v>959</v>
       </c>
-      <c r="D239" s="71" t="s">
+      <c r="E239" s="142" t="s">
         <v>960</v>
-      </c>
-      <c r="E239" s="142" t="s">
-        <v>961</v>
       </c>
       <c r="F239" s="71"/>
       <c r="G239" s="71" t="s">
+        <v>961</v>
+      </c>
+      <c r="H239" s="143" t="s">
         <v>962</v>
       </c>
-      <c r="H239" s="143" t="s">
+      <c r="I239" s="6" t="s">
         <v>963</v>
-      </c>
-      <c r="I239" s="6" t="s">
-        <v>964</v>
       </c>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
@@ -18402,39 +18336,39 @@
     </row>
     <row r="2">
       <c r="A2" s="77" t="s">
+        <v>964</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>965</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C2" s="72" t="s">
         <v>966</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>967</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="40" t="s">
+        <v>967</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>968</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>969</v>
       </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="77" t="s">
+        <v>964</v>
+      </c>
+      <c r="B3" s="83" t="s">
         <v>965</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="C3" s="72" t="s">
         <v>966</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>967</v>
       </c>
       <c r="D3" s="72"/>
       <c r="E3" s="40" t="s">
+        <v>969</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>970</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>971</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -18448,10 +18382,10 @@
       <c r="C4" s="148"/>
       <c r="D4" s="148"/>
       <c r="E4" s="41" t="s">
+        <v>971</v>
+      </c>
+      <c r="F4" s="149" t="s">
         <v>972</v>
-      </c>
-      <c r="F4" s="149" t="s">
-        <v>973</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -18465,10 +18399,10 @@
       <c r="C5" s="148"/>
       <c r="D5" s="148"/>
       <c r="E5" s="41" t="s">
+        <v>973</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>974</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>975</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="150"/>
@@ -18493,22 +18427,22 @@
     </row>
     <row r="6">
       <c r="A6" s="77" t="s">
+        <v>975</v>
+      </c>
+      <c r="B6" s="83" t="s">
         <v>976</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="C6" s="72" t="s">
         <v>977</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="D6" s="72" t="s">
         <v>978</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="E6" s="40" t="s">
         <v>979</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="F6" s="40" t="s">
         <v>980</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>981</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="150"/>
@@ -18548,7 +18482,7 @@
         <v>538</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -18564,10 +18498,10 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="83" t="s">
+        <v>982</v>
+      </c>
+      <c r="F8" s="83" t="s">
         <v>983</v>
-      </c>
-      <c r="F8" s="83" t="s">
-        <v>984</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -18581,10 +18515,10 @@
       <c r="C9" s="148"/>
       <c r="D9" s="148"/>
       <c r="E9" s="147" t="s">
+        <v>984</v>
+      </c>
+      <c r="F9" s="152" t="s">
         <v>985</v>
-      </c>
-      <c r="F9" s="152" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="10">
@@ -18597,10 +18531,10 @@
       <c r="C10" s="148"/>
       <c r="D10" s="148"/>
       <c r="E10" s="147" t="s">
+        <v>986</v>
+      </c>
+      <c r="F10" s="152" t="s">
         <v>987</v>
-      </c>
-      <c r="F10" s="152" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="11">
@@ -18617,10 +18551,10 @@
         <v>654</v>
       </c>
       <c r="E11" s="83" t="s">
+        <v>988</v>
+      </c>
+      <c r="F11" s="83" t="s">
         <v>989</v>
-      </c>
-      <c r="F11" s="83" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="12">
@@ -18633,10 +18567,10 @@
       <c r="C12" s="148"/>
       <c r="D12" s="148"/>
       <c r="E12" s="147" t="s">
+        <v>990</v>
+      </c>
+      <c r="F12" s="147" t="s">
         <v>991</v>
-      </c>
-      <c r="F12" s="147" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="13">
@@ -18649,10 +18583,10 @@
       <c r="C13" s="148"/>
       <c r="D13" s="148"/>
       <c r="E13" s="147" t="s">
+        <v>992</v>
+      </c>
+      <c r="F13" s="147" t="s">
         <v>993</v>
-      </c>
-      <c r="F13" s="147" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="14">
@@ -18665,10 +18599,10 @@
       <c r="C14" s="148"/>
       <c r="D14" s="148"/>
       <c r="E14" s="147" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F14" s="147" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="15">
@@ -18681,10 +18615,10 @@
       <c r="C15" s="148"/>
       <c r="D15" s="148"/>
       <c r="E15" s="147" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F15" s="147" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="16">
@@ -18697,10 +18631,10 @@
       <c r="C16" s="148"/>
       <c r="D16" s="148"/>
       <c r="E16" s="147" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F16" s="147" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="17">
@@ -22565,36 +22499,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="153" t="s">
+        <v>997</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>998</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="154" t="s">
+        <v>999</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>1000</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="155" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="156" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>1003</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8">
@@ -22605,41 +22539,41 @@
     </row>
     <row r="10">
       <c r="A10" s="156" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="156" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B11" s="157" t="s">
         <v>1007</v>
-      </c>
-      <c r="B11" s="157" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="158" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="159"/>
       <c r="B13" s="160" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="161" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="162" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="163" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="17">
@@ -22648,24 +22582,24 @@
     </row>
     <row r="18">
       <c r="A18" s="156" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B18" s="164" t="s">
         <v>1014</v>
-      </c>
-      <c r="B18" s="164" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B19" s="165"/>
     </row>
     <row r="21">
       <c r="A21" s="156" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B21" s="166" t="s">
         <v>1017</v>
-      </c>
-      <c r="B21" s="166" t="s">
-        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -22691,57 +22625,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="156" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="37" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="167" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -22767,58 +22696,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B1" s="168" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="169" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="170" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -22862,35 +22791,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="171" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C1" s="171" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1047</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1049</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22899,13 +22828,13 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22914,70 +22843,70 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>1053</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D7" s="172" t="s">
         <v>1056</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D7" s="172" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>1059</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="173" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B9" s="174" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C9" s="174" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D9" s="174" t="s">
         <v>1062</v>
-      </c>
-      <c r="B9" s="174" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C9" s="174" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D9" s="174" t="s">
-        <v>1064</v>
       </c>
       <c r="E9" s="174"/>
       <c r="F9" s="174"/>
@@ -23004,16 +22933,16 @@
     </row>
     <row r="10">
       <c r="A10" s="173" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B10" s="174" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C10" s="174" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D10" s="174" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E10" s="175"/>
       <c r="F10" s="175"/>
@@ -23040,16 +22969,16 @@
     </row>
     <row r="11">
       <c r="A11" s="173" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B11" s="174" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C11" s="174" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D11" s="174" t="s">
         <v>1067</v>
-      </c>
-      <c r="B11" s="174" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C11" s="174" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D11" s="174" t="s">
-        <v>1069</v>
       </c>
       <c r="E11" s="175"/>
       <c r="F11" s="175"/>
@@ -23076,16 +23005,16 @@
     </row>
     <row r="12">
       <c r="A12" s="173" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B12" s="174" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C12" s="174" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D12" s="174" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E12" s="175"/>
       <c r="F12" s="175"/>
@@ -23112,16 +23041,16 @@
     </row>
     <row r="13">
       <c r="A13" s="173" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B13" s="173" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C13" s="174" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D13" s="174" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E13" s="175"/>
       <c r="F13" s="175"/>
@@ -23148,16 +23077,16 @@
     </row>
     <row r="14">
       <c r="A14" s="173" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B14" s="173" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C14" s="174" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D14" s="174" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E14" s="175"/>
       <c r="F14" s="175"/>
@@ -23209,51 +23138,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="176" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="156" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B2" s="156" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C2" s="156" t="s">
         <v>1043</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="D2" s="156" t="s">
         <v>1044</v>
-      </c>
-      <c r="C2" s="156" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D2" s="156" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C5" s="177" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>1080</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C5" s="177" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>1082</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F06/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F06/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1079">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.2.0</t>
+    <t>6.4.0</t>
   </si>
   <si>
     <r>
@@ -387,7 +387,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -441,7 +441,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -501,7 +501,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -558,7 +558,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -615,7 +615,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1095,7 +1095,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -1137,7 +1137,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -1182,7 +1182,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1224,7 +1224,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1266,7 +1266,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3262,27 +3262,6 @@
   </si>
   <si>
     <t>PROCEDURE/EAUCTION_USED</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:EAuctionTechniqueUsage</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:usesTechnique ?value .</t>
-    </r>
   </si>
   <si>
     <t>IV.1.8</t>
@@ -4164,7 +4143,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -4210,7 +4189,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -4260,7 +4239,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4309,7 +4288,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4355,7 +4334,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5391,7 +5370,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -5436,7 +5415,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -5481,7 +5460,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5526,7 +5505,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5676,7 +5655,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -5721,7 +5700,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -5766,7 +5745,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5811,7 +5790,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5971,7 +5950,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -6011,7 +5990,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -6051,7 +6030,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6091,7 +6070,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -14858,38 +14837,34 @@
         <v>467</v>
       </c>
       <c r="F104" s="50"/>
-      <c r="G104" s="37" t="s">
-        <v>468</v>
-      </c>
-      <c r="H104" s="73" t="s">
-        <v>469</v>
-      </c>
+      <c r="G104" s="37"/>
+      <c r="H104" s="50"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
     </row>
     <row r="105">
       <c r="A105" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="B105" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="C105" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="B105" s="48" t="s">
+      <c r="D105" s="37" t="s">
         <v>471</v>
       </c>
-      <c r="C105" s="37" t="s">
+      <c r="E105" s="50" t="s">
         <v>472</v>
-      </c>
-      <c r="D105" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="E105" s="50" t="s">
-        <v>474</v>
       </c>
       <c r="F105" s="50"/>
       <c r="G105" s="37" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H105" s="73" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
@@ -14897,26 +14872,26 @@
     </row>
     <row r="106">
       <c r="A106" s="99" t="s">
+        <v>468</v>
+      </c>
+      <c r="B106" s="100" t="s">
+        <v>469</v>
+      </c>
+      <c r="C106" s="90" t="s">
         <v>470</v>
       </c>
-      <c r="B106" s="100" t="s">
+      <c r="D106" s="101" t="s">
         <v>471</v>
       </c>
-      <c r="C106" s="90" t="s">
-        <v>472</v>
-      </c>
-      <c r="D106" s="101" t="s">
-        <v>473</v>
-      </c>
       <c r="E106" s="72" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F106" s="72"/>
       <c r="G106" s="62" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H106" s="102" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
@@ -14924,10 +14899,10 @@
     </row>
     <row r="107">
       <c r="A107" s="95" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B107" s="39" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -14941,7 +14916,7 @@
     </row>
     <row r="108">
       <c r="A108" s="49" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B108" s="64"/>
       <c r="C108" s="4"/>
@@ -14950,13 +14925,13 @@
         <v>413</v>
       </c>
       <c r="F108" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H108" s="37" t="s">
         <v>482</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="H108" s="37" t="s">
-        <v>484</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
@@ -14964,22 +14939,22 @@
     </row>
     <row r="109">
       <c r="A109" s="49" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C109" s="37"/>
       <c r="D109" s="62"/>
       <c r="E109" s="72" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F109" s="62"/>
       <c r="G109" s="72" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H109" s="102" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>70</v>
@@ -14989,10 +14964,10 @@
     </row>
     <row r="110">
       <c r="A110" s="49" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B110" s="48" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -15006,26 +14981,26 @@
     </row>
     <row r="111">
       <c r="A111" s="76" t="s">
+        <v>490</v>
+      </c>
+      <c r="B111" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="C111" s="37" t="s">
         <v>492</v>
       </c>
-      <c r="B111" s="56" t="s">
+      <c r="D111" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="C111" s="37" t="s">
+      <c r="E111" s="50" t="s">
         <v>494</v>
-      </c>
-      <c r="D111" s="37" t="s">
-        <v>495</v>
-      </c>
-      <c r="E111" s="50" t="s">
-        <v>496</v>
       </c>
       <c r="F111" s="50"/>
       <c r="G111" s="37" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H111" s="73" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
@@ -15033,10 +15008,10 @@
     </row>
     <row r="112">
       <c r="A112" s="49" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B112" s="48" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -15050,26 +15025,26 @@
     </row>
     <row r="113">
       <c r="A113" s="76" t="s">
+        <v>499</v>
+      </c>
+      <c r="B113" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="C113" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="B113" s="56" t="s">
+      <c r="D113" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="C113" s="37" t="s">
+      <c r="E113" s="50" t="s">
         <v>503</v>
-      </c>
-      <c r="D113" s="37" t="s">
-        <v>504</v>
-      </c>
-      <c r="E113" s="50" t="s">
-        <v>505</v>
       </c>
       <c r="F113" s="50"/>
       <c r="G113" s="37" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H113" s="37" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
@@ -15077,24 +15052,24 @@
     </row>
     <row r="114">
       <c r="A114" s="94" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="F114" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="G114" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="F114" s="50" t="s">
+      <c r="H114" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
@@ -15102,49 +15077,49 @@
     </row>
     <row r="115">
       <c r="A115" s="103" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B115" s="104" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C115" s="65"/>
       <c r="D115" s="65"/>
       <c r="E115" s="57" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F115" s="65" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G115" s="65" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H115" s="105" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="103" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B116" s="104" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C116" s="62"/>
       <c r="D116" s="62"/>
       <c r="E116" s="106" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F116" s="62"/>
       <c r="G116" s="37" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H116" s="62" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
@@ -15152,28 +15127,28 @@
     </row>
     <row r="117">
       <c r="A117" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="B117" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="C117" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="B117" s="48" t="s">
+      <c r="D117" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="C117" s="37" t="s">
+      <c r="E117" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="D117" s="37" t="s">
+      <c r="F117" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="G117" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E117" s="50" t="s">
+      <c r="H117" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="F117" s="50" t="s">
-        <v>510</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>70</v>
@@ -15183,28 +15158,28 @@
     </row>
     <row r="118">
       <c r="A118" s="49" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B118" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C118" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="D118" s="62" t="s">
+        <v>525</v>
+      </c>
+      <c r="E118" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="D118" s="62" t="s">
+      <c r="F118" s="72" t="s">
+        <v>508</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="E118" s="72" t="s">
+      <c r="H118" s="33" t="s">
         <v>528</v>
-      </c>
-      <c r="F118" s="72" t="s">
-        <v>510</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="H118" s="33" t="s">
-        <v>530</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>62</v>
@@ -15214,26 +15189,26 @@
     </row>
     <row r="119">
       <c r="A119" s="49" t="s">
+        <v>529</v>
+      </c>
+      <c r="B119" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="C119" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="B119" s="48" t="s">
+      <c r="D119" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="C119" s="37" t="s">
+      <c r="E119" s="40" t="s">
         <v>533</v>
-      </c>
-      <c r="D119" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="E119" s="40" t="s">
-        <v>535</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H119" s="81" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
@@ -15241,26 +15216,26 @@
     </row>
     <row r="120">
       <c r="A120" s="99" t="s">
+        <v>529</v>
+      </c>
+      <c r="B120" s="100" t="s">
+        <v>530</v>
+      </c>
+      <c r="C120" s="101" t="s">
         <v>531</v>
       </c>
-      <c r="B120" s="100" t="s">
+      <c r="D120" s="101" t="s">
         <v>532</v>
       </c>
-      <c r="C120" s="101" t="s">
-        <v>533</v>
-      </c>
-      <c r="D120" s="101" t="s">
-        <v>534</v>
-      </c>
       <c r="E120" s="40" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H120" s="81" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
@@ -15268,10 +15243,10 @@
     </row>
     <row r="121">
       <c r="A121" s="95" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B121" s="39" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C121" s="107" t="s">
         <v>446</v>
@@ -15287,10 +15262,10 @@
     </row>
     <row r="122">
       <c r="A122" s="49" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B122" s="48" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>446</v>
@@ -15306,26 +15281,26 @@
     </row>
     <row r="123">
       <c r="A123" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="B123" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="C123" s="62" t="s">
         <v>545</v>
       </c>
-      <c r="B123" s="56" t="s">
+      <c r="D123" s="62" t="s">
         <v>546</v>
       </c>
-      <c r="C123" s="62" t="s">
+      <c r="E123" s="50" t="s">
         <v>547</v>
-      </c>
-      <c r="D123" s="62" t="s">
-        <v>548</v>
-      </c>
-      <c r="E123" s="50" t="s">
-        <v>549</v>
       </c>
       <c r="F123" s="50"/>
       <c r="G123" s="37" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H123" s="97" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
@@ -15333,26 +15308,26 @@
     </row>
     <row r="124">
       <c r="A124" s="76" t="s">
+        <v>550</v>
+      </c>
+      <c r="B124" s="56" t="s">
+        <v>551</v>
+      </c>
+      <c r="C124" s="62" t="s">
+        <v>545</v>
+      </c>
+      <c r="D124" s="62" t="s">
+        <v>546</v>
+      </c>
+      <c r="E124" s="50" t="s">
         <v>552</v>
-      </c>
-      <c r="B124" s="56" t="s">
-        <v>553</v>
-      </c>
-      <c r="C124" s="62" t="s">
-        <v>547</v>
-      </c>
-      <c r="D124" s="62" t="s">
-        <v>548</v>
-      </c>
-      <c r="E124" s="50" t="s">
-        <v>554</v>
       </c>
       <c r="F124" s="50"/>
       <c r="G124" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H124" s="81" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
@@ -15360,24 +15335,24 @@
     </row>
     <row r="125">
       <c r="A125" s="76" t="s">
+        <v>554</v>
+      </c>
+      <c r="B125" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="C125" s="108" t="s">
         <v>556</v>
-      </c>
-      <c r="B125" s="56" t="s">
-        <v>557</v>
-      </c>
-      <c r="C125" s="108" t="s">
-        <v>558</v>
       </c>
       <c r="D125" s="62"/>
       <c r="E125" s="41" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F125" s="41"/>
       <c r="G125" s="41" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H125" s="96" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
@@ -15385,10 +15360,10 @@
     </row>
     <row r="126">
       <c r="A126" s="95" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B126" s="39" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C126" s="107" t="s">
         <v>446</v>
@@ -15404,20 +15379,20 @@
     </row>
     <row r="127">
       <c r="A127" s="76" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B127" s="56"/>
       <c r="C127" s="62"/>
       <c r="D127" s="6"/>
       <c r="E127" s="109" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F127" s="72"/>
       <c r="G127" s="37" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H127" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
@@ -15425,49 +15400,49 @@
     </row>
     <row r="128">
       <c r="A128" s="76" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B128" s="110"/>
       <c r="C128" s="62"/>
       <c r="D128" s="6"/>
       <c r="E128" s="57" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F128" s="50"/>
       <c r="G128" s="37" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H128" s="50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="B129" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="C129" s="62" t="s">
         <v>569</v>
       </c>
-      <c r="B129" s="48" t="s">
+      <c r="D129" s="62" t="s">
         <v>570</v>
       </c>
-      <c r="C129" s="62" t="s">
+      <c r="E129" s="50" t="s">
         <v>571</v>
-      </c>
-      <c r="D129" s="62" t="s">
-        <v>572</v>
-      </c>
-      <c r="E129" s="50" t="s">
-        <v>573</v>
       </c>
       <c r="F129" s="50"/>
       <c r="G129" s="40" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
@@ -15475,32 +15450,32 @@
     </row>
     <row r="130">
       <c r="A130" s="49" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C130" s="111"/>
       <c r="D130" s="111"/>
       <c r="E130" s="57" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F130" s="112"/>
       <c r="G130" s="50" t="s">
+        <v>576</v>
+      </c>
+      <c r="H130" s="113" t="s">
+        <v>577</v>
+      </c>
+      <c r="I130" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="H130" s="113" t="s">
-        <v>579</v>
-      </c>
-      <c r="I130" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
     </row>
     <row r="131">
       <c r="A131" s="76" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B131" s="56" t="s">
         <v>259</v>
@@ -15519,26 +15494,26 @@
     </row>
     <row r="132">
       <c r="A132" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="B132" s="56" t="s">
+        <v>581</v>
+      </c>
+      <c r="C132" s="62" t="s">
         <v>582</v>
       </c>
-      <c r="B132" s="56" t="s">
+      <c r="D132" s="62" t="s">
         <v>583</v>
       </c>
-      <c r="C132" s="62" t="s">
+      <c r="E132" s="50" t="s">
         <v>584</v>
-      </c>
-      <c r="D132" s="62" t="s">
-        <v>585</v>
-      </c>
-      <c r="E132" s="50" t="s">
-        <v>586</v>
       </c>
       <c r="F132" s="50"/>
       <c r="G132" s="37" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H132" s="37" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
@@ -15546,22 +15521,22 @@
     </row>
     <row r="133">
       <c r="A133" s="76" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B133" s="56" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C133" s="62"/>
       <c r="D133" s="62"/>
       <c r="E133" s="50" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F133" s="50"/>
       <c r="G133" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H133" s="40" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
@@ -15569,22 +15544,22 @@
     </row>
     <row r="134">
       <c r="A134" s="76" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B134" s="56" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C134" s="62"/>
       <c r="D134" s="62"/>
       <c r="E134" s="50" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F134" s="50"/>
       <c r="G134" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H134" s="40" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
@@ -15592,22 +15567,22 @@
     </row>
     <row r="135">
       <c r="A135" s="76" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B135" s="56" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C135" s="62"/>
       <c r="D135" s="62"/>
       <c r="E135" s="50" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F135" s="50"/>
       <c r="G135" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H135" s="40" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
@@ -15615,22 +15590,22 @@
     </row>
     <row r="136">
       <c r="A136" s="76" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B136" s="56" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C136" s="62"/>
       <c r="D136" s="62"/>
       <c r="E136" s="50" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F136" s="50"/>
       <c r="G136" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
@@ -15638,17 +15613,17 @@
     </row>
     <row r="137">
       <c r="A137" s="76" t="s">
+        <v>604</v>
+      </c>
+      <c r="B137" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="C137" s="114" t="s">
         <v>606</v>
-      </c>
-      <c r="B137" s="56" t="s">
-        <v>607</v>
-      </c>
-      <c r="C137" s="114" t="s">
-        <v>608</v>
       </c>
       <c r="D137" s="62"/>
       <c r="E137" s="50" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F137" s="40"/>
       <c r="G137" s="37" t="s">
@@ -15663,10 +15638,10 @@
     </row>
     <row r="138">
       <c r="A138" s="49" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C138" s="107" t="s">
         <v>446</v>
@@ -15682,7 +15657,7 @@
     </row>
     <row r="139">
       <c r="A139" s="76" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B139" s="56" t="s">
         <v>259</v>
@@ -15701,7 +15676,7 @@
     </row>
     <row r="140">
       <c r="A140" s="76" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B140" s="56" t="s">
         <v>56</v>
@@ -15713,14 +15688,14 @@
         <v>58</v>
       </c>
       <c r="E140" s="50" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F140" s="50"/>
       <c r="G140" s="44" t="s">
         <v>60</v>
       </c>
       <c r="H140" s="44" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>62</v>
@@ -15730,7 +15705,7 @@
     </row>
     <row r="141">
       <c r="A141" s="76" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B141" s="56" t="s">
         <v>64</v>
@@ -15742,14 +15717,14 @@
         <v>66</v>
       </c>
       <c r="E141" s="50" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F141" s="50"/>
       <c r="G141" s="46" t="s">
         <v>68</v>
       </c>
       <c r="H141" s="46" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>70</v>
@@ -15759,7 +15734,7 @@
     </row>
     <row r="142">
       <c r="A142" s="76" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B142" s="56" t="s">
         <v>72</v>
@@ -15771,14 +15746,14 @@
         <v>74</v>
       </c>
       <c r="E142" s="50" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F142" s="72"/>
       <c r="G142" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H142" s="40" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
@@ -15786,7 +15761,7 @@
     </row>
     <row r="143">
       <c r="A143" s="76" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B143" s="56" t="s">
         <v>79</v>
@@ -15798,14 +15773,14 @@
         <v>81</v>
       </c>
       <c r="E143" s="50" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F143" s="50"/>
       <c r="G143" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H143" s="40" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
@@ -15813,7 +15788,7 @@
     </row>
     <row r="144">
       <c r="A144" s="76" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B144" s="56" t="s">
         <v>85</v>
@@ -15825,16 +15800,16 @@
         <v>87</v>
       </c>
       <c r="E144" s="40" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F144" s="40" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G144" s="37" t="s">
         <v>90</v>
       </c>
       <c r="H144" s="50" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
@@ -15842,7 +15817,7 @@
     </row>
     <row r="145">
       <c r="A145" s="76" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B145" s="56" t="s">
         <v>93</v>
@@ -15851,17 +15826,17 @@
         <v>94</v>
       </c>
       <c r="D145" s="62" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E145" s="50" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F145" s="50"/>
       <c r="G145" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H145" s="40" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
@@ -15869,7 +15844,7 @@
     </row>
     <row r="146">
       <c r="A146" s="76" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B146" s="56" t="s">
         <v>100</v>
@@ -15881,14 +15856,14 @@
         <v>102</v>
       </c>
       <c r="E146" s="50" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F146" s="50"/>
       <c r="G146" s="44" t="s">
         <v>104</v>
       </c>
       <c r="H146" s="44" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
@@ -15896,7 +15871,7 @@
     </row>
     <row r="147">
       <c r="A147" s="76" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B147" s="56" t="s">
         <v>120</v>
@@ -15908,14 +15883,14 @@
         <v>122</v>
       </c>
       <c r="E147" s="50" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F147" s="50"/>
       <c r="G147" s="50" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H147" s="50" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
@@ -15923,7 +15898,7 @@
     </row>
     <row r="148">
       <c r="A148" s="76" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B148" s="56" t="s">
         <v>114</v>
@@ -15935,14 +15910,14 @@
         <v>116</v>
       </c>
       <c r="E148" s="50" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F148" s="50"/>
       <c r="G148" s="50" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H148" s="50" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
@@ -15950,10 +15925,10 @@
     </row>
     <row r="149">
       <c r="A149" s="76" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B149" s="56" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C149" s="62" t="s">
         <v>136</v>
@@ -15962,14 +15937,14 @@
         <v>137</v>
       </c>
       <c r="E149" s="50" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F149" s="50"/>
       <c r="G149" s="46" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H149" s="46" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
@@ -15977,7 +15952,7 @@
     </row>
     <row r="150">
       <c r="A150" s="76" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B150" s="56" t="s">
         <v>127</v>
@@ -15989,14 +15964,14 @@
         <v>129</v>
       </c>
       <c r="E150" s="50" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F150" s="50"/>
       <c r="G150" s="50" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H150" s="97" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
@@ -16004,26 +15979,26 @@
     </row>
     <row r="151">
       <c r="A151" s="76" t="s">
+        <v>649</v>
+      </c>
+      <c r="B151" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="C151" s="62" t="s">
         <v>651</v>
       </c>
-      <c r="B151" s="56" t="s">
+      <c r="D151" s="62" t="s">
         <v>652</v>
       </c>
-      <c r="C151" s="62" t="s">
+      <c r="E151" s="50" t="s">
         <v>653</v>
-      </c>
-      <c r="D151" s="62" t="s">
-        <v>654</v>
-      </c>
-      <c r="E151" s="50" t="s">
-        <v>655</v>
       </c>
       <c r="F151" s="40"/>
       <c r="G151" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H151" s="115" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
@@ -16035,14 +16010,14 @@
       <c r="C152" s="62"/>
       <c r="D152" s="62"/>
       <c r="E152" s="57" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F152" s="40"/>
       <c r="G152" s="44" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H152" s="44" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
@@ -16050,10 +16025,10 @@
     </row>
     <row r="153">
       <c r="A153" s="49" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B153" s="48" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C153" s="107" t="s">
         <v>446</v>
@@ -16069,7 +16044,7 @@
     </row>
     <row r="154">
       <c r="A154" s="76" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B154" s="56" t="s">
         <v>259</v>
@@ -16088,26 +16063,26 @@
     </row>
     <row r="155">
       <c r="A155" s="76" t="s">
+        <v>661</v>
+      </c>
+      <c r="B155" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="C155" s="62" t="s">
         <v>663</v>
-      </c>
-      <c r="B155" s="56" t="s">
-        <v>664</v>
-      </c>
-      <c r="C155" s="62" t="s">
-        <v>665</v>
       </c>
       <c r="D155" s="62" t="s">
         <v>264</v>
       </c>
       <c r="E155" s="50" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F155" s="50"/>
       <c r="G155" s="37" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H155" s="97" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
@@ -16115,24 +16090,24 @@
     </row>
     <row r="156">
       <c r="A156" s="79" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B156" s="80" t="s">
         <v>281</v>
       </c>
       <c r="C156" s="116" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D156" s="62"/>
       <c r="E156" s="72" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F156" s="72"/>
       <c r="G156" s="37" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H156" s="97" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
@@ -16140,26 +16115,26 @@
     </row>
     <row r="157">
       <c r="A157" s="76" t="s">
+        <v>672</v>
+      </c>
+      <c r="B157" s="56" t="s">
+        <v>673</v>
+      </c>
+      <c r="C157" s="62" t="s">
         <v>674</v>
       </c>
-      <c r="B157" s="56" t="s">
+      <c r="D157" s="62" t="s">
         <v>675</v>
       </c>
-      <c r="C157" s="62" t="s">
+      <c r="E157" s="50" t="s">
         <v>676</v>
-      </c>
-      <c r="D157" s="62" t="s">
-        <v>677</v>
-      </c>
-      <c r="E157" s="50" t="s">
-        <v>678</v>
       </c>
       <c r="F157" s="50"/>
       <c r="G157" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H157" s="81" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
@@ -16167,24 +16142,24 @@
     </row>
     <row r="158">
       <c r="A158" s="79" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B158" s="80" t="s">
         <v>281</v>
       </c>
       <c r="C158" s="116" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D158" s="62"/>
       <c r="E158" s="50" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F158" s="50"/>
       <c r="G158" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H158" s="40" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
@@ -16192,7 +16167,7 @@
     </row>
     <row r="159">
       <c r="A159" s="76" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B159" s="56" t="s">
         <v>269</v>
@@ -16204,14 +16179,14 @@
         <v>271</v>
       </c>
       <c r="E159" s="50" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F159" s="50"/>
       <c r="G159" s="37" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H159" s="50" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
@@ -16219,24 +16194,24 @@
     </row>
     <row r="160">
       <c r="A160" s="79" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B160" s="80" t="s">
         <v>281</v>
       </c>
       <c r="C160" s="116" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D160" s="62"/>
       <c r="E160" s="50" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F160" s="50"/>
       <c r="G160" s="37" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H160" s="50" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
@@ -16244,7 +16219,7 @@
     </row>
     <row r="161">
       <c r="A161" s="76" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B161" s="56" t="s">
         <v>275</v>
@@ -16256,14 +16231,14 @@
         <v>277</v>
       </c>
       <c r="E161" s="50" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F161" s="50"/>
       <c r="G161" s="37" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H161" s="50" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
@@ -16271,24 +16246,24 @@
     </row>
     <row r="162">
       <c r="A162" s="79" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B162" s="80" t="s">
         <v>281</v>
       </c>
       <c r="C162" s="116" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D162" s="62"/>
       <c r="E162" s="57" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F162" s="50"/>
       <c r="G162" s="37" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H162" s="50" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
@@ -16296,10 +16271,10 @@
     </row>
     <row r="163">
       <c r="A163" s="49" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B163" s="48" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C163" s="107" t="s">
         <v>446</v>
@@ -16315,26 +16290,26 @@
     </row>
     <row r="164">
       <c r="A164" s="76" t="s">
+        <v>698</v>
+      </c>
+      <c r="B164" s="56" t="s">
+        <v>699</v>
+      </c>
+      <c r="C164" s="62" t="s">
         <v>700</v>
       </c>
-      <c r="B164" s="56" t="s">
+      <c r="D164" s="62" t="s">
         <v>701</v>
       </c>
-      <c r="C164" s="62" t="s">
+      <c r="E164" s="50" t="s">
         <v>702</v>
-      </c>
-      <c r="D164" s="62" t="s">
-        <v>703</v>
-      </c>
-      <c r="E164" s="50" t="s">
-        <v>704</v>
       </c>
       <c r="F164" s="50"/>
       <c r="G164" s="50" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H164" s="73" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
@@ -16342,10 +16317,10 @@
     </row>
     <row r="165">
       <c r="A165" s="76" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B165" s="56" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -16359,26 +16334,26 @@
     </row>
     <row r="166">
       <c r="A166" s="76" t="s">
+        <v>707</v>
+      </c>
+      <c r="B166" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="C166" s="50" t="s">
         <v>709</v>
       </c>
-      <c r="B166" s="56" t="s">
+      <c r="D166" s="50" t="s">
         <v>710</v>
       </c>
-      <c r="C166" s="50" t="s">
+      <c r="E166" s="50" t="s">
         <v>711</v>
-      </c>
-      <c r="D166" s="50" t="s">
-        <v>712</v>
-      </c>
-      <c r="E166" s="50" t="s">
-        <v>713</v>
       </c>
       <c r="F166" s="50"/>
       <c r="G166" s="37" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H166" s="50" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
@@ -16386,24 +16361,24 @@
     </row>
     <row r="167">
       <c r="A167" s="76" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B167" s="56" t="s">
         <v>281</v>
       </c>
       <c r="C167" s="116" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D167" s="62"/>
       <c r="E167" s="50" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F167" s="50"/>
       <c r="G167" s="50" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H167" s="37" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
@@ -16411,26 +16386,26 @@
     </row>
     <row r="168">
       <c r="A168" s="76" t="s">
+        <v>718</v>
+      </c>
+      <c r="B168" s="56" t="s">
+        <v>719</v>
+      </c>
+      <c r="C168" s="62" t="s">
         <v>720</v>
       </c>
-      <c r="B168" s="56" t="s">
+      <c r="D168" s="62" t="s">
         <v>721</v>
       </c>
-      <c r="C168" s="62" t="s">
+      <c r="E168" s="117" t="s">
         <v>722</v>
-      </c>
-      <c r="D168" s="62" t="s">
-        <v>723</v>
-      </c>
-      <c r="E168" s="117" t="s">
-        <v>724</v>
       </c>
       <c r="F168" s="117"/>
       <c r="G168" s="50" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H168" s="50" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
@@ -16438,26 +16413,26 @@
     </row>
     <row r="169">
       <c r="A169" s="76" t="s">
+        <v>725</v>
+      </c>
+      <c r="B169" s="56" t="s">
+        <v>726</v>
+      </c>
+      <c r="C169" s="62" t="s">
         <v>727</v>
       </c>
-      <c r="B169" s="56" t="s">
+      <c r="D169" s="62" t="s">
         <v>728</v>
       </c>
-      <c r="C169" s="62" t="s">
+      <c r="E169" s="117" t="s">
         <v>729</v>
-      </c>
-      <c r="D169" s="62" t="s">
-        <v>730</v>
-      </c>
-      <c r="E169" s="117" t="s">
-        <v>731</v>
       </c>
       <c r="F169" s="117"/>
       <c r="G169" s="50" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H169" s="50" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I169" s="6" t="s">
         <v>62</v>
@@ -16467,10 +16442,10 @@
     </row>
     <row r="170">
       <c r="A170" s="49" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B170" s="48" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C170" s="71"/>
       <c r="D170" s="71"/>
@@ -16484,22 +16459,22 @@
     </row>
     <row r="171">
       <c r="A171" s="76" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B171" s="56" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C171" s="71"/>
       <c r="D171" s="70"/>
       <c r="E171" s="119" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F171" s="119"/>
       <c r="G171" s="70" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H171" s="120" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
@@ -16507,7 +16482,7 @@
     </row>
     <row r="172">
       <c r="A172" s="76" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B172" s="56" t="s">
         <v>281</v>
@@ -16515,14 +16490,14 @@
       <c r="C172" s="71"/>
       <c r="D172" s="71"/>
       <c r="E172" s="119" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F172" s="119"/>
       <c r="G172" s="71" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H172" s="121" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
@@ -16530,15 +16505,15 @@
     </row>
     <row r="173">
       <c r="A173" s="49" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B173" s="48" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C173" s="71"/>
       <c r="D173" s="71"/>
       <c r="E173" s="118" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F173" s="118"/>
       <c r="G173" s="70"/>
@@ -16546,15 +16521,15 @@
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
       <c r="K173" s="122" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="76" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B174" s="56" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C174" s="71"/>
       <c r="D174" s="71"/>
@@ -16570,10 +16545,10 @@
     </row>
     <row r="175">
       <c r="A175" s="49" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B175" s="48" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C175" s="71"/>
       <c r="D175" s="71"/>
@@ -16584,15 +16559,15 @@
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
       <c r="K175" s="122" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="76" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B176" s="56" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C176" s="71"/>
       <c r="D176" s="71"/>
@@ -16608,24 +16583,24 @@
     </row>
     <row r="177">
       <c r="A177" s="76" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B177" s="56" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C177" s="71"/>
       <c r="D177" s="71"/>
       <c r="E177" s="118" t="s">
+        <v>752</v>
+      </c>
+      <c r="F177" s="118" t="s">
+        <v>753</v>
+      </c>
+      <c r="G177" s="70" t="s">
         <v>754</v>
       </c>
-      <c r="F177" s="118" t="s">
+      <c r="H177" s="123" t="s">
         <v>755</v>
-      </c>
-      <c r="G177" s="70" t="s">
-        <v>756</v>
-      </c>
-      <c r="H177" s="123" t="s">
-        <v>757</v>
       </c>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
@@ -16633,15 +16608,15 @@
     </row>
     <row r="178">
       <c r="A178" s="76" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B178" s="56" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C178" s="71"/>
       <c r="D178" s="71"/>
       <c r="E178" s="118" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F178" s="118"/>
       <c r="G178" s="70"/>
@@ -16652,28 +16627,28 @@
     </row>
     <row r="179">
       <c r="A179" s="79" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B179" s="80" t="s">
         <v>100</v>
       </c>
       <c r="C179" s="70" t="s">
+        <v>760</v>
+      </c>
+      <c r="D179" s="71" t="s">
+        <v>761</v>
+      </c>
+      <c r="E179" s="119" t="s">
         <v>762</v>
       </c>
-      <c r="D179" s="71" t="s">
+      <c r="F179" s="118" t="s">
+        <v>753</v>
+      </c>
+      <c r="G179" s="70" t="s">
+        <v>754</v>
+      </c>
+      <c r="H179" s="70" t="s">
         <v>763</v>
-      </c>
-      <c r="E179" s="119" t="s">
-        <v>764</v>
-      </c>
-      <c r="F179" s="118" t="s">
-        <v>755</v>
-      </c>
-      <c r="G179" s="70" t="s">
-        <v>756</v>
-      </c>
-      <c r="H179" s="70" t="s">
-        <v>765</v>
       </c>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
@@ -16681,39 +16656,39 @@
     </row>
     <row r="180">
       <c r="A180" s="49" t="s">
+        <v>764</v>
+      </c>
+      <c r="B180" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="C180" s="71" t="s">
         <v>766</v>
       </c>
-      <c r="B180" s="48" t="s">
+      <c r="D180" s="71" t="s">
         <v>767</v>
       </c>
-      <c r="C180" s="71" t="s">
+      <c r="E180" s="70" t="s">
         <v>768</v>
-      </c>
-      <c r="D180" s="71" t="s">
-        <v>769</v>
-      </c>
-      <c r="E180" s="70" t="s">
-        <v>770</v>
       </c>
       <c r="F180" s="70"/>
       <c r="G180" s="70" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H180" s="70" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
       <c r="K180" s="122" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="76" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B181" s="56" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C181" s="71"/>
       <c r="D181" s="71"/>
@@ -16729,19 +16704,19 @@
     </row>
     <row r="182">
       <c r="A182" s="49" t="s">
+        <v>772</v>
+      </c>
+      <c r="B182" s="48" t="s">
+        <v>773</v>
+      </c>
+      <c r="C182" s="124" t="s">
         <v>774</v>
       </c>
-      <c r="B182" s="48" t="s">
+      <c r="D182" s="71" t="s">
         <v>775</v>
       </c>
-      <c r="C182" s="124" t="s">
+      <c r="E182" s="118" t="s">
         <v>776</v>
-      </c>
-      <c r="D182" s="71" t="s">
-        <v>777</v>
-      </c>
-      <c r="E182" s="118" t="s">
-        <v>778</v>
       </c>
       <c r="F182" s="118"/>
       <c r="G182" s="70"/>
@@ -16749,15 +16724,15 @@
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
       <c r="K182" s="122" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="76" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B183" s="56" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C183" s="124"/>
       <c r="D183" s="71"/>
@@ -16773,10 +16748,10 @@
     </row>
     <row r="184">
       <c r="A184" s="94" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -16790,7 +16765,7 @@
     </row>
     <row r="185">
       <c r="A185" s="95" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B185" s="39" t="s">
         <v>406</v>
@@ -16802,14 +16777,14 @@
         <v>408</v>
       </c>
       <c r="E185" s="117" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F185" s="117"/>
       <c r="G185" s="125" t="s">
         <v>217</v>
       </c>
       <c r="H185" s="126" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="I185" s="6" t="s">
         <v>62</v>
@@ -16819,10 +16794,10 @@
     </row>
     <row r="186">
       <c r="A186" s="95" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B186" s="39" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C186" s="107" t="s">
         <v>446</v>
@@ -16838,24 +16813,24 @@
     </row>
     <row r="187">
       <c r="A187" s="49" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B187" s="48" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C187" s="128" t="s">
         <v>446</v>
       </c>
       <c r="D187" s="6"/>
       <c r="E187" s="129" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F187" s="117"/>
       <c r="G187" s="37" t="s">
         <v>53</v>
       </c>
       <c r="H187" s="37" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
@@ -16863,7 +16838,7 @@
     </row>
     <row r="188">
       <c r="A188" s="76" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B188" s="56" t="s">
         <v>56</v>
@@ -16875,14 +16850,14 @@
         <v>58</v>
       </c>
       <c r="E188" s="117" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F188" s="117"/>
       <c r="G188" s="40" t="s">
         <v>60</v>
       </c>
       <c r="H188" s="40" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I188" s="6" t="s">
         <v>62</v>
@@ -16892,7 +16867,7 @@
     </row>
     <row r="189">
       <c r="A189" s="76" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B189" s="56" t="s">
         <v>72</v>
@@ -16904,14 +16879,14 @@
         <v>74</v>
       </c>
       <c r="E189" s="50" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F189" s="50"/>
       <c r="G189" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H189" s="40" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
@@ -16919,7 +16894,7 @@
     </row>
     <row r="190">
       <c r="A190" s="76" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B190" s="56" t="s">
         <v>79</v>
@@ -16931,14 +16906,14 @@
         <v>81</v>
       </c>
       <c r="E190" s="117" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F190" s="117"/>
       <c r="G190" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H190" s="40" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
@@ -16946,7 +16921,7 @@
     </row>
     <row r="191">
       <c r="A191" s="76" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B191" s="56" t="s">
         <v>93</v>
@@ -16955,17 +16930,17 @@
         <v>94</v>
       </c>
       <c r="D191" s="62" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E191" s="117" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F191" s="117"/>
       <c r="G191" s="40" t="s">
         <v>97</v>
       </c>
       <c r="H191" s="40" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
@@ -16973,7 +16948,7 @@
     </row>
     <row r="192">
       <c r="A192" s="76" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B192" s="56" t="s">
         <v>100</v>
@@ -16985,14 +16960,14 @@
         <v>102</v>
       </c>
       <c r="E192" s="117" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F192" s="117"/>
       <c r="G192" s="50" t="s">
         <v>104</v>
       </c>
       <c r="H192" s="50" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
@@ -17000,7 +16975,7 @@
     </row>
     <row r="193">
       <c r="A193" s="76" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B193" s="56" t="s">
         <v>120</v>
@@ -17012,14 +16987,14 @@
         <v>122</v>
       </c>
       <c r="E193" s="117" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F193" s="117"/>
       <c r="G193" s="50" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H193" s="50" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
@@ -17027,7 +17002,7 @@
     </row>
     <row r="194">
       <c r="A194" s="76" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B194" s="56" t="s">
         <v>114</v>
@@ -17039,14 +17014,14 @@
         <v>116</v>
       </c>
       <c r="E194" s="50" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F194" s="72"/>
       <c r="G194" s="50" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H194" s="50" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
@@ -17054,10 +17029,10 @@
     </row>
     <row r="195">
       <c r="A195" s="76" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B195" s="56" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C195" s="62" t="s">
         <v>136</v>
@@ -17066,14 +17041,14 @@
         <v>137</v>
       </c>
       <c r="E195" s="50" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F195" s="50"/>
       <c r="G195" s="46" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H195" s="46" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
@@ -17081,7 +17056,7 @@
     </row>
     <row r="196">
       <c r="A196" s="76" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B196" s="56" t="s">
         <v>127</v>
@@ -17093,14 +17068,14 @@
         <v>129</v>
       </c>
       <c r="E196" s="50" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F196" s="50"/>
       <c r="G196" s="50" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H196" s="50" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
@@ -17108,24 +17083,24 @@
     </row>
     <row r="197">
       <c r="A197" s="49" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C197" s="128" t="s">
         <v>446</v>
       </c>
       <c r="D197" s="130"/>
       <c r="E197" s="40" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F197" s="37"/>
       <c r="G197" s="37" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H197" s="37" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
@@ -17133,7 +17108,7 @@
     </row>
     <row r="198">
       <c r="A198" s="76" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B198" s="56" t="s">
         <v>56</v>
@@ -17145,14 +17120,14 @@
         <v>58</v>
       </c>
       <c r="E198" s="50" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F198" s="50"/>
       <c r="G198" s="40" t="s">
         <v>60</v>
       </c>
       <c r="H198" s="40" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I198" s="6" t="s">
         <v>62</v>
@@ -17162,7 +17137,7 @@
     </row>
     <row r="199">
       <c r="A199" s="76" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B199" s="56" t="s">
         <v>72</v>
@@ -17174,14 +17149,14 @@
         <v>74</v>
       </c>
       <c r="E199" s="50" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F199" s="50"/>
       <c r="G199" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H199" s="40" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
@@ -17189,7 +17164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="76" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B200" s="56" t="s">
         <v>79</v>
@@ -17201,14 +17176,14 @@
         <v>81</v>
       </c>
       <c r="E200" s="50" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F200" s="50"/>
       <c r="G200" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H200" s="40" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
@@ -17216,7 +17191,7 @@
     </row>
     <row r="201">
       <c r="A201" s="76" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B201" s="56" t="s">
         <v>93</v>
@@ -17225,17 +17200,17 @@
         <v>94</v>
       </c>
       <c r="D201" s="62" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E201" s="50" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F201" s="50"/>
       <c r="G201" s="40" t="s">
         <v>97</v>
       </c>
       <c r="H201" s="40" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
@@ -17243,7 +17218,7 @@
     </row>
     <row r="202">
       <c r="A202" s="76" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B202" s="56" t="s">
         <v>100</v>
@@ -17255,14 +17230,14 @@
         <v>102</v>
       </c>
       <c r="E202" s="50" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F202" s="50"/>
       <c r="G202" s="40" t="s">
         <v>104</v>
       </c>
       <c r="H202" s="40" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
@@ -17270,7 +17245,7 @@
     </row>
     <row r="203">
       <c r="A203" s="76" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B203" s="56" t="s">
         <v>120</v>
@@ -17282,14 +17257,14 @@
         <v>122</v>
       </c>
       <c r="E203" s="50" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F203" s="50"/>
       <c r="G203" s="50" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H203" s="50" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
@@ -17297,7 +17272,7 @@
     </row>
     <row r="204">
       <c r="A204" s="76" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B204" s="56" t="s">
         <v>114</v>
@@ -17309,14 +17284,14 @@
         <v>116</v>
       </c>
       <c r="E204" s="50" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F204" s="50"/>
       <c r="G204" s="50" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H204" s="50" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
@@ -17324,10 +17299,10 @@
     </row>
     <row r="205">
       <c r="A205" s="76" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B205" s="56" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C205" s="62" t="s">
         <v>136</v>
@@ -17336,14 +17311,14 @@
         <v>137</v>
       </c>
       <c r="E205" s="72" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F205" s="72"/>
       <c r="G205" s="68" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H205" s="68" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
@@ -17351,7 +17326,7 @@
     </row>
     <row r="206">
       <c r="A206" s="76" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B206" s="56" t="s">
         <v>127</v>
@@ -17363,14 +17338,14 @@
         <v>129</v>
       </c>
       <c r="E206" s="50" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F206" s="72"/>
       <c r="G206" s="72" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H206" s="72" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
@@ -17378,26 +17353,26 @@
     </row>
     <row r="207">
       <c r="A207" s="49" t="s">
+        <v>841</v>
+      </c>
+      <c r="B207" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="C207" s="62" t="s">
         <v>843</v>
       </c>
-      <c r="B207" s="48" t="s">
+      <c r="D207" s="62" t="s">
         <v>844</v>
       </c>
-      <c r="C207" s="62" t="s">
+      <c r="E207" s="50" t="s">
         <v>845</v>
-      </c>
-      <c r="D207" s="62" t="s">
-        <v>846</v>
-      </c>
-      <c r="E207" s="50" t="s">
-        <v>847</v>
       </c>
       <c r="F207" s="50"/>
       <c r="G207" s="40" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="H207" s="126" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
@@ -17405,22 +17380,22 @@
     </row>
     <row r="208">
       <c r="A208" s="49" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B208" s="48" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="40" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F208" s="62"/>
       <c r="G208" s="37" t="s">
         <v>53</v>
       </c>
       <c r="H208" s="37" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
@@ -17428,7 +17403,7 @@
     </row>
     <row r="209">
       <c r="A209" s="76" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B209" s="56" t="s">
         <v>56</v>
@@ -17440,14 +17415,14 @@
         <v>58</v>
       </c>
       <c r="E209" s="50" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F209" s="72"/>
       <c r="G209" s="40" t="s">
         <v>60</v>
       </c>
       <c r="H209" s="81" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I209" s="6" t="s">
         <v>62</v>
@@ -17457,7 +17432,7 @@
     </row>
     <row r="210">
       <c r="A210" s="76" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B210" s="56" t="s">
         <v>72</v>
@@ -17469,14 +17444,14 @@
         <v>74</v>
       </c>
       <c r="E210" s="50" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F210" s="72"/>
       <c r="G210" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H210" s="81" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
@@ -17484,7 +17459,7 @@
     </row>
     <row r="211">
       <c r="A211" s="76" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B211" s="56" t="s">
         <v>79</v>
@@ -17496,14 +17471,14 @@
         <v>81</v>
       </c>
       <c r="E211" s="72" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F211" s="72"/>
       <c r="G211" s="83" t="s">
         <v>76</v>
       </c>
       <c r="H211" s="132" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
@@ -17511,7 +17486,7 @@
     </row>
     <row r="212">
       <c r="A212" s="76" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B212" s="56" t="s">
         <v>93</v>
@@ -17520,17 +17495,17 @@
         <v>94</v>
       </c>
       <c r="D212" s="62" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E212" s="50" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F212" s="72"/>
       <c r="G212" s="40" t="s">
         <v>97</v>
       </c>
       <c r="H212" s="81" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
@@ -17538,7 +17513,7 @@
     </row>
     <row r="213">
       <c r="A213" s="76" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B213" s="56" t="s">
         <v>100</v>
@@ -17550,14 +17525,14 @@
         <v>102</v>
       </c>
       <c r="E213" s="50" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F213" s="72"/>
       <c r="G213" s="50" t="s">
         <v>104</v>
       </c>
       <c r="H213" s="97" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
@@ -17565,7 +17540,7 @@
     </row>
     <row r="214">
       <c r="A214" s="76" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B214" s="56" t="s">
         <v>120</v>
@@ -17577,14 +17552,14 @@
         <v>122</v>
       </c>
       <c r="E214" s="50" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F214" s="72"/>
       <c r="G214" s="50" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H214" s="50" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
@@ -17592,7 +17567,7 @@
     </row>
     <row r="215">
       <c r="A215" s="76" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B215" s="56" t="s">
         <v>114</v>
@@ -17604,14 +17579,14 @@
         <v>116</v>
       </c>
       <c r="E215" s="50" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F215" s="72"/>
       <c r="G215" s="50" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H215" s="97" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
@@ -17619,10 +17594,10 @@
     </row>
     <row r="216">
       <c r="A216" s="76" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B216" s="56" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C216" s="62" t="s">
         <v>136</v>
@@ -17631,14 +17606,14 @@
         <v>137</v>
       </c>
       <c r="E216" s="50" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F216" s="72"/>
       <c r="G216" s="46" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H216" s="46" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
@@ -17646,7 +17621,7 @@
     </row>
     <row r="217">
       <c r="A217" s="76" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B217" s="56" t="s">
         <v>127</v>
@@ -17658,14 +17633,14 @@
         <v>129</v>
       </c>
       <c r="E217" s="50" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F217" s="72"/>
       <c r="G217" s="50" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H217" s="50" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
@@ -17673,26 +17648,26 @@
     </row>
     <row r="218">
       <c r="A218" s="95" t="s">
+        <v>875</v>
+      </c>
+      <c r="B218" s="39" t="s">
+        <v>876</v>
+      </c>
+      <c r="C218" s="133" t="s">
         <v>877</v>
       </c>
-      <c r="B218" s="39" t="s">
+      <c r="D218" s="133" t="s">
         <v>878</v>
       </c>
-      <c r="C218" s="133" t="s">
+      <c r="E218" s="134" t="s">
         <v>879</v>
-      </c>
-      <c r="D218" s="133" t="s">
-        <v>880</v>
-      </c>
-      <c r="E218" s="134" t="s">
-        <v>881</v>
       </c>
       <c r="F218" s="135"/>
       <c r="G218" s="40" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H218" s="136" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
@@ -17700,10 +17675,10 @@
     </row>
     <row r="219">
       <c r="A219" s="34" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B219" s="66" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C219" s="71"/>
       <c r="D219" s="71"/>
@@ -17717,17 +17692,17 @@
     </row>
     <row r="220">
       <c r="A220" s="38" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B220" s="39" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C220" s="137" t="s">
         <v>446</v>
       </c>
       <c r="D220" s="71"/>
       <c r="E220" s="109" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F220" s="71"/>
       <c r="G220" s="71"/>
@@ -17738,26 +17713,26 @@
     </row>
     <row r="221">
       <c r="A221" s="47" t="s">
+        <v>887</v>
+      </c>
+      <c r="B221" s="138" t="s">
+        <v>888</v>
+      </c>
+      <c r="C221" s="71" t="s">
         <v>889</v>
       </c>
-      <c r="B221" s="138" t="s">
+      <c r="D221" s="71" t="s">
         <v>890</v>
       </c>
-      <c r="C221" s="71" t="s">
+      <c r="E221" s="70" t="s">
         <v>891</v>
-      </c>
-      <c r="D221" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E221" s="70" t="s">
-        <v>893</v>
       </c>
       <c r="F221" s="71"/>
       <c r="G221" s="70" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H221" s="123" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
@@ -17765,26 +17740,26 @@
     </row>
     <row r="222">
       <c r="A222" s="47" t="s">
+        <v>894</v>
+      </c>
+      <c r="B222" s="138" t="s">
+        <v>895</v>
+      </c>
+      <c r="C222" s="71" t="s">
+        <v>889</v>
+      </c>
+      <c r="D222" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E222" s="70" t="s">
         <v>896</v>
-      </c>
-      <c r="B222" s="138" t="s">
-        <v>897</v>
-      </c>
-      <c r="C222" s="71" t="s">
-        <v>891</v>
-      </c>
-      <c r="D222" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E222" s="70" t="s">
-        <v>898</v>
       </c>
       <c r="F222" s="71"/>
       <c r="G222" s="70" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H222" s="123" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
@@ -17792,10 +17767,10 @@
     </row>
     <row r="223">
       <c r="A223" s="47" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B223" s="138" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C223" s="71"/>
       <c r="D223" s="71"/>
@@ -17809,26 +17784,26 @@
     </row>
     <row r="224">
       <c r="A224" s="55" t="s">
+        <v>900</v>
+      </c>
+      <c r="B224" s="139" t="s">
+        <v>901</v>
+      </c>
+      <c r="C224" s="71" t="s">
+        <v>889</v>
+      </c>
+      <c r="D224" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E224" s="57" t="s">
         <v>902</v>
-      </c>
-      <c r="B224" s="139" t="s">
-        <v>903</v>
-      </c>
-      <c r="C224" s="71" t="s">
-        <v>891</v>
-      </c>
-      <c r="D224" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E224" s="57" t="s">
-        <v>904</v>
       </c>
       <c r="F224" s="71"/>
       <c r="G224" s="70" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H224" s="123" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
@@ -17836,26 +17811,26 @@
     </row>
     <row r="225">
       <c r="A225" s="55" t="s">
+        <v>904</v>
+      </c>
+      <c r="B225" s="139" t="s">
+        <v>905</v>
+      </c>
+      <c r="C225" s="71" t="s">
+        <v>889</v>
+      </c>
+      <c r="D225" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E225" s="109" t="s">
         <v>906</v>
-      </c>
-      <c r="B225" s="139" t="s">
-        <v>907</v>
-      </c>
-      <c r="C225" s="71" t="s">
-        <v>891</v>
-      </c>
-      <c r="D225" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E225" s="109" t="s">
-        <v>908</v>
       </c>
       <c r="F225" s="71"/>
       <c r="G225" s="71" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H225" s="140" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
@@ -17863,26 +17838,26 @@
     </row>
     <row r="226">
       <c r="A226" s="55" t="s">
+        <v>908</v>
+      </c>
+      <c r="B226" s="139" t="s">
+        <v>909</v>
+      </c>
+      <c r="C226" s="71" t="s">
+        <v>889</v>
+      </c>
+      <c r="D226" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E226" s="109" t="s">
         <v>910</v>
-      </c>
-      <c r="B226" s="139" t="s">
-        <v>911</v>
-      </c>
-      <c r="C226" s="71" t="s">
-        <v>891</v>
-      </c>
-      <c r="D226" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E226" s="109" t="s">
-        <v>912</v>
       </c>
       <c r="F226" s="71"/>
       <c r="G226" s="71" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H226" s="140" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
@@ -17890,26 +17865,26 @@
     </row>
     <row r="227">
       <c r="A227" s="47" t="s">
+        <v>912</v>
+      </c>
+      <c r="B227" s="138" t="s">
+        <v>913</v>
+      </c>
+      <c r="C227" s="137" t="s">
+        <v>889</v>
+      </c>
+      <c r="D227" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E227" s="109" t="s">
         <v>914</v>
-      </c>
-      <c r="B227" s="138" t="s">
-        <v>915</v>
-      </c>
-      <c r="C227" s="137" t="s">
-        <v>891</v>
-      </c>
-      <c r="D227" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E227" s="109" t="s">
-        <v>916</v>
       </c>
       <c r="F227" s="71"/>
       <c r="G227" s="71" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H227" s="140" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
@@ -17917,26 +17892,26 @@
     </row>
     <row r="228">
       <c r="A228" s="47" t="s">
+        <v>916</v>
+      </c>
+      <c r="B228" s="138" t="s">
+        <v>917</v>
+      </c>
+      <c r="C228" s="137" t="s">
+        <v>889</v>
+      </c>
+      <c r="D228" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E228" s="109" t="s">
         <v>918</v>
-      </c>
-      <c r="B228" s="138" t="s">
-        <v>919</v>
-      </c>
-      <c r="C228" s="137" t="s">
-        <v>891</v>
-      </c>
-      <c r="D228" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E228" s="109" t="s">
-        <v>920</v>
       </c>
       <c r="F228" s="71"/>
       <c r="G228" s="71" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H228" s="140" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
@@ -17944,26 +17919,26 @@
     </row>
     <row r="229">
       <c r="A229" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="B229" s="138" t="s">
+        <v>921</v>
+      </c>
+      <c r="C229" s="137" t="s">
+        <v>889</v>
+      </c>
+      <c r="D229" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E229" s="109" t="s">
         <v>922</v>
-      </c>
-      <c r="B229" s="138" t="s">
-        <v>923</v>
-      </c>
-      <c r="C229" s="137" t="s">
-        <v>891</v>
-      </c>
-      <c r="D229" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E229" s="109" t="s">
-        <v>924</v>
       </c>
       <c r="F229" s="71"/>
       <c r="G229" s="71" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H229" s="140" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
@@ -17971,26 +17946,26 @@
     </row>
     <row r="230">
       <c r="A230" s="47" t="s">
+        <v>924</v>
+      </c>
+      <c r="B230" s="138" t="s">
+        <v>925</v>
+      </c>
+      <c r="C230" s="137" t="s">
+        <v>889</v>
+      </c>
+      <c r="D230" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E230" s="109" t="s">
         <v>926</v>
-      </c>
-      <c r="B230" s="138" t="s">
-        <v>927</v>
-      </c>
-      <c r="C230" s="137" t="s">
-        <v>891</v>
-      </c>
-      <c r="D230" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E230" s="109" t="s">
-        <v>928</v>
       </c>
       <c r="F230" s="71"/>
       <c r="G230" s="71" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H230" s="140" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
@@ -17998,26 +17973,26 @@
     </row>
     <row r="231">
       <c r="A231" s="47" t="s">
+        <v>928</v>
+      </c>
+      <c r="B231" s="138" t="s">
+        <v>929</v>
+      </c>
+      <c r="C231" s="137" t="s">
+        <v>889</v>
+      </c>
+      <c r="D231" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E231" s="109" t="s">
         <v>930</v>
-      </c>
-      <c r="B231" s="138" t="s">
-        <v>931</v>
-      </c>
-      <c r="C231" s="137" t="s">
-        <v>891</v>
-      </c>
-      <c r="D231" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E231" s="109" t="s">
-        <v>932</v>
       </c>
       <c r="F231" s="71"/>
       <c r="G231" s="71" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H231" s="140" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
@@ -18025,10 +18000,10 @@
     </row>
     <row r="232">
       <c r="A232" s="47" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B232" s="138" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C232" s="137" t="s">
         <v>446</v>
@@ -18044,26 +18019,26 @@
     </row>
     <row r="233">
       <c r="A233" s="55" t="s">
+        <v>934</v>
+      </c>
+      <c r="B233" s="139" t="s">
+        <v>935</v>
+      </c>
+      <c r="C233" s="71" t="s">
+        <v>889</v>
+      </c>
+      <c r="D233" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E233" s="109" t="s">
         <v>936</v>
-      </c>
-      <c r="B233" s="139" t="s">
-        <v>937</v>
-      </c>
-      <c r="C233" s="71" t="s">
-        <v>891</v>
-      </c>
-      <c r="D233" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E233" s="109" t="s">
-        <v>938</v>
       </c>
       <c r="F233" s="71"/>
       <c r="G233" s="71" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H233" s="140" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
@@ -18071,26 +18046,26 @@
     </row>
     <row r="234">
       <c r="A234" s="55" t="s">
+        <v>938</v>
+      </c>
+      <c r="B234" s="139" t="s">
+        <v>939</v>
+      </c>
+      <c r="C234" s="71" t="s">
+        <v>889</v>
+      </c>
+      <c r="D234" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E234" s="109" t="s">
         <v>940</v>
-      </c>
-      <c r="B234" s="139" t="s">
-        <v>941</v>
-      </c>
-      <c r="C234" s="71" t="s">
-        <v>891</v>
-      </c>
-      <c r="D234" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E234" s="109" t="s">
-        <v>942</v>
       </c>
       <c r="F234" s="71"/>
       <c r="G234" s="71" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H234" s="140" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
@@ -18098,26 +18073,26 @@
     </row>
     <row r="235">
       <c r="A235" s="47" t="s">
+        <v>942</v>
+      </c>
+      <c r="B235" s="138" t="s">
+        <v>943</v>
+      </c>
+      <c r="C235" s="71" t="s">
+        <v>889</v>
+      </c>
+      <c r="D235" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="E235" s="71" t="s">
         <v>944</v>
-      </c>
-      <c r="B235" s="138" t="s">
-        <v>945</v>
-      </c>
-      <c r="C235" s="71" t="s">
-        <v>891</v>
-      </c>
-      <c r="D235" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="E235" s="71" t="s">
-        <v>946</v>
       </c>
       <c r="F235" s="71"/>
       <c r="G235" s="71" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H235" s="140" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
@@ -18125,10 +18100,10 @@
     </row>
     <row r="236">
       <c r="A236" s="38" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B236" s="61" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C236" s="71"/>
       <c r="D236" s="71"/>
@@ -18142,24 +18117,24 @@
     </row>
     <row r="237">
       <c r="A237" s="47" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B237" s="138" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C237" s="141" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D237" s="71"/>
       <c r="E237" s="109" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F237" s="71"/>
       <c r="G237" s="71" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H237" s="140" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
@@ -18167,10 +18142,10 @@
     </row>
     <row r="238">
       <c r="A238" s="38" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B238" s="61" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C238" s="71"/>
       <c r="D238" s="71"/>
@@ -18184,29 +18159,29 @@
     </row>
     <row r="239">
       <c r="A239" s="47" t="s">
+        <v>954</v>
+      </c>
+      <c r="B239" s="138" t="s">
+        <v>955</v>
+      </c>
+      <c r="C239" s="137" t="s">
         <v>956</v>
       </c>
-      <c r="B239" s="138" t="s">
+      <c r="D239" s="71" t="s">
         <v>957</v>
       </c>
-      <c r="C239" s="137" t="s">
+      <c r="E239" s="142" t="s">
         <v>958</v>
-      </c>
-      <c r="D239" s="71" t="s">
-        <v>959</v>
-      </c>
-      <c r="E239" s="142" t="s">
-        <v>960</v>
       </c>
       <c r="F239" s="71"/>
       <c r="G239" s="71" t="s">
+        <v>959</v>
+      </c>
+      <c r="H239" s="143" t="s">
+        <v>960</v>
+      </c>
+      <c r="I239" s="6" t="s">
         <v>961</v>
-      </c>
-      <c r="H239" s="143" t="s">
-        <v>962</v>
-      </c>
-      <c r="I239" s="6" t="s">
-        <v>963</v>
       </c>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
@@ -18336,39 +18311,39 @@
     </row>
     <row r="2">
       <c r="A2" s="77" t="s">
+        <v>962</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>963</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>964</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>965</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>966</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="40" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="77" t="s">
+        <v>962</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>963</v>
+      </c>
+      <c r="C3" s="72" t="s">
         <v>964</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>965</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>966</v>
       </c>
       <c r="D3" s="72"/>
       <c r="E3" s="40" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -18382,10 +18357,10 @@
       <c r="C4" s="148"/>
       <c r="D4" s="148"/>
       <c r="E4" s="41" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F4" s="149" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -18399,10 +18374,10 @@
       <c r="C5" s="148"/>
       <c r="D5" s="148"/>
       <c r="E5" s="41" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="150"/>
@@ -18427,22 +18402,22 @@
     </row>
     <row r="6">
       <c r="A6" s="77" t="s">
+        <v>973</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>974</v>
+      </c>
+      <c r="C6" s="72" t="s">
         <v>975</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="D6" s="72" t="s">
         <v>976</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="E6" s="40" t="s">
         <v>977</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="F6" s="40" t="s">
         <v>978</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>979</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>980</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="150"/>
@@ -18467,47 +18442,47 @@
     </row>
     <row r="7">
       <c r="A7" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="D7" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>534</v>
-      </c>
       <c r="E7" s="40" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" s="151" t="s">
         <v>606</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>607</v>
-      </c>
-      <c r="C8" s="151" t="s">
-        <v>608</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="83" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F8" s="83" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="146" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B9" s="147" t="s">
         <v>259</v>
@@ -18515,15 +18490,15 @@
       <c r="C9" s="148"/>
       <c r="D9" s="148"/>
       <c r="E9" s="147" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F9" s="152" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="148" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B10" s="147" t="s">
         <v>259</v>
@@ -18531,35 +18506,35 @@
       <c r="C10" s="148"/>
       <c r="D10" s="148"/>
       <c r="E10" s="147" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F10" s="152" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>650</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="D11" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>654</v>
-      </c>
       <c r="E11" s="83" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F11" s="83" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="148" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B12" s="147" t="s">
         <v>259</v>
@@ -18567,74 +18542,74 @@
       <c r="C12" s="148"/>
       <c r="D12" s="148"/>
       <c r="E12" s="147" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F12" s="147" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="148" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B13" s="147" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C13" s="148"/>
       <c r="D13" s="148"/>
       <c r="E13" s="147" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F13" s="147" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="148" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B14" s="147" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C14" s="148"/>
       <c r="D14" s="148"/>
       <c r="E14" s="147" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F14" s="147" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="148" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B15" s="147" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C15" s="148"/>
       <c r="D15" s="148"/>
       <c r="E15" s="147" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F15" s="147" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="148" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B16" s="147" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C16" s="148"/>
       <c r="D16" s="148"/>
       <c r="E16" s="147" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F16" s="147" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="17">
@@ -22499,36 +22474,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="153" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="154" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="155" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="156" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="8">
@@ -22539,41 +22514,41 @@
     </row>
     <row r="10">
       <c r="A10" s="156" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="156" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B11" s="157" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="158" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="159"/>
       <c r="B13" s="160" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="161" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="162" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="163" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="17">
@@ -22582,24 +22557,24 @@
     </row>
     <row r="18">
       <c r="A18" s="156" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B18" s="164" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B19" s="165"/>
     </row>
     <row r="21">
       <c r="A21" s="156" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B21" s="166" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -22625,52 +22600,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="156" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="37" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="167" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -22696,58 +22671,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B1" s="168" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="169" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="170" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
@@ -22791,35 +22766,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="171" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C1" s="171" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1045</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1047</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22828,13 +22803,13 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22843,70 +22818,70 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>1051</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D7" s="172" t="s">
         <v>1054</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D7" s="172" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>1057</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="173" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B9" s="174" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C9" s="174" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D9" s="174" t="s">
         <v>1060</v>
-      </c>
-      <c r="B9" s="174" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C9" s="174" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D9" s="174" t="s">
-        <v>1062</v>
       </c>
       <c r="E9" s="174"/>
       <c r="F9" s="174"/>
@@ -22933,16 +22908,16 @@
     </row>
     <row r="10">
       <c r="A10" s="173" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B10" s="174" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C10" s="174" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D10" s="174" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E10" s="175"/>
       <c r="F10" s="175"/>
@@ -22969,16 +22944,16 @@
     </row>
     <row r="11">
       <c r="A11" s="173" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B11" s="174" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C11" s="174" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D11" s="174" t="s">
         <v>1065</v>
-      </c>
-      <c r="B11" s="174" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C11" s="174" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D11" s="174" t="s">
-        <v>1067</v>
       </c>
       <c r="E11" s="175"/>
       <c r="F11" s="175"/>
@@ -23005,16 +22980,16 @@
     </row>
     <row r="12">
       <c r="A12" s="173" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B12" s="174" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C12" s="174" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D12" s="174" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E12" s="175"/>
       <c r="F12" s="175"/>
@@ -23041,16 +23016,16 @@
     </row>
     <row r="13">
       <c r="A13" s="173" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B13" s="173" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C13" s="174" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D13" s="174" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E13" s="175"/>
       <c r="F13" s="175"/>
@@ -23077,16 +23052,16 @@
     </row>
     <row r="14">
       <c r="A14" s="173" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B14" s="173" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C14" s="174" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D14" s="174" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E14" s="175"/>
       <c r="F14" s="175"/>
@@ -23138,51 +23113,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="176" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="156" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B2" s="156" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C2" s="156" t="s">
         <v>1041</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="D2" s="156" t="s">
         <v>1042</v>
-      </c>
-      <c r="C2" s="156" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D2" s="156" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C5" s="177" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>1078</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C5" s="177" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>1080</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F06/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F06/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1080">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.6.0</t>
+    <t>6.6.3</t>
   </si>
   <si>
     <r>
@@ -1612,7 +1612,7 @@
     <t>CONTRACTING_BODY/PROCUREMENT_LAW</t>
   </si>
   <si>
-    <t>epo:Notice / epo:Procedure / epo:ProcedureSpecificTerm / rdf:langString</t>
+    <t>epo:Notice / epo:Procedure / epo:ProcedureTerm / rdf:langString</t>
   </si>
   <si>
     <r>
@@ -1666,7 +1666,7 @@
     <t>CONTRACTING_BODY/CENTRAL_PURCHASING</t>
   </si>
   <si>
-    <t>epo:Notice / epo:Procedure / epo:ProcedureSpecificTerm / xsd:boolean</t>
+    <t>epo:Notice / epo:Procedure / epo:ProcedureTerm / xsd:boolean</t>
   </si>
   <si>
     <r>
@@ -1992,7 +1992,7 @@
     <t>Agree to publish</t>
   </si>
   <si>
-    <t>See comment in the "Mapping Remarks" sheet.</t>
+    <t>See the related comments in the "Mapping Remarks" sheet.</t>
   </si>
   <si>
     <t>II.1.7.1</t>
@@ -3736,7 +3736,7 @@
     <t>no match</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED/NO_DOC_EXT/@PUBLICATION</t>
+    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED/NO_DOC_EXT</t>
   </si>
   <si>
     <t>epo:LotAwardOutcome / rdf:langString</t>
@@ -6701,30 +6701,8 @@
     <t>PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_CALL/D_OUTSIDE_SCOPE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasDirectAwardJustification &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://publications.europa.eu/resource/authority/direct-award-justification/dir24-list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>&gt; .</t>
-    </r>
+    <t>This field is not mappable at the moment.
+See the related comments in the "Mapping Remarks" sheet.</t>
   </si>
   <si>
     <t>D2.3</t>
@@ -7303,7 +7281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="34">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -7406,11 +7384,6 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
@@ -7435,11 +7408,6 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -7469,10 +7437,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <i/>
       <sz val="8.0"/>
       <color theme="1"/>
@@ -7484,7 +7448,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7553,20 +7517,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
-        <bgColor rgb="FF34A853"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
+        <fgColor rgb="FF34A853"/>
+        <bgColor rgb="FF34A853"/>
       </patternFill>
     </fill>
     <fill>
@@ -7662,7 +7620,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="172">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7769,15 +7727,12 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -7792,11 +7747,17 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="7" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -7819,9 +7780,6 @@
     <xf borderId="7" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -7838,6 +7796,9 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -7862,13 +7823,7 @@
     <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7889,19 +7844,16 @@
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -7985,19 +7937,10 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8006,25 +7949,34 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8032,9 +7984,6 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -8048,22 +7997,19 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8072,16 +8018,13 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -8102,26 +8045,26 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8142,19 +8085,19 @@
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8163,26 +8106,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -11689,11 +11629,11 @@
       <c r="H3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="37" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L3" s="28"/>
@@ -11714,11 +11654,11 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="6"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -11737,18 +11677,18 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="40" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="6"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -11759,32 +11699,32 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="6"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -11798,7 +11738,7 @@
       <c r="A7" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="46" t="s">
@@ -11810,17 +11750,17 @@
       <c r="E7" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46" t="s">
+      <c r="F7" s="47"/>
+      <c r="G7" s="47" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="6"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -11831,10 +11771,10 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -11846,15 +11786,15 @@
       <c r="E8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="6"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -11865,10 +11805,10 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="49" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -11880,15 +11820,15 @@
       <c r="E9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="6"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -11899,32 +11839,32 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="51" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="37" t="s">
         <v>90</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="6"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -11935,10 +11875,10 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="49" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -11950,15 +11890,15 @@
       <c r="E11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="6"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -11972,16 +11912,16 @@
       <c r="A12" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>104</v>
       </c>
       <c r="F12" s="44"/>
@@ -11991,8 +11931,8 @@
       <c r="H12" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="6"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -12003,10 +11943,10 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="49" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -12018,17 +11958,17 @@
       <c r="E13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="37"/>
       <c r="K13" s="6"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -12039,10 +11979,10 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -12054,15 +11994,15 @@
       <c r="E14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="6"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -12073,10 +12013,10 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="49" t="s">
         <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -12088,15 +12028,15 @@
       <c r="E15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="6"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -12107,10 +12047,10 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="49" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -12122,15 +12062,15 @@
       <c r="E16" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="6"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -12141,20 +12081,20 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="49" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="6"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -12165,30 +12105,30 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="43" t="s">
         <v>139</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="47" t="s">
         <v>125</v>
       </c>
       <c r="H18" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="6"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -12214,15 +12154,15 @@
       <c r="E19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="37"/>
+      <c r="G19" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="6"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -12242,11 +12182,11 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="6"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -12263,18 +12203,18 @@
       <c r="B21" s="39"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="6"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -12296,15 +12236,15 @@
       <c r="E22" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="41" t="s">
+      <c r="F22" s="37"/>
+      <c r="G22" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="6"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -12315,32 +12255,32 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="43" t="s">
         <v>153</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="I23" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="47"/>
       <c r="K23" s="58"/>
       <c r="L23" s="59"/>
       <c r="M23" s="59"/>
@@ -12362,7 +12302,7 @@
       <c r="A24" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="46" t="s">
@@ -12374,8 +12314,8 @@
       <c r="E24" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46" t="s">
+      <c r="F24" s="47"/>
+      <c r="G24" s="47" t="s">
         <v>69</v>
       </c>
       <c r="H24" s="46" t="s">
@@ -12403,10 +12343,10 @@
       <c r="Z24" s="60"/>
     </row>
     <row r="25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -12418,15 +12358,15 @@
       <c r="E25" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="37"/>
+      <c r="G25" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="6"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
@@ -12437,10 +12377,10 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="49" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -12452,15 +12392,15 @@
       <c r="E26" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="37"/>
+      <c r="G26" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="6"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
@@ -12471,32 +12411,32 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="51" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="37" t="s">
         <v>162</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="6"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -12507,10 +12447,10 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="49" t="s">
         <v>94</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -12522,15 +12462,15 @@
       <c r="E28" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="37"/>
+      <c r="G28" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="6"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -12544,23 +12484,23 @@
       <c r="A29" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="43" t="s">
         <v>166</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="43" t="s">
         <v>167</v>
       </c>
       <c r="I29" s="44"/>
@@ -12583,10 +12523,10 @@
       <c r="Z29" s="60"/>
     </row>
     <row r="30">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="49" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -12598,17 +12538,17 @@
       <c r="E30" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="6"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -12619,10 +12559,10 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -12634,15 +12574,15 @@
       <c r="E31" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="51" t="s">
+      <c r="H31" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
       <c r="K31" s="6"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
@@ -12653,10 +12593,10 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="49" t="s">
         <v>121</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -12668,15 +12608,15 @@
       <c r="E32" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="50" t="s">
+      <c r="H32" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="6"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -12687,10 +12627,10 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="49" t="s">
         <v>128</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -12702,15 +12642,15 @@
       <c r="E33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="6"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -12721,20 +12661,20 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="49" t="s">
         <v>134</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
       <c r="K34" s="6"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -12745,29 +12685,29 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="43" t="s">
         <v>176</v>
       </c>
       <c r="F35" s="44"/>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="47" t="s">
         <v>125</v>
       </c>
       <c r="H35" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="37"/>
       <c r="J35" s="44"/>
       <c r="K35" s="58"/>
       <c r="L35" s="59"/>
@@ -12802,14 +12742,14 @@
       <c r="E36" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="37"/>
+      <c r="G36" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="H36" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="I36" s="6"/>
+      <c r="I36" s="61"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="28"/>
@@ -12824,7 +12764,7 @@
       <c r="A37" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="62" t="s">
         <v>181</v>
       </c>
       <c r="C37" s="6"/>
@@ -12833,7 +12773,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="I37" s="61"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="28"/>
@@ -12845,25 +12785,25 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="36" t="s">
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="51" t="s">
         <v>184</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="I38" s="6"/>
+      <c r="I38" s="61"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="28"/>
@@ -12881,23 +12821,23 @@
       <c r="B39" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="51" t="s">
         <v>191</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="61" t="s">
         <v>194</v>
       </c>
       <c r="J39" s="6"/>
@@ -12911,10 +12851,10 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="42" t="s">
         <v>196</v>
       </c>
       <c r="C40" s="46"/>
@@ -12923,13 +12863,13 @@
         <v>197</v>
       </c>
       <c r="F40" s="44"/>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="I40" s="6"/>
+      <c r="I40" s="61"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="59"/>
@@ -12955,20 +12895,20 @@
       <c r="B41" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40" t="s">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="37" t="s">
         <v>206</v>
       </c>
       <c r="I41" s="6"/>
@@ -12983,24 +12923,24 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="41" t="s">
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="F42" s="65"/>
-      <c r="G42" s="41" t="s">
+      <c r="F42" s="66"/>
+      <c r="G42" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
       <c r="K42" s="6"/>
       <c r="L42" s="28"/>
       <c r="M42" s="28"/>
@@ -13014,7 +12954,7 @@
       <c r="A43" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="67" t="s">
         <v>212</v>
       </c>
       <c r="C43" s="4"/>
@@ -13043,12 +12983,12 @@
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
       <c r="K44" s="6"/>
       <c r="L44" s="28"/>
       <c r="M44" s="28"/>
@@ -13059,10 +12999,10 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -13074,17 +13014,17 @@
       <c r="E45" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
+      <c r="F45" s="37"/>
+      <c r="G45" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="J45" s="6"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="6"/>
       <c r="L45" s="28"/>
       <c r="M45" s="28"/>
@@ -13095,29 +13035,29 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="E46" s="68" t="s">
+      <c r="E46" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68" t="s">
+      <c r="F46" s="70"/>
+      <c r="G46" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="H46" s="68" t="s">
+      <c r="H46" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="I46" s="69" t="s">
+      <c r="I46" s="58" t="s">
         <v>71</v>
       </c>
       <c r="J46" s="58"/>
@@ -13131,10 +13071,10 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="49" t="s">
         <v>228</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -13146,11 +13086,11 @@
       <c r="E47" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4" t="s">
+      <c r="F47" s="37"/>
+      <c r="G47" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H47" s="40" t="s">
         <v>233</v>
       </c>
       <c r="I47" s="4"/>
@@ -13180,11 +13120,11 @@
       <c r="E48" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
+      <c r="F48" s="37"/>
+      <c r="G48" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="37" t="s">
         <v>233</v>
       </c>
       <c r="I48" s="4"/>
@@ -13199,10 +13139,10 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="49" t="s">
         <v>241</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -13214,11 +13154,11 @@
       <c r="E49" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4" t="s">
+      <c r="F49" s="37"/>
+      <c r="G49" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="37" t="s">
         <v>246</v>
       </c>
       <c r="I49" s="6"/>
@@ -13241,29 +13181,29 @@
       <c r="Z49" s="60"/>
     </row>
     <row r="50">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="51" t="s">
         <v>250</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="H50" s="50" t="s">
+      <c r="H50" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J50" s="6"/>
@@ -13277,16 +13217,16 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="49" t="s">
         <v>253</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="F51" s="37"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="6"/>
@@ -13301,18 +13241,18 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="49" t="s">
         <v>255</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="36" t="s">
         <v>257</v>
       </c>
@@ -13337,15 +13277,15 @@
       <c r="B53" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="6" t="s">
+      <c r="K53" s="63" t="s">
         <v>261</v>
       </c>
       <c r="L53" s="28"/>
@@ -13363,20 +13303,20 @@
       <c r="B54" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="D54" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="51" t="s">
         <v>266</v>
       </c>
       <c r="F54" s="36"/>
-      <c r="G54" s="62" t="s">
+      <c r="G54" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="H54" s="62" t="s">
+      <c r="H54" s="63" t="s">
         <v>268</v>
       </c>
       <c r="I54" s="6"/>
@@ -13397,20 +13337,20 @@
       <c r="B55" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="D55" s="62" t="s">
+      <c r="D55" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="51" t="s">
         <v>273</v>
       </c>
       <c r="F55" s="36"/>
-      <c r="G55" s="62" t="s">
+      <c r="G55" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="H55" s="72" t="s">
+      <c r="H55" s="71" t="s">
         <v>274</v>
       </c>
       <c r="I55" s="6"/>
@@ -13431,13 +13371,13 @@
       <c r="B56" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="51" t="s">
         <v>279</v>
       </c>
       <c r="F56" s="36"/>
@@ -13467,14 +13407,14 @@
       </c>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="51" t="s">
         <v>283</v>
       </c>
       <c r="F57" s="36"/>
       <c r="G57" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="H57" s="73" t="s">
+      <c r="H57" s="72" t="s">
         <v>285</v>
       </c>
       <c r="I57" s="6"/>
@@ -13501,10 +13441,10 @@
         <v>256</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="37" t="s">
         <v>288</v>
       </c>
       <c r="I58" s="6"/>
@@ -13519,10 +13459,10 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="4"/>
@@ -13531,10 +13471,10 @@
         <v>256</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="41" t="s">
+      <c r="G59" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="H59" s="41" t="s">
+      <c r="H59" s="40" t="s">
         <v>290</v>
       </c>
       <c r="I59" s="6"/>
@@ -13549,29 +13489,29 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="72" t="s">
+      <c r="C60" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="D60" s="72" t="s">
+      <c r="D60" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="F60" s="50"/>
+      <c r="F60" s="36"/>
       <c r="G60" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="H60" s="50" t="s">
+      <c r="H60" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J60" s="6"/>
@@ -13591,23 +13531,23 @@
       <c r="B61" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="C61" s="72" t="s">
+      <c r="C61" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="D61" s="72" t="s">
+      <c r="D61" s="71" t="s">
         <v>298</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="F61" s="72"/>
+      <c r="F61" s="63"/>
       <c r="G61" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="H61" s="50" t="s">
+      <c r="H61" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="I61" s="61" t="s">
         <v>71</v>
       </c>
       <c r="J61" s="6"/>
@@ -13621,10 +13561,10 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="49" t="s">
         <v>303</v>
       </c>
       <c r="C62" s="6"/>
@@ -13660,11 +13600,11 @@
       <c r="E63" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4" t="s">
+      <c r="F63" s="37"/>
+      <c r="G63" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="37" t="s">
         <v>307</v>
       </c>
       <c r="I63" s="6"/>
@@ -13694,11 +13634,11 @@
       <c r="E64" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4" t="s">
+      <c r="F64" s="37"/>
+      <c r="G64" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="37" t="s">
         <v>307</v>
       </c>
       <c r="I64" s="6"/>
@@ -13713,10 +13653,10 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="49" t="s">
         <v>312</v>
       </c>
       <c r="C65" s="4"/>
@@ -13752,13 +13692,13 @@
       <c r="E66" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="37" t="s">
         <v>317</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="H66" s="73" t="s">
+      <c r="H66" s="72" t="s">
         <v>319</v>
       </c>
       <c r="I66" s="6"/>
@@ -13779,23 +13719,23 @@
       <c r="B67" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="D67" s="36" t="s">
+      <c r="D67" s="51" t="s">
         <v>323</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F67" s="4"/>
+      <c r="F67" s="37"/>
       <c r="G67" s="36" t="s">
         <v>325</v>
       </c>
       <c r="H67" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J67" s="6"/>
@@ -13809,29 +13749,29 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="D68" s="36" t="s">
+      <c r="D68" s="51" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6" t="s">
+      <c r="F68" s="61"/>
+      <c r="G68" s="61" t="s">
         <v>293</v>
       </c>
       <c r="H68" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J68" s="6"/>
@@ -13845,18 +13785,18 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="49" t="s">
         <v>332</v>
       </c>
       <c r="C69" s="36"/>
       <c r="D69" s="36"/>
-      <c r="E69" s="40"/>
+      <c r="E69" s="37"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -13869,21 +13809,21 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="76" t="s">
+      <c r="A70" s="75" t="s">
         <v>333</v>
       </c>
       <c r="B70" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="6" t="s">
+      <c r="K70" s="63" t="s">
         <v>261</v>
       </c>
       <c r="L70" s="28"/>
@@ -13899,14 +13839,14 @@
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="37" t="s">
         <v>334</v>
       </c>
       <c r="F71" s="36"/>
       <c r="G71" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="H71" s="73" t="s">
+      <c r="H71" s="72" t="s">
         <v>336</v>
       </c>
       <c r="I71" s="6"/>
@@ -13936,11 +13876,11 @@
       <c r="E72" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="F72" s="72"/>
-      <c r="G72" s="4" t="s">
+      <c r="F72" s="63"/>
+      <c r="G72" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="H72" s="77" t="s">
+      <c r="H72" s="76" t="s">
         <v>342</v>
       </c>
       <c r="I72" s="6"/>
@@ -13955,29 +13895,29 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="78" t="s">
+      <c r="A73" s="77" t="s">
         <v>343</v>
       </c>
-      <c r="B73" s="79" t="s">
+      <c r="B73" s="78" t="s">
         <v>344</v>
       </c>
-      <c r="C73" s="50" t="s">
+      <c r="C73" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="D73" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F73" s="72"/>
-      <c r="G73" s="4" t="s">
+      <c r="F73" s="63"/>
+      <c r="G73" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="H73" s="80" t="s">
+      <c r="H73" s="79" t="s">
         <v>349</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I73" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J73" s="6"/>
@@ -13991,29 +13931,29 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="78" t="s">
+      <c r="A74" s="77" t="s">
         <v>350</v>
       </c>
-      <c r="B74" s="79" t="s">
+      <c r="B74" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="D74" s="50" t="s">
+      <c r="D74" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="F74" s="50"/>
-      <c r="G74" s="4" t="s">
+      <c r="F74" s="36"/>
+      <c r="G74" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="H74" s="80" t="s">
+      <c r="H74" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I74" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J74" s="6"/>
@@ -14031,14 +13971,14 @@
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="37" t="s">
         <v>356</v>
       </c>
       <c r="F75" s="36"/>
       <c r="G75" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="H75" s="81" t="s">
+      <c r="H75" s="80" t="s">
         <v>357</v>
       </c>
       <c r="I75" s="6"/>
@@ -14068,11 +14008,11 @@
       <c r="E76" s="57" t="s">
         <v>356</v>
       </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="4" t="s">
+      <c r="F76" s="36"/>
+      <c r="G76" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="H76" s="77" t="s">
+      <c r="H76" s="76" t="s">
         <v>360</v>
       </c>
       <c r="I76" s="6"/>
@@ -14087,29 +14027,29 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="78" t="s">
+      <c r="A77" s="77" t="s">
         <v>361</v>
       </c>
-      <c r="B77" s="79" t="s">
+      <c r="B77" s="78" t="s">
         <v>344</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="E77" s="40" t="s">
+      <c r="E77" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="F77" s="72"/>
-      <c r="G77" s="4" t="s">
+      <c r="F77" s="63"/>
+      <c r="G77" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="H77" s="80" t="s">
+      <c r="H77" s="79" t="s">
         <v>349</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I77" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J77" s="6"/>
@@ -14123,29 +14063,29 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="78" t="s">
+      <c r="A78" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="B78" s="79" t="s">
+      <c r="B78" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="E78" s="40" t="s">
+      <c r="E78" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="4" t="s">
+      <c r="F78" s="36"/>
+      <c r="G78" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="H78" s="80" t="s">
+      <c r="H78" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="I78" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J78" s="6"/>
@@ -14163,14 +14103,14 @@
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="40" t="s">
+      <c r="E79" s="37" t="s">
         <v>365</v>
       </c>
       <c r="F79" s="36"/>
       <c r="G79" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="H79" s="73" t="s">
+      <c r="H79" s="72" t="s">
         <v>366</v>
       </c>
       <c r="I79" s="6"/>
@@ -14200,11 +14140,11 @@
       <c r="E80" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="F80" s="50"/>
-      <c r="G80" s="4" t="s">
+      <c r="F80" s="36"/>
+      <c r="G80" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="H80" s="77" t="s">
+      <c r="H80" s="76" t="s">
         <v>369</v>
       </c>
       <c r="I80" s="6"/>
@@ -14219,29 +14159,29 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="78" t="s">
+      <c r="A81" s="77" t="s">
         <v>370</v>
       </c>
-      <c r="B81" s="79" t="s">
+      <c r="B81" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C81" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="E81" s="40" t="s">
+      <c r="E81" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="F81" s="62"/>
-      <c r="G81" s="4" t="s">
+      <c r="F81" s="63"/>
+      <c r="G81" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="H81" s="80" t="s">
+      <c r="H81" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I81" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J81" s="6"/>
@@ -14255,16 +14195,16 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="50"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
       <c r="I82" s="6"/>
@@ -14285,20 +14225,20 @@
       <c r="B83" s="56" t="s">
         <v>375</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="E83" s="50" t="s">
+      <c r="E83" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="F83" s="82"/>
+      <c r="F83" s="6"/>
       <c r="G83" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="H83" s="73" t="s">
+      <c r="H83" s="72" t="s">
         <v>379</v>
       </c>
       <c r="I83" s="6"/>
@@ -14313,26 +14253,26 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="83" t="s">
+      <c r="A84" s="81" t="s">
         <v>374</v>
       </c>
-      <c r="B84" s="84" t="s">
+      <c r="B84" s="82" t="s">
         <v>375</v>
       </c>
-      <c r="C84" s="85" t="s">
+      <c r="C84" s="83" t="s">
         <v>376</v>
       </c>
-      <c r="D84" s="85" t="s">
+      <c r="D84" s="83" t="s">
         <v>375</v>
       </c>
-      <c r="E84" s="50" t="s">
+      <c r="E84" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="F84" s="40"/>
+      <c r="F84" s="4"/>
       <c r="G84" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="H84" s="50" t="s">
+      <c r="H84" s="51" t="s">
         <v>381</v>
       </c>
       <c r="I84" s="6"/>
@@ -14353,23 +14293,23 @@
       <c r="B85" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C85" s="51" t="s">
         <v>384</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D85" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="E85" s="50" t="s">
+      <c r="E85" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50" t="s">
+      <c r="F85" s="36"/>
+      <c r="G85" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="H85" s="50" t="s">
+      <c r="H85" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="I85" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J85" s="6"/>
@@ -14383,10 +14323,10 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="49" t="s">
+      <c r="A86" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="B86" s="48" t="s">
+      <c r="B86" s="49" t="s">
         <v>390</v>
       </c>
       <c r="C86" s="4"/>
@@ -14407,7 +14347,7 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="76" t="s">
+      <c r="A87" s="75" t="s">
         <v>391</v>
       </c>
       <c r="B87" s="56" t="s">
@@ -14416,17 +14356,17 @@
       <c r="C87" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="E87" s="72" t="s">
+      <c r="E87" s="71" t="s">
         <v>395</v>
       </c>
-      <c r="F87" s="82"/>
-      <c r="G87" s="72" t="s">
+      <c r="F87" s="6"/>
+      <c r="G87" s="63" t="s">
         <v>396</v>
       </c>
-      <c r="H87" s="86" t="s">
+      <c r="H87" s="84" t="s">
         <v>397</v>
       </c>
       <c r="I87" s="6"/>
@@ -14434,26 +14374,26 @@
       <c r="K87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="87" t="s">
+      <c r="A88" s="85" t="s">
         <v>391</v>
       </c>
-      <c r="B88" s="88" t="s">
+      <c r="B88" s="86" t="s">
         <v>392</v>
       </c>
-      <c r="C88" s="89" t="s">
+      <c r="C88" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="D88" s="90" t="s">
+      <c r="D88" s="88" t="s">
         <v>394</v>
       </c>
-      <c r="E88" s="50" t="s">
+      <c r="E88" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="F88" s="40"/>
-      <c r="G88" s="50" t="s">
+      <c r="F88" s="4"/>
+      <c r="G88" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="H88" s="91" t="s">
+      <c r="H88" s="89" t="s">
         <v>399</v>
       </c>
       <c r="I88" s="6"/>
@@ -14461,7 +14401,7 @@
       <c r="K88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="76" t="s">
+      <c r="A89" s="75" t="s">
         <v>400</v>
       </c>
       <c r="B89" s="56" t="s">
@@ -14470,30 +14410,30 @@
       <c r="C89" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="51" t="s">
         <v>403</v>
       </c>
       <c r="E89" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50" t="s">
+      <c r="F89" s="36"/>
+      <c r="G89" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="H89" s="91" t="s">
+      <c r="H89" s="89" t="s">
         <v>405</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="I89" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="49" t="s">
+      <c r="A90" s="50" t="s">
         <v>406</v>
       </c>
-      <c r="B90" s="48" t="s">
+      <c r="B90" s="49" t="s">
         <v>407</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -14505,40 +14445,40 @@
       <c r="E90" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4" t="s">
+      <c r="F90" s="37"/>
+      <c r="G90" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="H90" s="92" t="s">
+      <c r="H90" s="90" t="s">
         <v>411</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
     </row>
     <row r="91">
-      <c r="A91" s="93" t="s">
+      <c r="A91" s="91" t="s">
         <v>412</v>
       </c>
-      <c r="B91" s="66" t="s">
+      <c r="B91" s="67" t="s">
         <v>413</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="37" t="s">
         <v>414</v>
       </c>
       <c r="F91" s="6"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
     </row>
     <row r="92">
-      <c r="A92" s="94" t="s">
+      <c r="A92" s="92" t="s">
         <v>415</v>
       </c>
       <c r="B92" s="39" t="s">
@@ -14555,10 +14495,10 @@
       <c r="K92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="49" t="s">
         <v>417</v>
       </c>
       <c r="C93" s="6"/>
@@ -14572,7 +14512,7 @@
       <c r="K93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="76" t="s">
+      <c r="A94" s="75" t="s">
         <v>418</v>
       </c>
       <c r="B94" s="56" t="s">
@@ -14581,17 +14521,17 @@
       <c r="C94" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="D94" s="36" t="s">
+      <c r="D94" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="E94" s="50" t="s">
+      <c r="E94" s="51" t="s">
         <v>422</v>
       </c>
-      <c r="F94" s="50"/>
+      <c r="F94" s="36"/>
       <c r="G94" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="H94" s="81" t="s">
+      <c r="H94" s="80" t="s">
         <v>424</v>
       </c>
       <c r="I94" s="6"/>
@@ -14599,7 +14539,7 @@
       <c r="K94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="76" t="s">
+      <c r="A95" s="75" t="s">
         <v>425</v>
       </c>
       <c r="B95" s="56" t="s">
@@ -14608,17 +14548,17 @@
       <c r="C95" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="D95" s="36" t="s">
+      <c r="D95" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="E95" s="50" t="s">
+      <c r="E95" s="51" t="s">
         <v>427</v>
       </c>
-      <c r="F95" s="50"/>
+      <c r="F95" s="36"/>
       <c r="G95" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="H95" s="81" t="s">
+      <c r="H95" s="80" t="s">
         <v>428</v>
       </c>
       <c r="I95" s="6"/>
@@ -14626,7 +14566,7 @@
       <c r="K95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="76" t="s">
+      <c r="A96" s="75" t="s">
         <v>429</v>
       </c>
       <c r="B96" s="56" t="s">
@@ -14635,17 +14575,17 @@
       <c r="C96" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="D96" s="36" t="s">
+      <c r="D96" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="E96" s="41" t="s">
+      <c r="E96" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41" t="s">
+      <c r="F96" s="40"/>
+      <c r="G96" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="H96" s="95" t="s">
+      <c r="H96" s="93" t="s">
         <v>432</v>
       </c>
       <c r="I96" s="6"/>
@@ -14653,7 +14593,7 @@
       <c r="K96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="76" t="s">
+      <c r="A97" s="75" t="s">
         <v>433</v>
       </c>
       <c r="B97" s="56" t="s">
@@ -14662,17 +14602,17 @@
       <c r="C97" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="D97" s="36" t="s">
+      <c r="D97" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="E97" s="50" t="s">
+      <c r="E97" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="F97" s="50"/>
+      <c r="F97" s="36"/>
       <c r="G97" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="H97" s="96" t="s">
+      <c r="H97" s="94" t="s">
         <v>436</v>
       </c>
       <c r="I97" s="6"/>
@@ -14680,7 +14620,7 @@
       <c r="K97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="76" t="s">
+      <c r="A98" s="75" t="s">
         <v>437</v>
       </c>
       <c r="B98" s="56" t="s">
@@ -14689,17 +14629,17 @@
       <c r="C98" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="D98" s="36" t="s">
+      <c r="D98" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="E98" s="50" t="s">
+      <c r="E98" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="F98" s="50"/>
+      <c r="F98" s="36"/>
       <c r="G98" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="H98" s="96" t="s">
+      <c r="H98" s="94" t="s">
         <v>440</v>
       </c>
       <c r="I98" s="6"/>
@@ -14707,7 +14647,7 @@
       <c r="K98" s="6"/>
     </row>
     <row r="99">
-      <c r="A99" s="76" t="s">
+      <c r="A99" s="75" t="s">
         <v>441</v>
       </c>
       <c r="B99" s="56" t="s">
@@ -14716,17 +14656,17 @@
       <c r="C99" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="D99" s="36" t="s">
+      <c r="D99" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="E99" s="50" t="s">
+      <c r="E99" s="51" t="s">
         <v>443</v>
       </c>
-      <c r="F99" s="50"/>
+      <c r="F99" s="36"/>
       <c r="G99" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="H99" s="81" t="s">
+      <c r="H99" s="80" t="s">
         <v>444</v>
       </c>
       <c r="I99" s="6"/>
@@ -14734,13 +14674,13 @@
       <c r="K99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="49" t="s">
+      <c r="A100" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="B100" s="48" t="s">
+      <c r="B100" s="49" t="s">
         <v>446</v>
       </c>
-      <c r="C100" s="97" t="s">
+      <c r="C100" s="95" t="s">
         <v>447</v>
       </c>
       <c r="D100" s="4"/>
@@ -14753,7 +14693,7 @@
       <c r="K100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="76" t="s">
+      <c r="A101" s="75" t="s">
         <v>448</v>
       </c>
       <c r="B101" s="56" t="s">
@@ -14762,17 +14702,17 @@
       <c r="C101" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="D101" s="36" t="s">
+      <c r="D101" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E101" s="50" t="s">
+      <c r="E101" s="51" t="s">
         <v>452</v>
       </c>
-      <c r="F101" s="50"/>
+      <c r="F101" s="36"/>
       <c r="G101" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="H101" s="96" t="s">
+      <c r="H101" s="94" t="s">
         <v>454</v>
       </c>
       <c r="I101" s="6"/>
@@ -14780,7 +14720,7 @@
       <c r="K101" s="6"/>
     </row>
     <row r="102">
-      <c r="A102" s="76" t="s">
+      <c r="A102" s="75" t="s">
         <v>455</v>
       </c>
       <c r="B102" s="56" t="s">
@@ -14789,17 +14729,17 @@
       <c r="C102" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="D102" s="36" t="s">
+      <c r="D102" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="E102" s="50" t="s">
+      <c r="E102" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="F102" s="50"/>
+      <c r="F102" s="36"/>
       <c r="G102" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="H102" s="73" t="s">
+      <c r="H102" s="72" t="s">
         <v>461</v>
       </c>
       <c r="I102" s="6"/>
@@ -14807,10 +14747,10 @@
       <c r="K102" s="6"/>
     </row>
     <row r="103">
-      <c r="A103" s="49" t="s">
+      <c r="A103" s="50" t="s">
         <v>462</v>
       </c>
-      <c r="B103" s="48" t="s">
+      <c r="B103" s="49" t="s">
         <v>463</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -14826,7 +14766,7 @@
       <c r="K103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="76" t="s">
+      <c r="A104" s="75" t="s">
         <v>464</v>
       </c>
       <c r="B104" s="56" t="s">
@@ -14835,40 +14775,40 @@
       <c r="C104" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="D104" s="51" t="s">
         <v>467</v>
       </c>
-      <c r="E104" s="50" t="s">
+      <c r="E104" s="51" t="s">
         <v>468</v>
       </c>
-      <c r="F104" s="50"/>
+      <c r="F104" s="36"/>
       <c r="G104" s="36"/>
-      <c r="H104" s="50"/>
+      <c r="H104" s="51"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
     </row>
     <row r="105">
-      <c r="A105" s="49" t="s">
+      <c r="A105" s="50" t="s">
         <v>469</v>
       </c>
-      <c r="B105" s="48" t="s">
+      <c r="B105" s="49" t="s">
         <v>470</v>
       </c>
       <c r="C105" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="D105" s="36" t="s">
+      <c r="D105" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="E105" s="50" t="s">
+      <c r="E105" s="51" t="s">
         <v>473</v>
       </c>
-      <c r="F105" s="50"/>
+      <c r="F105" s="51"/>
       <c r="G105" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="H105" s="73" t="s">
+      <c r="H105" s="72" t="s">
         <v>475</v>
       </c>
       <c r="I105" s="6"/>
@@ -14876,26 +14816,26 @@
       <c r="K105" s="6"/>
     </row>
     <row r="106">
-      <c r="A106" s="98" t="s">
+      <c r="A106" s="96" t="s">
         <v>469</v>
       </c>
-      <c r="B106" s="99" t="s">
+      <c r="B106" s="97" t="s">
         <v>470</v>
       </c>
-      <c r="C106" s="89" t="s">
+      <c r="C106" s="87" t="s">
         <v>471</v>
       </c>
-      <c r="D106" s="100" t="s">
+      <c r="D106" s="98" t="s">
         <v>472</v>
       </c>
-      <c r="E106" s="72" t="s">
+      <c r="E106" s="71" t="s">
         <v>476</v>
       </c>
-      <c r="F106" s="72"/>
-      <c r="G106" s="62" t="s">
+      <c r="F106" s="71"/>
+      <c r="G106" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="H106" s="101" t="s">
+      <c r="H106" s="99" t="s">
         <v>477</v>
       </c>
       <c r="I106" s="6"/>
@@ -14903,7 +14843,7 @@
       <c r="K106" s="6"/>
     </row>
     <row r="107">
-      <c r="A107" s="94" t="s">
+      <c r="A107" s="92" t="s">
         <v>478</v>
       </c>
       <c r="B107" s="39" t="s">
@@ -14920,19 +14860,19 @@
       <c r="K107" s="6"/>
     </row>
     <row r="108">
-      <c r="A108" s="49" t="s">
+      <c r="A108" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="B108" s="64"/>
+      <c r="B108" s="65"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="F108" s="40" t="s">
+      <c r="F108" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G108" s="37" t="s">
         <v>482</v>
       </c>
       <c r="H108" s="36" t="s">
@@ -14943,49 +14883,49 @@
       <c r="K108" s="6"/>
     </row>
     <row r="109">
-      <c r="A109" s="49" t="s">
+      <c r="A109" s="50" t="s">
         <v>484</v>
       </c>
-      <c r="B109" s="64" t="s">
+      <c r="B109" s="65" t="s">
         <v>485</v>
       </c>
       <c r="C109" s="36"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="72" t="s">
+      <c r="D109" s="63"/>
+      <c r="E109" s="71" t="s">
         <v>486</v>
       </c>
-      <c r="F109" s="62"/>
-      <c r="G109" s="72" t="s">
+      <c r="F109" s="63"/>
+      <c r="G109" s="71" t="s">
         <v>487</v>
       </c>
-      <c r="H109" s="101" t="s">
+      <c r="H109" s="99" t="s">
         <v>488</v>
       </c>
-      <c r="I109" s="6" t="s">
+      <c r="I109" s="61" t="s">
         <v>71</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
     </row>
     <row r="110">
-      <c r="A110" s="49" t="s">
+      <c r="A110" s="50" t="s">
         <v>489</v>
       </c>
-      <c r="B110" s="48" t="s">
+      <c r="B110" s="49" t="s">
         <v>490</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="G110" s="37"/>
       <c r="H110" s="4"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
     </row>
     <row r="111">
-      <c r="A111" s="76" t="s">
+      <c r="A111" s="75" t="s">
         <v>491</v>
       </c>
       <c r="B111" s="56" t="s">
@@ -14994,17 +14934,17 @@
       <c r="C111" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="D111" s="36" t="s">
+      <c r="D111" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="E111" s="50" t="s">
+      <c r="E111" s="51" t="s">
         <v>495</v>
       </c>
-      <c r="F111" s="50"/>
+      <c r="F111" s="36"/>
       <c r="G111" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="H111" s="73" t="s">
+      <c r="H111" s="72" t="s">
         <v>497</v>
       </c>
       <c r="I111" s="6"/>
@@ -15012,10 +14952,10 @@
       <c r="K111" s="6"/>
     </row>
     <row r="112">
-      <c r="A112" s="49" t="s">
+      <c r="A112" s="50" t="s">
         <v>498</v>
       </c>
-      <c r="B112" s="48" t="s">
+      <c r="B112" s="49" t="s">
         <v>499</v>
       </c>
       <c r="C112" s="6"/>
@@ -15029,7 +14969,7 @@
       <c r="K112" s="6"/>
     </row>
     <row r="113">
-      <c r="A113" s="76" t="s">
+      <c r="A113" s="75" t="s">
         <v>500</v>
       </c>
       <c r="B113" s="56" t="s">
@@ -15038,13 +14978,13 @@
       <c r="C113" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="D113" s="36" t="s">
+      <c r="D113" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="E113" s="50" t="s">
+      <c r="E113" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="F113" s="50"/>
+      <c r="F113" s="36"/>
       <c r="G113" s="36" t="s">
         <v>496</v>
       </c>
@@ -15056,7 +14996,7 @@
       <c r="K113" s="6"/>
     </row>
     <row r="114">
-      <c r="A114" s="93" t="s">
+      <c r="A114" s="91" t="s">
         <v>506</v>
       </c>
       <c r="B114" s="34" t="s">
@@ -15064,16 +15004,16 @@
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="40" t="s">
+      <c r="E114" s="37" t="s">
         <v>508</v>
       </c>
-      <c r="F114" s="50" t="s">
+      <c r="F114" s="51" t="s">
         <v>509</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="G114" s="37" t="s">
         <v>510</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="H114" s="37" t="s">
         <v>511</v>
       </c>
       <c r="I114" s="6"/>
@@ -15081,24 +15021,24 @@
       <c r="K114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="102" t="s">
+      <c r="A115" s="100" t="s">
         <v>506</v>
       </c>
-      <c r="B115" s="103" t="s">
+      <c r="B115" s="101" t="s">
         <v>507</v>
       </c>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
       <c r="E115" s="57" t="s">
         <v>508</v>
       </c>
-      <c r="F115" s="65" t="s">
+      <c r="F115" s="66" t="s">
         <v>509</v>
       </c>
-      <c r="G115" s="65" t="s">
+      <c r="G115" s="66" t="s">
         <v>512</v>
       </c>
-      <c r="H115" s="104" t="s">
+      <c r="H115" s="102" t="s">
         <v>513</v>
       </c>
       <c r="I115" s="6"/>
@@ -15108,22 +15048,22 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="102" t="s">
+      <c r="A116" s="100" t="s">
         <v>506</v>
       </c>
-      <c r="B116" s="103" t="s">
+      <c r="B116" s="101" t="s">
         <v>507</v>
       </c>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="105" t="s">
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="103" t="s">
         <v>508</v>
       </c>
-      <c r="F116" s="62"/>
+      <c r="F116" s="63"/>
       <c r="G116" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="H116" s="62" t="s">
+      <c r="H116" s="63" t="s">
         <v>516</v>
       </c>
       <c r="I116" s="6"/>
@@ -15131,10 +15071,10 @@
       <c r="K116" s="6"/>
     </row>
     <row r="117">
-      <c r="A117" s="49" t="s">
+      <c r="A117" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="B117" s="48" t="s">
+      <c r="B117" s="49" t="s">
         <v>518</v>
       </c>
       <c r="C117" s="36" t="s">
@@ -15143,60 +15083,60 @@
       <c r="D117" s="36" t="s">
         <v>520</v>
       </c>
-      <c r="E117" s="50" t="s">
+      <c r="E117" s="51" t="s">
         <v>521</v>
       </c>
-      <c r="F117" s="50" t="s">
+      <c r="F117" s="51" t="s">
         <v>509</v>
       </c>
-      <c r="G117" s="4" t="s">
+      <c r="G117" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="H117" s="4" t="s">
+      <c r="H117" s="37" t="s">
         <v>523</v>
       </c>
-      <c r="I117" s="6" t="s">
+      <c r="I117" s="61" t="s">
         <v>71</v>
       </c>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
     </row>
     <row r="118">
-      <c r="A118" s="49" t="s">
+      <c r="A118" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="B118" s="48" t="s">
+      <c r="B118" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C118" s="36" t="s">
         <v>525</v>
       </c>
-      <c r="D118" s="62" t="s">
+      <c r="D118" s="63" t="s">
         <v>526</v>
       </c>
-      <c r="E118" s="72" t="s">
+      <c r="E118" s="71" t="s">
         <v>527</v>
       </c>
-      <c r="F118" s="72" t="s">
+      <c r="F118" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="G118" s="6" t="s">
+      <c r="G118" s="61" t="s">
         <v>528</v>
       </c>
       <c r="H118" s="32" t="s">
         <v>529</v>
       </c>
-      <c r="I118" s="6" t="s">
+      <c r="I118" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
     <row r="119">
-      <c r="A119" s="49" t="s">
+      <c r="A119" s="50" t="s">
         <v>530</v>
       </c>
-      <c r="B119" s="48" t="s">
+      <c r="B119" s="49" t="s">
         <v>531</v>
       </c>
       <c r="C119" s="36" t="s">
@@ -15205,14 +15145,14 @@
       <c r="D119" s="36" t="s">
         <v>533</v>
       </c>
-      <c r="E119" s="40" t="s">
+      <c r="E119" s="37" t="s">
         <v>534</v>
       </c>
       <c r="F119" s="4"/>
-      <c r="G119" s="4" t="s">
+      <c r="G119" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="H119" s="80" t="s">
+      <c r="H119" s="79" t="s">
         <v>536</v>
       </c>
       <c r="I119" s="6"/>
@@ -15220,26 +15160,26 @@
       <c r="K119" s="6"/>
     </row>
     <row r="120">
-      <c r="A120" s="98" t="s">
+      <c r="A120" s="96" t="s">
         <v>530</v>
       </c>
-      <c r="B120" s="99" t="s">
+      <c r="B120" s="97" t="s">
         <v>531</v>
       </c>
-      <c r="C120" s="100" t="s">
+      <c r="C120" s="98" t="s">
         <v>532</v>
       </c>
-      <c r="D120" s="100" t="s">
+      <c r="D120" s="98" t="s">
         <v>533</v>
       </c>
-      <c r="E120" s="40" t="s">
+      <c r="E120" s="37" t="s">
         <v>537</v>
       </c>
       <c r="F120" s="4"/>
-      <c r="G120" s="4" t="s">
+      <c r="G120" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="H120" s="80" t="s">
+      <c r="H120" s="79" t="s">
         <v>539</v>
       </c>
       <c r="I120" s="6"/>
@@ -15247,16 +15187,16 @@
       <c r="K120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="94" t="s">
+      <c r="A121" s="92" t="s">
         <v>540</v>
       </c>
       <c r="B121" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="C121" s="106" t="s">
+      <c r="C121" s="104" t="s">
         <v>447</v>
       </c>
-      <c r="D121" s="62"/>
+      <c r="D121" s="63"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -15266,16 +15206,16 @@
       <c r="K121" s="6"/>
     </row>
     <row r="122">
-      <c r="A122" s="49" t="s">
+      <c r="A122" s="50" t="s">
         <v>542</v>
       </c>
-      <c r="B122" s="48" t="s">
+      <c r="B122" s="49" t="s">
         <v>543</v>
       </c>
-      <c r="C122" s="106" t="s">
+      <c r="C122" s="104" t="s">
         <v>447</v>
       </c>
-      <c r="D122" s="62"/>
+      <c r="D122" s="63"/>
       <c r="E122" s="36"/>
       <c r="F122" s="36"/>
       <c r="G122" s="36"/>
@@ -15285,26 +15225,26 @@
       <c r="K122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="75" t="s">
         <v>544</v>
       </c>
       <c r="B123" s="56" t="s">
         <v>545</v>
       </c>
-      <c r="C123" s="62" t="s">
+      <c r="C123" s="63" t="s">
         <v>546</v>
       </c>
-      <c r="D123" s="62" t="s">
+      <c r="D123" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E123" s="50" t="s">
+      <c r="E123" s="51" t="s">
         <v>548</v>
       </c>
-      <c r="F123" s="50"/>
+      <c r="F123" s="36"/>
       <c r="G123" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="H123" s="96" t="s">
+      <c r="H123" s="94" t="s">
         <v>550</v>
       </c>
       <c r="I123" s="6"/>
@@ -15312,26 +15252,26 @@
       <c r="K123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="76" t="s">
+      <c r="A124" s="75" t="s">
         <v>551</v>
       </c>
       <c r="B124" s="56" t="s">
         <v>552</v>
       </c>
-      <c r="C124" s="62" t="s">
+      <c r="C124" s="63" t="s">
         <v>546</v>
       </c>
-      <c r="D124" s="62" t="s">
+      <c r="D124" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E124" s="50" t="s">
+      <c r="E124" s="51" t="s">
         <v>553</v>
       </c>
-      <c r="F124" s="50"/>
-      <c r="G124" s="4" t="s">
+      <c r="F124" s="36"/>
+      <c r="G124" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="H124" s="80" t="s">
+      <c r="H124" s="79" t="s">
         <v>554</v>
       </c>
       <c r="I124" s="6"/>
@@ -15339,24 +15279,24 @@
       <c r="K124" s="6"/>
     </row>
     <row r="125">
-      <c r="A125" s="76" t="s">
+      <c r="A125" s="75" t="s">
         <v>555</v>
       </c>
       <c r="B125" s="56" t="s">
         <v>556</v>
       </c>
-      <c r="C125" s="107" t="s">
+      <c r="C125" s="105" t="s">
         <v>557</v>
       </c>
-      <c r="D125" s="62"/>
-      <c r="E125" s="41" t="s">
+      <c r="D125" s="63"/>
+      <c r="E125" s="40" t="s">
         <v>558</v>
       </c>
-      <c r="F125" s="41"/>
-      <c r="G125" s="41" t="s">
+      <c r="F125" s="66"/>
+      <c r="G125" s="40" t="s">
         <v>559</v>
       </c>
-      <c r="H125" s="95" t="s">
+      <c r="H125" s="93" t="s">
         <v>560</v>
       </c>
       <c r="I125" s="6"/>
@@ -15364,18 +15304,18 @@
       <c r="K125" s="6"/>
     </row>
     <row r="126">
-      <c r="A126" s="94" t="s">
+      <c r="A126" s="92" t="s">
         <v>561</v>
       </c>
       <c r="B126" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="C126" s="106" t="s">
+      <c r="C126" s="104" t="s">
         <v>447</v>
       </c>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62"/>
-      <c r="F126" s="62"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="63"/>
+      <c r="F126" s="63"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
@@ -15383,20 +15323,20 @@
       <c r="K126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="76" t="s">
+      <c r="A127" s="75" t="s">
         <v>562</v>
       </c>
       <c r="B127" s="56"/>
-      <c r="C127" s="62"/>
+      <c r="C127" s="63"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="108" t="s">
+      <c r="E127" s="106" t="s">
         <v>534</v>
       </c>
-      <c r="F127" s="72"/>
+      <c r="F127" s="71"/>
       <c r="G127" s="36" t="s">
         <v>563</v>
       </c>
-      <c r="H127" s="96" t="s">
+      <c r="H127" s="94" t="s">
         <v>564</v>
       </c>
       <c r="I127" s="6"/>
@@ -15404,20 +15344,20 @@
       <c r="K127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="76" t="s">
+      <c r="A128" s="75" t="s">
         <v>562</v>
       </c>
-      <c r="B128" s="109"/>
-      <c r="C128" s="62"/>
+      <c r="B128" s="107"/>
+      <c r="C128" s="63"/>
       <c r="D128" s="6"/>
       <c r="E128" s="57" t="s">
         <v>534</v>
       </c>
-      <c r="F128" s="50"/>
+      <c r="F128" s="51"/>
       <c r="G128" s="36" t="s">
         <v>565</v>
       </c>
-      <c r="H128" s="50" t="s">
+      <c r="H128" s="51" t="s">
         <v>566</v>
       </c>
       <c r="I128" s="6"/>
@@ -15427,26 +15367,26 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="49" t="s">
+      <c r="A129" s="50" t="s">
         <v>568</v>
       </c>
-      <c r="B129" s="48" t="s">
+      <c r="B129" s="49" t="s">
         <v>569</v>
       </c>
-      <c r="C129" s="62" t="s">
+      <c r="C129" s="63" t="s">
         <v>570</v>
       </c>
-      <c r="D129" s="62" t="s">
+      <c r="D129" s="63" t="s">
         <v>571</v>
       </c>
-      <c r="E129" s="50" t="s">
+      <c r="E129" s="51" t="s">
         <v>572</v>
       </c>
-      <c r="F129" s="50"/>
-      <c r="G129" s="40" t="s">
+      <c r="F129" s="36"/>
+      <c r="G129" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="H129" s="40" t="s">
+      <c r="H129" s="37" t="s">
         <v>574</v>
       </c>
       <c r="I129" s="6"/>
@@ -15454,66 +15394,66 @@
       <c r="K129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="49" t="s">
+      <c r="A130" s="50" t="s">
         <v>575</v>
       </c>
-      <c r="B130" s="48" t="s">
+      <c r="B130" s="49" t="s">
         <v>576</v>
       </c>
-      <c r="C130" s="110"/>
-      <c r="D130" s="110"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
       <c r="E130" s="57" t="s">
         <v>534</v>
       </c>
-      <c r="F130" s="111"/>
-      <c r="G130" s="50" t="s">
+      <c r="F130" s="4"/>
+      <c r="G130" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="H130" s="112" t="s">
+      <c r="H130" s="79" t="s">
         <v>578</v>
       </c>
-      <c r="I130" s="6" t="s">
+      <c r="I130" s="61" t="s">
         <v>579</v>
       </c>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
     </row>
     <row r="131">
-      <c r="A131" s="76" t="s">
+      <c r="A131" s="75" t="s">
         <v>580</v>
       </c>
       <c r="B131" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="C131" s="71"/>
-      <c r="D131" s="71"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
-      <c r="K131" s="6" t="s">
+      <c r="K131" s="63" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="76" t="s">
+      <c r="A132" s="75" t="s">
         <v>581</v>
       </c>
       <c r="B132" s="56" t="s">
         <v>582</v>
       </c>
-      <c r="C132" s="62" t="s">
+      <c r="C132" s="63" t="s">
         <v>583</v>
       </c>
-      <c r="D132" s="62" t="s">
+      <c r="D132" s="63" t="s">
         <v>584</v>
       </c>
-      <c r="E132" s="50" t="s">
+      <c r="E132" s="51" t="s">
         <v>585</v>
       </c>
-      <c r="F132" s="50"/>
+      <c r="F132" s="36"/>
       <c r="G132" s="36" t="s">
         <v>586</v>
       </c>
@@ -15525,22 +15465,22 @@
       <c r="K132" s="6"/>
     </row>
     <row r="133">
-      <c r="A133" s="76" t="s">
+      <c r="A133" s="75" t="s">
         <v>588</v>
       </c>
       <c r="B133" s="56" t="s">
         <v>589</v>
       </c>
-      <c r="C133" s="62"/>
-      <c r="D133" s="62"/>
-      <c r="E133" s="50" t="s">
+      <c r="C133" s="63"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="51" t="s">
         <v>590</v>
       </c>
-      <c r="F133" s="50"/>
-      <c r="G133" s="4" t="s">
+      <c r="F133" s="36"/>
+      <c r="G133" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="H133" s="40" t="s">
+      <c r="H133" s="37" t="s">
         <v>592</v>
       </c>
       <c r="I133" s="6"/>
@@ -15548,22 +15488,22 @@
       <c r="K133" s="6"/>
     </row>
     <row r="134">
-      <c r="A134" s="76" t="s">
+      <c r="A134" s="75" t="s">
         <v>593</v>
       </c>
       <c r="B134" s="56" t="s">
         <v>594</v>
       </c>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="50" t="s">
+      <c r="C134" s="63"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="F134" s="50"/>
-      <c r="G134" s="4" t="s">
+      <c r="F134" s="36"/>
+      <c r="G134" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="H134" s="40" t="s">
+      <c r="H134" s="37" t="s">
         <v>596</v>
       </c>
       <c r="I134" s="6"/>
@@ -15571,22 +15511,22 @@
       <c r="K134" s="6"/>
     </row>
     <row r="135">
-      <c r="A135" s="76" t="s">
+      <c r="A135" s="75" t="s">
         <v>597</v>
       </c>
       <c r="B135" s="56" t="s">
         <v>598</v>
       </c>
-      <c r="C135" s="62"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="50" t="s">
+      <c r="C135" s="63"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="51" t="s">
         <v>599</v>
       </c>
-      <c r="F135" s="50"/>
-      <c r="G135" s="4" t="s">
+      <c r="F135" s="36"/>
+      <c r="G135" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="H135" s="40" t="s">
+      <c r="H135" s="37" t="s">
         <v>600</v>
       </c>
       <c r="I135" s="6"/>
@@ -15594,22 +15534,22 @@
       <c r="K135" s="6"/>
     </row>
     <row r="136">
-      <c r="A136" s="76" t="s">
+      <c r="A136" s="75" t="s">
         <v>601</v>
       </c>
       <c r="B136" s="56" t="s">
         <v>602</v>
       </c>
-      <c r="C136" s="62"/>
-      <c r="D136" s="62"/>
-      <c r="E136" s="50" t="s">
+      <c r="C136" s="63"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="51" t="s">
         <v>603</v>
       </c>
-      <c r="F136" s="50"/>
-      <c r="G136" s="4" t="s">
+      <c r="F136" s="36"/>
+      <c r="G136" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="H136" s="4" t="s">
+      <c r="H136" s="37" t="s">
         <v>604</v>
       </c>
       <c r="I136" s="6"/>
@@ -15617,24 +15557,24 @@
       <c r="K136" s="6"/>
     </row>
     <row r="137">
-      <c r="A137" s="76" t="s">
+      <c r="A137" s="75" t="s">
         <v>605</v>
       </c>
       <c r="B137" s="56" t="s">
         <v>606</v>
       </c>
-      <c r="C137" s="113" t="s">
+      <c r="C137" s="108" t="s">
         <v>607</v>
       </c>
-      <c r="D137" s="62"/>
-      <c r="E137" s="50" t="s">
+      <c r="D137" s="63"/>
+      <c r="E137" s="51" t="s">
         <v>608</v>
       </c>
-      <c r="F137" s="40"/>
+      <c r="F137" s="4"/>
       <c r="G137" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H137" s="50" t="s">
+      <c r="H137" s="51" t="s">
         <v>152</v>
       </c>
       <c r="I137" s="6"/>
@@ -15642,17 +15582,17 @@
       <c r="K137" s="6"/>
     </row>
     <row r="138">
-      <c r="A138" s="49" t="s">
+      <c r="A138" s="50" t="s">
         <v>609</v>
       </c>
-      <c r="B138" s="48" t="s">
+      <c r="B138" s="49" t="s">
         <v>610</v>
       </c>
-      <c r="C138" s="106" t="s">
+      <c r="C138" s="104" t="s">
         <v>447</v>
       </c>
-      <c r="D138" s="62"/>
-      <c r="E138" s="40"/>
+      <c r="D138" s="63"/>
+      <c r="E138" s="37"/>
       <c r="F138" s="36"/>
       <c r="G138" s="36"/>
       <c r="H138" s="36"/>
@@ -15661,55 +15601,55 @@
       <c r="K138" s="6"/>
     </row>
     <row r="139">
-      <c r="A139" s="76" t="s">
+      <c r="A139" s="75" t="s">
         <v>611</v>
       </c>
       <c r="B139" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="C139" s="71"/>
-      <c r="D139" s="71"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="70"/>
-      <c r="H139" s="70"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
-      <c r="K139" s="6" t="s">
+      <c r="K139" s="63" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="76" t="s">
+      <c r="A140" s="75" t="s">
         <v>612</v>
       </c>
       <c r="B140" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C140" s="62" t="s">
+      <c r="C140" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D140" s="62" t="s">
+      <c r="D140" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E140" s="50" t="s">
+      <c r="E140" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="F140" s="50"/>
+      <c r="F140" s="36"/>
       <c r="G140" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H140" s="44" t="s">
+      <c r="H140" s="43" t="s">
         <v>614</v>
       </c>
-      <c r="I140" s="6" t="s">
+      <c r="I140" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
     </row>
     <row r="141">
-      <c r="A141" s="76" t="s">
+      <c r="A141" s="75" t="s">
         <v>615</v>
       </c>
       <c r="B141" s="56" t="s">
@@ -15718,46 +15658,46 @@
       <c r="C141" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D141" s="62" t="s">
+      <c r="D141" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="E141" s="50" t="s">
+      <c r="E141" s="51" t="s">
         <v>616</v>
       </c>
-      <c r="F141" s="50"/>
-      <c r="G141" s="46" t="s">
+      <c r="F141" s="36"/>
+      <c r="G141" s="47" t="s">
         <v>69</v>
       </c>
       <c r="H141" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="I141" s="6" t="s">
+      <c r="I141" s="61" t="s">
         <v>71</v>
       </c>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
     </row>
     <row r="142">
-      <c r="A142" s="76" t="s">
+      <c r="A142" s="75" t="s">
         <v>618</v>
       </c>
       <c r="B142" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C142" s="62" t="s">
+      <c r="C142" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D142" s="62" t="s">
+      <c r="D142" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E142" s="50" t="s">
+      <c r="E142" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="F142" s="72"/>
-      <c r="G142" s="4" t="s">
+      <c r="F142" s="63"/>
+      <c r="G142" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H142" s="40" t="s">
+      <c r="H142" s="37" t="s">
         <v>620</v>
       </c>
       <c r="I142" s="6"/>
@@ -15765,26 +15705,26 @@
       <c r="K142" s="6"/>
     </row>
     <row r="143">
-      <c r="A143" s="76" t="s">
+      <c r="A143" s="75" t="s">
         <v>621</v>
       </c>
       <c r="B143" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C143" s="62" t="s">
+      <c r="C143" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D143" s="62" t="s">
+      <c r="D143" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E143" s="50" t="s">
+      <c r="E143" s="51" t="s">
         <v>622</v>
       </c>
-      <c r="F143" s="50"/>
-      <c r="G143" s="4" t="s">
+      <c r="F143" s="36"/>
+      <c r="G143" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H143" s="40" t="s">
+      <c r="H143" s="37" t="s">
         <v>623</v>
       </c>
       <c r="I143" s="6"/>
@@ -15792,28 +15732,28 @@
       <c r="K143" s="6"/>
     </row>
     <row r="144">
-      <c r="A144" s="76" t="s">
+      <c r="A144" s="75" t="s">
         <v>624</v>
       </c>
       <c r="B144" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C144" s="62" t="s">
+      <c r="C144" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D144" s="62" t="s">
+      <c r="D144" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E144" s="40" t="s">
+      <c r="E144" s="37" t="s">
         <v>625</v>
       </c>
-      <c r="F144" s="40" t="s">
+      <c r="F144" s="37" t="s">
         <v>626</v>
       </c>
       <c r="G144" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H144" s="50" t="s">
+      <c r="H144" s="51" t="s">
         <v>627</v>
       </c>
       <c r="I144" s="6"/>
@@ -15821,26 +15761,26 @@
       <c r="K144" s="6"/>
     </row>
     <row r="145">
-      <c r="A145" s="76" t="s">
+      <c r="A145" s="75" t="s">
         <v>628</v>
       </c>
       <c r="B145" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C145" s="62" t="s">
+      <c r="C145" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D145" s="62" t="s">
+      <c r="D145" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E145" s="50" t="s">
+      <c r="E145" s="51" t="s">
         <v>630</v>
       </c>
-      <c r="F145" s="50"/>
-      <c r="G145" s="4" t="s">
+      <c r="F145" s="36"/>
+      <c r="G145" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="H145" s="40" t="s">
+      <c r="H145" s="37" t="s">
         <v>631</v>
       </c>
       <c r="I145" s="6"/>
@@ -15848,26 +15788,26 @@
       <c r="K145" s="6"/>
     </row>
     <row r="146">
-      <c r="A146" s="76" t="s">
+      <c r="A146" s="75" t="s">
         <v>632</v>
       </c>
       <c r="B146" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C146" s="62" t="s">
+      <c r="C146" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D146" s="62" t="s">
+      <c r="D146" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="E146" s="50" t="s">
+      <c r="E146" s="51" t="s">
         <v>633</v>
       </c>
-      <c r="F146" s="50"/>
+      <c r="F146" s="36"/>
       <c r="G146" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="H146" s="44" t="s">
+      <c r="H146" s="43" t="s">
         <v>634</v>
       </c>
       <c r="I146" s="6"/>
@@ -15875,26 +15815,26 @@
       <c r="K146" s="6"/>
     </row>
     <row r="147">
-      <c r="A147" s="76" t="s">
+      <c r="A147" s="75" t="s">
         <v>635</v>
       </c>
       <c r="B147" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C147" s="62" t="s">
+      <c r="C147" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D147" s="62" t="s">
+      <c r="D147" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="E147" s="50" t="s">
+      <c r="E147" s="51" t="s">
         <v>636</v>
       </c>
-      <c r="F147" s="50"/>
-      <c r="G147" s="50" t="s">
+      <c r="F147" s="36"/>
+      <c r="G147" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="H147" s="50" t="s">
+      <c r="H147" s="51" t="s">
         <v>638</v>
       </c>
       <c r="I147" s="6"/>
@@ -15902,26 +15842,26 @@
       <c r="K147" s="6"/>
     </row>
     <row r="148">
-      <c r="A148" s="76" t="s">
+      <c r="A148" s="75" t="s">
         <v>639</v>
       </c>
       <c r="B148" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C148" s="62" t="s">
+      <c r="C148" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D148" s="62" t="s">
+      <c r="D148" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E148" s="50" t="s">
+      <c r="E148" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="F148" s="50"/>
-      <c r="G148" s="50" t="s">
+      <c r="F148" s="36"/>
+      <c r="G148" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="H148" s="50" t="s">
+      <c r="H148" s="51" t="s">
         <v>642</v>
       </c>
       <c r="I148" s="6"/>
@@ -15929,23 +15869,23 @@
       <c r="K148" s="6"/>
     </row>
     <row r="149">
-      <c r="A149" s="76" t="s">
+      <c r="A149" s="75" t="s">
         <v>643</v>
       </c>
       <c r="B149" s="56" t="s">
         <v>644</v>
       </c>
-      <c r="C149" s="62" t="s">
+      <c r="C149" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D149" s="62" t="s">
+      <c r="D149" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="E149" s="50" t="s">
+      <c r="E149" s="51" t="s">
         <v>645</v>
       </c>
-      <c r="F149" s="50"/>
-      <c r="G149" s="46" t="s">
+      <c r="F149" s="36"/>
+      <c r="G149" s="47" t="s">
         <v>637</v>
       </c>
       <c r="H149" s="46" t="s">
@@ -15956,7 +15896,7 @@
       <c r="K149" s="6"/>
     </row>
     <row r="150">
-      <c r="A150" s="76" t="s">
+      <c r="A150" s="75" t="s">
         <v>647</v>
       </c>
       <c r="B150" s="56" t="s">
@@ -15965,17 +15905,17 @@
       <c r="C150" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="D150" s="62" t="s">
+      <c r="D150" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="E150" s="50" t="s">
+      <c r="E150" s="51" t="s">
         <v>648</v>
       </c>
-      <c r="F150" s="50"/>
-      <c r="G150" s="50" t="s">
+      <c r="F150" s="36"/>
+      <c r="G150" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="H150" s="96" t="s">
+      <c r="H150" s="94" t="s">
         <v>649</v>
       </c>
       <c r="I150" s="6"/>
@@ -15983,26 +15923,26 @@
       <c r="K150" s="6"/>
     </row>
     <row r="151">
-      <c r="A151" s="76" t="s">
+      <c r="A151" s="75" t="s">
         <v>650</v>
       </c>
       <c r="B151" s="56" t="s">
         <v>651</v>
       </c>
-      <c r="C151" s="62" t="s">
+      <c r="C151" s="63" t="s">
         <v>652</v>
       </c>
-      <c r="D151" s="62" t="s">
+      <c r="D151" s="63" t="s">
         <v>653</v>
       </c>
-      <c r="E151" s="50" t="s">
+      <c r="E151" s="51" t="s">
         <v>654</v>
       </c>
-      <c r="F151" s="40"/>
-      <c r="G151" s="4" t="s">
+      <c r="F151" s="37"/>
+      <c r="G151" s="37" t="s">
         <v>655</v>
       </c>
-      <c r="H151" s="114" t="s">
+      <c r="H151" s="109" t="s">
         <v>656</v>
       </c>
       <c r="I151" s="6"/>
@@ -16012,12 +15952,12 @@
     <row r="152">
       <c r="A152" s="18"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="62"/>
-      <c r="D152" s="62"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="63"/>
       <c r="E152" s="57" t="s">
         <v>654</v>
       </c>
-      <c r="F152" s="40"/>
+      <c r="F152" s="37"/>
       <c r="G152" s="44" t="s">
         <v>657</v>
       </c>
@@ -16029,64 +15969,64 @@
       <c r="K152" s="6"/>
     </row>
     <row r="153">
-      <c r="A153" s="49" t="s">
+      <c r="A153" s="50" t="s">
         <v>659</v>
       </c>
-      <c r="B153" s="48" t="s">
+      <c r="B153" s="49" t="s">
         <v>660</v>
       </c>
-      <c r="C153" s="106" t="s">
+      <c r="C153" s="104" t="s">
         <v>447</v>
       </c>
-      <c r="D153" s="62"/>
+      <c r="D153" s="63"/>
       <c r="E153" s="36"/>
       <c r="F153" s="36"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
+      <c r="G153" s="37"/>
+      <c r="H153" s="37"/>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
     </row>
     <row r="154">
-      <c r="A154" s="76" t="s">
+      <c r="A154" s="75" t="s">
         <v>661</v>
       </c>
       <c r="B154" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="C154" s="71"/>
-      <c r="D154" s="71"/>
-      <c r="E154" s="70"/>
-      <c r="F154" s="70"/>
-      <c r="G154" s="70"/>
-      <c r="H154" s="70"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
-      <c r="K154" s="6" t="s">
+      <c r="K154" s="63" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="76" t="s">
+      <c r="A155" s="75" t="s">
         <v>662</v>
       </c>
       <c r="B155" s="56" t="s">
         <v>663</v>
       </c>
-      <c r="C155" s="62" t="s">
+      <c r="C155" s="63" t="s">
         <v>664</v>
       </c>
-      <c r="D155" s="62" t="s">
+      <c r="D155" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="E155" s="50" t="s">
+      <c r="E155" s="51" t="s">
         <v>665</v>
       </c>
-      <c r="F155" s="50"/>
+      <c r="F155" s="36"/>
       <c r="G155" s="36" t="s">
         <v>666</v>
       </c>
-      <c r="H155" s="96" t="s">
+      <c r="H155" s="94" t="s">
         <v>667</v>
       </c>
       <c r="I155" s="6"/>
@@ -16094,24 +16034,24 @@
       <c r="K155" s="6"/>
     </row>
     <row r="156">
-      <c r="A156" s="78" t="s">
+      <c r="A156" s="77" t="s">
         <v>668</v>
       </c>
-      <c r="B156" s="79" t="s">
+      <c r="B156" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C156" s="115" t="s">
+      <c r="C156" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="D156" s="62"/>
-      <c r="E156" s="72" t="s">
+      <c r="D156" s="63"/>
+      <c r="E156" s="71" t="s">
         <v>670</v>
       </c>
-      <c r="F156" s="72"/>
+      <c r="F156" s="63"/>
       <c r="G156" s="36" t="s">
         <v>671</v>
       </c>
-      <c r="H156" s="96" t="s">
+      <c r="H156" s="94" t="s">
         <v>672</v>
       </c>
       <c r="I156" s="6"/>
@@ -16119,26 +16059,26 @@
       <c r="K156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="76" t="s">
+      <c r="A157" s="75" t="s">
         <v>673</v>
       </c>
       <c r="B157" s="56" t="s">
         <v>674</v>
       </c>
-      <c r="C157" s="62" t="s">
+      <c r="C157" s="63" t="s">
         <v>675</v>
       </c>
-      <c r="D157" s="62" t="s">
+      <c r="D157" s="63" t="s">
         <v>676</v>
       </c>
-      <c r="E157" s="50" t="s">
+      <c r="E157" s="51" t="s">
         <v>677</v>
       </c>
-      <c r="F157" s="50"/>
-      <c r="G157" s="4" t="s">
+      <c r="F157" s="36"/>
+      <c r="G157" s="37" t="s">
         <v>678</v>
       </c>
-      <c r="H157" s="80" t="s">
+      <c r="H157" s="79" t="s">
         <v>679</v>
       </c>
       <c r="I157" s="6"/>
@@ -16146,24 +16086,24 @@
       <c r="K157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="78" t="s">
+      <c r="A158" s="77" t="s">
         <v>680</v>
       </c>
-      <c r="B158" s="79" t="s">
+      <c r="B158" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C158" s="115" t="s">
+      <c r="C158" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="D158" s="62"/>
-      <c r="E158" s="50" t="s">
+      <c r="D158" s="63"/>
+      <c r="E158" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="F158" s="50"/>
-      <c r="G158" s="4" t="s">
+      <c r="F158" s="36"/>
+      <c r="G158" s="37" t="s">
         <v>682</v>
       </c>
-      <c r="H158" s="40" t="s">
+      <c r="H158" s="37" t="s">
         <v>683</v>
       </c>
       <c r="I158" s="6"/>
@@ -16171,26 +16111,26 @@
       <c r="K158" s="6"/>
     </row>
     <row r="159">
-      <c r="A159" s="76" t="s">
+      <c r="A159" s="75" t="s">
         <v>684</v>
       </c>
       <c r="B159" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="C159" s="62" t="s">
+      <c r="C159" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="D159" s="62" t="s">
+      <c r="D159" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="E159" s="50" t="s">
+      <c r="E159" s="51" t="s">
         <v>685</v>
       </c>
-      <c r="F159" s="50"/>
+      <c r="F159" s="36"/>
       <c r="G159" s="36" t="s">
         <v>686</v>
       </c>
-      <c r="H159" s="50" t="s">
+      <c r="H159" s="51" t="s">
         <v>687</v>
       </c>
       <c r="I159" s="6"/>
@@ -16198,24 +16138,24 @@
       <c r="K159" s="6"/>
     </row>
     <row r="160">
-      <c r="A160" s="78" t="s">
+      <c r="A160" s="77" t="s">
         <v>688</v>
       </c>
-      <c r="B160" s="79" t="s">
+      <c r="B160" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C160" s="115" t="s">
+      <c r="C160" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="D160" s="62"/>
-      <c r="E160" s="50" t="s">
+      <c r="D160" s="63"/>
+      <c r="E160" s="51" t="s">
         <v>689</v>
       </c>
-      <c r="F160" s="50"/>
+      <c r="F160" s="36"/>
       <c r="G160" s="36" t="s">
         <v>690</v>
       </c>
-      <c r="H160" s="50" t="s">
+      <c r="H160" s="51" t="s">
         <v>691</v>
       </c>
       <c r="I160" s="6"/>
@@ -16223,26 +16163,26 @@
       <c r="K160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="76" t="s">
+      <c r="A161" s="75" t="s">
         <v>692</v>
       </c>
       <c r="B161" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="C161" s="62" t="s">
+      <c r="C161" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="D161" s="62" t="s">
+      <c r="D161" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="E161" s="50" t="s">
+      <c r="E161" s="51" t="s">
         <v>693</v>
       </c>
-      <c r="F161" s="50"/>
+      <c r="F161" s="36"/>
       <c r="G161" s="36" t="s">
         <v>686</v>
       </c>
-      <c r="H161" s="50" t="s">
+      <c r="H161" s="51" t="s">
         <v>694</v>
       </c>
       <c r="I161" s="6"/>
@@ -16250,24 +16190,24 @@
       <c r="K161" s="6"/>
     </row>
     <row r="162">
-      <c r="A162" s="78" t="s">
+      <c r="A162" s="77" t="s">
         <v>695</v>
       </c>
-      <c r="B162" s="79" t="s">
+      <c r="B162" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C162" s="115" t="s">
+      <c r="C162" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="D162" s="62"/>
+      <c r="D162" s="63"/>
       <c r="E162" s="57" t="s">
         <v>689</v>
       </c>
-      <c r="F162" s="50"/>
+      <c r="F162" s="36"/>
       <c r="G162" s="36" t="s">
         <v>690</v>
       </c>
-      <c r="H162" s="50" t="s">
+      <c r="H162" s="51" t="s">
         <v>696</v>
       </c>
       <c r="I162" s="6"/>
@@ -16275,18 +16215,18 @@
       <c r="K162" s="6"/>
     </row>
     <row r="163">
-      <c r="A163" s="49" t="s">
+      <c r="A163" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="B163" s="48" t="s">
+      <c r="B163" s="49" t="s">
         <v>698</v>
       </c>
-      <c r="C163" s="106" t="s">
+      <c r="C163" s="104" t="s">
         <v>447</v>
       </c>
-      <c r="D163" s="62"/>
-      <c r="E163" s="62"/>
-      <c r="F163" s="62"/>
+      <c r="D163" s="63"/>
+      <c r="E163" s="63"/>
+      <c r="F163" s="63"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
@@ -16294,26 +16234,26 @@
       <c r="K163" s="6"/>
     </row>
     <row r="164">
-      <c r="A164" s="76" t="s">
+      <c r="A164" s="75" t="s">
         <v>699</v>
       </c>
       <c r="B164" s="56" t="s">
         <v>700</v>
       </c>
-      <c r="C164" s="62" t="s">
+      <c r="C164" s="63" t="s">
         <v>701</v>
       </c>
-      <c r="D164" s="62" t="s">
+      <c r="D164" s="63" t="s">
         <v>702</v>
       </c>
-      <c r="E164" s="50" t="s">
+      <c r="E164" s="51" t="s">
         <v>703</v>
       </c>
-      <c r="F164" s="50"/>
-      <c r="G164" s="50" t="s">
+      <c r="F164" s="36"/>
+      <c r="G164" s="51" t="s">
         <v>704</v>
       </c>
-      <c r="H164" s="73" t="s">
+      <c r="H164" s="72" t="s">
         <v>705</v>
       </c>
       <c r="I164" s="6"/>
@@ -16321,7 +16261,7 @@
       <c r="K164" s="6"/>
     </row>
     <row r="165">
-      <c r="A165" s="76" t="s">
+      <c r="A165" s="75" t="s">
         <v>706</v>
       </c>
       <c r="B165" s="56" t="s">
@@ -16338,26 +16278,26 @@
       <c r="K165" s="6"/>
     </row>
     <row r="166">
-      <c r="A166" s="76" t="s">
+      <c r="A166" s="75" t="s">
         <v>708</v>
       </c>
       <c r="B166" s="56" t="s">
         <v>709</v>
       </c>
-      <c r="C166" s="50" t="s">
+      <c r="C166" s="51" t="s">
         <v>710</v>
       </c>
-      <c r="D166" s="50" t="s">
+      <c r="D166" s="51" t="s">
         <v>711</v>
       </c>
-      <c r="E166" s="50" t="s">
+      <c r="E166" s="51" t="s">
         <v>712</v>
       </c>
-      <c r="F166" s="50"/>
+      <c r="F166" s="36"/>
       <c r="G166" s="36" t="s">
         <v>713</v>
       </c>
-      <c r="H166" s="50" t="s">
+      <c r="H166" s="51" t="s">
         <v>714</v>
       </c>
       <c r="I166" s="6"/>
@@ -16365,21 +16305,21 @@
       <c r="K166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="76" t="s">
+      <c r="A167" s="75" t="s">
         <v>715</v>
       </c>
       <c r="B167" s="56" t="s">
         <v>282</v>
       </c>
-      <c r="C167" s="115" t="s">
+      <c r="C167" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="D167" s="62"/>
-      <c r="E167" s="50" t="s">
+      <c r="D167" s="63"/>
+      <c r="E167" s="51" t="s">
         <v>716</v>
       </c>
-      <c r="F167" s="50"/>
-      <c r="G167" s="50" t="s">
+      <c r="F167" s="36"/>
+      <c r="G167" s="51" t="s">
         <v>717</v>
       </c>
       <c r="H167" s="36" t="s">
@@ -16390,26 +16330,26 @@
       <c r="K167" s="6"/>
     </row>
     <row r="168">
-      <c r="A168" s="76" t="s">
+      <c r="A168" s="75" t="s">
         <v>719</v>
       </c>
       <c r="B168" s="56" t="s">
         <v>720</v>
       </c>
-      <c r="C168" s="62" t="s">
+      <c r="C168" s="63" t="s">
         <v>721</v>
       </c>
-      <c r="D168" s="62" t="s">
+      <c r="D168" s="63" t="s">
         <v>722</v>
       </c>
-      <c r="E168" s="116" t="s">
+      <c r="E168" s="111" t="s">
         <v>723</v>
       </c>
-      <c r="F168" s="116"/>
-      <c r="G168" s="50" t="s">
+      <c r="F168" s="112"/>
+      <c r="G168" s="51" t="s">
         <v>724</v>
       </c>
-      <c r="H168" s="50" t="s">
+      <c r="H168" s="51" t="s">
         <v>725</v>
       </c>
       <c r="I168" s="6"/>
@@ -16417,68 +16357,68 @@
       <c r="K168" s="6"/>
     </row>
     <row r="169">
-      <c r="A169" s="76" t="s">
+      <c r="A169" s="75" t="s">
         <v>726</v>
       </c>
       <c r="B169" s="56" t="s">
         <v>727</v>
       </c>
-      <c r="C169" s="62" t="s">
+      <c r="C169" s="63" t="s">
         <v>728</v>
       </c>
-      <c r="D169" s="62" t="s">
+      <c r="D169" s="63" t="s">
         <v>729</v>
       </c>
-      <c r="E169" s="116" t="s">
+      <c r="E169" s="111" t="s">
         <v>730</v>
       </c>
-      <c r="F169" s="116"/>
-      <c r="G169" s="50" t="s">
+      <c r="F169" s="112"/>
+      <c r="G169" s="51" t="s">
         <v>731</v>
       </c>
-      <c r="H169" s="50" t="s">
+      <c r="H169" s="51" t="s">
         <v>732</v>
       </c>
-      <c r="I169" s="6" t="s">
+      <c r="I169" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
     </row>
     <row r="170">
-      <c r="A170" s="49" t="s">
+      <c r="A170" s="50" t="s">
         <v>733</v>
       </c>
-      <c r="B170" s="48" t="s">
+      <c r="B170" s="49" t="s">
         <v>734</v>
       </c>
-      <c r="C170" s="71"/>
-      <c r="D170" s="71"/>
-      <c r="E170" s="117"/>
-      <c r="F170" s="117"/>
-      <c r="G170" s="71"/>
-      <c r="H170" s="71"/>
+      <c r="C170" s="113"/>
+      <c r="D170" s="113"/>
+      <c r="E170" s="114"/>
+      <c r="F170" s="114"/>
+      <c r="G170" s="113"/>
+      <c r="H170" s="113"/>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
     </row>
     <row r="171">
-      <c r="A171" s="76" t="s">
+      <c r="A171" s="75" t="s">
         <v>735</v>
       </c>
       <c r="B171" s="56" t="s">
         <v>709</v>
       </c>
-      <c r="C171" s="71"/>
-      <c r="D171" s="70"/>
-      <c r="E171" s="118" t="s">
+      <c r="C171" s="113"/>
+      <c r="D171" s="115"/>
+      <c r="E171" s="116" t="s">
         <v>736</v>
       </c>
-      <c r="F171" s="118"/>
-      <c r="G171" s="70" t="s">
+      <c r="F171" s="114"/>
+      <c r="G171" s="115" t="s">
         <v>678</v>
       </c>
-      <c r="H171" s="119" t="s">
+      <c r="H171" s="117" t="s">
         <v>737</v>
       </c>
       <c r="I171" s="6"/>
@@ -16486,22 +16426,22 @@
       <c r="K171" s="6"/>
     </row>
     <row r="172">
-      <c r="A172" s="76" t="s">
+      <c r="A172" s="75" t="s">
         <v>738</v>
       </c>
       <c r="B172" s="56" t="s">
         <v>282</v>
       </c>
-      <c r="C172" s="71"/>
-      <c r="D172" s="71"/>
-      <c r="E172" s="118" t="s">
+      <c r="C172" s="113"/>
+      <c r="D172" s="113"/>
+      <c r="E172" s="116" t="s">
         <v>739</v>
       </c>
-      <c r="F172" s="118"/>
-      <c r="G172" s="71" t="s">
+      <c r="F172" s="114"/>
+      <c r="G172" s="113" t="s">
         <v>740</v>
       </c>
-      <c r="H172" s="120" t="s">
+      <c r="H172" s="118" t="s">
         <v>741</v>
       </c>
       <c r="I172" s="6"/>
@@ -16509,102 +16449,102 @@
       <c r="K172" s="6"/>
     </row>
     <row r="173">
-      <c r="A173" s="49" t="s">
+      <c r="A173" s="50" t="s">
         <v>742</v>
       </c>
-      <c r="B173" s="48" t="s">
+      <c r="B173" s="49" t="s">
         <v>743</v>
       </c>
-      <c r="C173" s="71"/>
-      <c r="D173" s="71"/>
-      <c r="E173" s="117" t="s">
+      <c r="C173" s="113"/>
+      <c r="D173" s="113"/>
+      <c r="E173" s="114" t="s">
         <v>744</v>
       </c>
-      <c r="F173" s="117"/>
-      <c r="G173" s="70"/>
-      <c r="H173" s="70"/>
+      <c r="F173" s="114"/>
+      <c r="G173" s="115"/>
+      <c r="H173" s="115"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
-      <c r="K173" s="121" t="s">
+      <c r="K173" s="119" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="76" t="s">
+      <c r="A174" s="75" t="s">
         <v>746</v>
       </c>
       <c r="B174" s="56" t="s">
         <v>747</v>
       </c>
-      <c r="C174" s="71"/>
-      <c r="D174" s="71"/>
-      <c r="E174" s="117"/>
-      <c r="F174" s="117"/>
-      <c r="G174" s="70"/>
-      <c r="H174" s="70"/>
+      <c r="C174" s="113"/>
+      <c r="D174" s="113"/>
+      <c r="E174" s="114"/>
+      <c r="F174" s="114"/>
+      <c r="G174" s="115"/>
+      <c r="H174" s="115"/>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
-      <c r="K174" s="6" t="s">
+      <c r="K174" s="63" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="49" t="s">
+      <c r="A175" s="50" t="s">
         <v>748</v>
       </c>
-      <c r="B175" s="48" t="s">
+      <c r="B175" s="49" t="s">
         <v>749</v>
       </c>
-      <c r="C175" s="71"/>
-      <c r="D175" s="71"/>
-      <c r="E175" s="70"/>
-      <c r="F175" s="70"/>
-      <c r="G175" s="70"/>
-      <c r="H175" s="70"/>
+      <c r="C175" s="113"/>
+      <c r="D175" s="113"/>
+      <c r="E175" s="115"/>
+      <c r="F175" s="115"/>
+      <c r="G175" s="115"/>
+      <c r="H175" s="115"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
-      <c r="K175" s="121" t="s">
+      <c r="K175" s="119" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="76" t="s">
+      <c r="A176" s="75" t="s">
         <v>750</v>
       </c>
       <c r="B176" s="56" t="s">
         <v>747</v>
       </c>
-      <c r="C176" s="71"/>
-      <c r="D176" s="71"/>
-      <c r="E176" s="117"/>
-      <c r="F176" s="117"/>
-      <c r="G176" s="70"/>
-      <c r="H176" s="70"/>
+      <c r="C176" s="113"/>
+      <c r="D176" s="113"/>
+      <c r="E176" s="114"/>
+      <c r="F176" s="114"/>
+      <c r="G176" s="115"/>
+      <c r="H176" s="115"/>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
-      <c r="K176" s="6" t="s">
+      <c r="K176" s="63" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="76" t="s">
+      <c r="A177" s="75" t="s">
         <v>751</v>
       </c>
       <c r="B177" s="56" t="s">
         <v>752</v>
       </c>
-      <c r="C177" s="71"/>
-      <c r="D177" s="71"/>
-      <c r="E177" s="117" t="s">
+      <c r="C177" s="113"/>
+      <c r="D177" s="113"/>
+      <c r="E177" s="114" t="s">
         <v>753</v>
       </c>
-      <c r="F177" s="117" t="s">
+      <c r="F177" s="114" t="s">
         <v>754</v>
       </c>
-      <c r="G177" s="70" t="s">
+      <c r="G177" s="115" t="s">
         <v>755</v>
       </c>
-      <c r="H177" s="122" t="s">
+      <c r="H177" s="120" t="s">
         <v>756</v>
       </c>
       <c r="I177" s="6"/>
@@ -16612,47 +16552,47 @@
       <c r="K177" s="6"/>
     </row>
     <row r="178">
-      <c r="A178" s="76" t="s">
+      <c r="A178" s="75" t="s">
         <v>757</v>
       </c>
       <c r="B178" s="56" t="s">
         <v>758</v>
       </c>
-      <c r="C178" s="71"/>
-      <c r="D178" s="71"/>
-      <c r="E178" s="117" t="s">
+      <c r="C178" s="113"/>
+      <c r="D178" s="113"/>
+      <c r="E178" s="114" t="s">
         <v>759</v>
       </c>
-      <c r="F178" s="117"/>
-      <c r="G178" s="70"/>
-      <c r="H178" s="70"/>
+      <c r="F178" s="114"/>
+      <c r="G178" s="115"/>
+      <c r="H178" s="115"/>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
     </row>
     <row r="179">
-      <c r="A179" s="78" t="s">
+      <c r="A179" s="77" t="s">
         <v>760</v>
       </c>
-      <c r="B179" s="79" t="s">
+      <c r="B179" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C179" s="70" t="s">
+      <c r="C179" s="115" t="s">
         <v>761</v>
       </c>
-      <c r="D179" s="71" t="s">
+      <c r="D179" s="113" t="s">
         <v>762</v>
       </c>
-      <c r="E179" s="118" t="s">
+      <c r="E179" s="116" t="s">
         <v>763</v>
       </c>
-      <c r="F179" s="117" t="s">
+      <c r="F179" s="114" t="s">
         <v>754</v>
       </c>
-      <c r="G179" s="70" t="s">
+      <c r="G179" s="115" t="s">
         <v>755</v>
       </c>
-      <c r="H179" s="70" t="s">
+      <c r="H179" s="115" t="s">
         <v>764</v>
       </c>
       <c r="I179" s="6"/>
@@ -16660,99 +16600,99 @@
       <c r="K179" s="6"/>
     </row>
     <row r="180">
-      <c r="A180" s="49" t="s">
+      <c r="A180" s="50" t="s">
         <v>765</v>
       </c>
-      <c r="B180" s="48" t="s">
+      <c r="B180" s="49" t="s">
         <v>766</v>
       </c>
-      <c r="C180" s="71" t="s">
+      <c r="C180" s="113" t="s">
         <v>767</v>
       </c>
-      <c r="D180" s="71" t="s">
+      <c r="D180" s="113" t="s">
         <v>768</v>
       </c>
-      <c r="E180" s="70" t="s">
+      <c r="E180" s="115" t="s">
         <v>769</v>
       </c>
-      <c r="F180" s="70"/>
-      <c r="G180" s="70" t="s">
+      <c r="F180" s="115"/>
+      <c r="G180" s="115" t="s">
         <v>770</v>
       </c>
-      <c r="H180" s="70" t="s">
+      <c r="H180" s="115" t="s">
         <v>771</v>
       </c>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
-      <c r="K180" s="121" t="s">
+      <c r="K180" s="119" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="76" t="s">
+      <c r="A181" s="75" t="s">
         <v>772</v>
       </c>
       <c r="B181" s="56" t="s">
         <v>747</v>
       </c>
-      <c r="C181" s="71"/>
-      <c r="D181" s="71"/>
-      <c r="E181" s="70"/>
-      <c r="F181" s="70"/>
-      <c r="G181" s="70"/>
-      <c r="H181" s="70"/>
+      <c r="C181" s="113"/>
+      <c r="D181" s="113"/>
+      <c r="E181" s="115"/>
+      <c r="F181" s="115"/>
+      <c r="G181" s="115"/>
+      <c r="H181" s="115"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
-      <c r="K181" s="6" t="s">
+      <c r="K181" s="63" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="49" t="s">
+      <c r="A182" s="50" t="s">
         <v>773</v>
       </c>
-      <c r="B182" s="48" t="s">
+      <c r="B182" s="49" t="s">
         <v>774</v>
       </c>
-      <c r="C182" s="123" t="s">
+      <c r="C182" s="121" t="s">
         <v>775</v>
       </c>
-      <c r="D182" s="71" t="s">
+      <c r="D182" s="113" t="s">
         <v>776</v>
       </c>
-      <c r="E182" s="117" t="s">
+      <c r="E182" s="114" t="s">
         <v>777</v>
       </c>
-      <c r="F182" s="117"/>
-      <c r="G182" s="70"/>
-      <c r="H182" s="70"/>
+      <c r="F182" s="114"/>
+      <c r="G182" s="115"/>
+      <c r="H182" s="115"/>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
-      <c r="K182" s="121" t="s">
+      <c r="K182" s="119" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="76" t="s">
+      <c r="A183" s="75" t="s">
         <v>778</v>
       </c>
       <c r="B183" s="56" t="s">
         <v>747</v>
       </c>
-      <c r="C183" s="123"/>
-      <c r="D183" s="71"/>
-      <c r="E183" s="117"/>
-      <c r="F183" s="117"/>
-      <c r="G183" s="70"/>
-      <c r="H183" s="70"/>
+      <c r="C183" s="121"/>
+      <c r="D183" s="113"/>
+      <c r="E183" s="114"/>
+      <c r="F183" s="114"/>
+      <c r="G183" s="115"/>
+      <c r="H183" s="115"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
-      <c r="K183" s="6" t="s">
+      <c r="K183" s="63" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="93" t="s">
+      <c r="A184" s="91" t="s">
         <v>779</v>
       </c>
       <c r="B184" s="34" t="s">
@@ -16769,47 +16709,47 @@
       <c r="K184" s="6"/>
     </row>
     <row r="185">
-      <c r="A185" s="94" t="s">
+      <c r="A185" s="92" t="s">
         <v>781</v>
       </c>
       <c r="B185" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="C185" s="62" t="s">
+      <c r="C185" s="63" t="s">
         <v>408</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E185" s="116" t="s">
+      <c r="E185" s="111" t="s">
         <v>782</v>
       </c>
-      <c r="F185" s="116"/>
-      <c r="G185" s="124" t="s">
+      <c r="F185" s="112"/>
+      <c r="G185" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="H185" s="125" t="s">
+      <c r="H185" s="123" t="s">
         <v>783</v>
       </c>
-      <c r="I185" s="6" t="s">
+      <c r="I185" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
     </row>
     <row r="186">
-      <c r="A186" s="94" t="s">
+      <c r="A186" s="92" t="s">
         <v>784</v>
       </c>
       <c r="B186" s="39" t="s">
         <v>785</v>
       </c>
-      <c r="C186" s="106" t="s">
+      <c r="C186" s="104" t="s">
         <v>447</v>
       </c>
       <c r="D186" s="6"/>
-      <c r="E186" s="126"/>
-      <c r="F186" s="126"/>
+      <c r="E186" s="112"/>
+      <c r="F186" s="112"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="6"/>
@@ -16817,20 +16757,20 @@
       <c r="K186" s="6"/>
     </row>
     <row r="187">
-      <c r="A187" s="49" t="s">
+      <c r="A187" s="50" t="s">
         <v>786</v>
       </c>
-      <c r="B187" s="48" t="s">
+      <c r="B187" s="49" t="s">
         <v>787</v>
       </c>
-      <c r="C187" s="127" t="s">
+      <c r="C187" s="124" t="s">
         <v>447</v>
       </c>
       <c r="D187" s="6"/>
-      <c r="E187" s="128" t="s">
+      <c r="E187" s="125" t="s">
         <v>788</v>
       </c>
-      <c r="F187" s="116"/>
+      <c r="F187" s="112"/>
       <c r="G187" s="36" t="s">
         <v>54</v>
       </c>
@@ -16842,36 +16782,36 @@
       <c r="K187" s="6"/>
     </row>
     <row r="188">
-      <c r="A188" s="76" t="s">
+      <c r="A188" s="75" t="s">
         <v>790</v>
       </c>
       <c r="B188" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C188" s="62" t="s">
+      <c r="C188" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D188" s="62" t="s">
+      <c r="D188" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E188" s="116" t="s">
+      <c r="E188" s="111" t="s">
         <v>791</v>
       </c>
-      <c r="F188" s="116"/>
-      <c r="G188" s="40" t="s">
+      <c r="F188" s="112"/>
+      <c r="G188" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H188" s="40" t="s">
+      <c r="H188" s="37" t="s">
         <v>792</v>
       </c>
-      <c r="I188" s="6" t="s">
+      <c r="I188" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
     </row>
     <row r="189">
-      <c r="A189" s="76" t="s">
+      <c r="A189" s="75" t="s">
         <v>793</v>
       </c>
       <c r="B189" s="56" t="s">
@@ -16880,17 +16820,17 @@
       <c r="C189" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D189" s="62" t="s">
+      <c r="D189" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E189" s="50" t="s">
+      <c r="E189" s="51" t="s">
         <v>794</v>
       </c>
-      <c r="F189" s="50"/>
-      <c r="G189" s="40" t="s">
+      <c r="F189" s="36"/>
+      <c r="G189" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H189" s="40" t="s">
+      <c r="H189" s="37" t="s">
         <v>795</v>
       </c>
       <c r="I189" s="6"/>
@@ -16898,26 +16838,26 @@
       <c r="K189" s="6"/>
     </row>
     <row r="190">
-      <c r="A190" s="76" t="s">
+      <c r="A190" s="75" t="s">
         <v>796</v>
       </c>
       <c r="B190" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C190" s="62" t="s">
+      <c r="C190" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D190" s="62" t="s">
+      <c r="D190" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E190" s="116" t="s">
+      <c r="E190" s="111" t="s">
         <v>797</v>
       </c>
-      <c r="F190" s="116"/>
-      <c r="G190" s="40" t="s">
+      <c r="F190" s="112"/>
+      <c r="G190" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H190" s="40" t="s">
+      <c r="H190" s="37" t="s">
         <v>798</v>
       </c>
       <c r="I190" s="6"/>
@@ -16925,26 +16865,26 @@
       <c r="K190" s="6"/>
     </row>
     <row r="191">
-      <c r="A191" s="76" t="s">
+      <c r="A191" s="75" t="s">
         <v>799</v>
       </c>
       <c r="B191" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C191" s="62" t="s">
+      <c r="C191" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D191" s="62" t="s">
+      <c r="D191" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E191" s="116" t="s">
+      <c r="E191" s="111" t="s">
         <v>800</v>
       </c>
-      <c r="F191" s="116"/>
-      <c r="G191" s="40" t="s">
+      <c r="F191" s="112"/>
+      <c r="G191" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="H191" s="40" t="s">
+      <c r="H191" s="37" t="s">
         <v>801</v>
       </c>
       <c r="I191" s="6"/>
@@ -16952,26 +16892,26 @@
       <c r="K191" s="6"/>
     </row>
     <row r="192">
-      <c r="A192" s="76" t="s">
+      <c r="A192" s="75" t="s">
         <v>802</v>
       </c>
       <c r="B192" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C192" s="62" t="s">
+      <c r="C192" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D192" s="62" t="s">
+      <c r="D192" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="E192" s="116" t="s">
+      <c r="E192" s="111" t="s">
         <v>803</v>
       </c>
-      <c r="F192" s="116"/>
-      <c r="G192" s="50" t="s">
+      <c r="F192" s="112"/>
+      <c r="G192" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H192" s="50" t="s">
+      <c r="H192" s="51" t="s">
         <v>804</v>
       </c>
       <c r="I192" s="6"/>
@@ -16979,26 +16919,26 @@
       <c r="K192" s="6"/>
     </row>
     <row r="193">
-      <c r="A193" s="76" t="s">
+      <c r="A193" s="75" t="s">
         <v>805</v>
       </c>
       <c r="B193" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C193" s="72" t="s">
+      <c r="C193" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="D193" s="62" t="s">
+      <c r="D193" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="E193" s="116" t="s">
+      <c r="E193" s="111" t="s">
         <v>806</v>
       </c>
-      <c r="F193" s="116"/>
-      <c r="G193" s="50" t="s">
+      <c r="F193" s="112"/>
+      <c r="G193" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="H193" s="50" t="s">
+      <c r="H193" s="51" t="s">
         <v>638</v>
       </c>
       <c r="I193" s="6"/>
@@ -17006,26 +16946,26 @@
       <c r="K193" s="6"/>
     </row>
     <row r="194">
-      <c r="A194" s="76" t="s">
+      <c r="A194" s="75" t="s">
         <v>807</v>
       </c>
       <c r="B194" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C194" s="62" t="s">
+      <c r="C194" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D194" s="62" t="s">
+      <c r="D194" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E194" s="50" t="s">
+      <c r="E194" s="51" t="s">
         <v>808</v>
       </c>
-      <c r="F194" s="72"/>
-      <c r="G194" s="50" t="s">
+      <c r="F194" s="63"/>
+      <c r="G194" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="H194" s="50" t="s">
+      <c r="H194" s="51" t="s">
         <v>642</v>
       </c>
       <c r="I194" s="6"/>
@@ -17033,23 +16973,23 @@
       <c r="K194" s="6"/>
     </row>
     <row r="195">
-      <c r="A195" s="76" t="s">
+      <c r="A195" s="75" t="s">
         <v>809</v>
       </c>
       <c r="B195" s="56" t="s">
         <v>644</v>
       </c>
-      <c r="C195" s="62" t="s">
+      <c r="C195" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D195" s="62" t="s">
+      <c r="D195" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="E195" s="50" t="s">
+      <c r="E195" s="51" t="s">
         <v>810</v>
       </c>
-      <c r="F195" s="50"/>
-      <c r="G195" s="46" t="s">
+      <c r="F195" s="36"/>
+      <c r="G195" s="47" t="s">
         <v>637</v>
       </c>
       <c r="H195" s="46" t="s">
@@ -17060,26 +17000,26 @@
       <c r="K195" s="6"/>
     </row>
     <row r="196">
-      <c r="A196" s="76" t="s">
+      <c r="A196" s="75" t="s">
         <v>812</v>
       </c>
       <c r="B196" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C196" s="62" t="s">
+      <c r="C196" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="D196" s="62" t="s">
+      <c r="D196" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="E196" s="50" t="s">
+      <c r="E196" s="51" t="s">
         <v>813</v>
       </c>
-      <c r="F196" s="50"/>
-      <c r="G196" s="50" t="s">
+      <c r="F196" s="36"/>
+      <c r="G196" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="H196" s="50" t="s">
+      <c r="H196" s="51" t="s">
         <v>649</v>
       </c>
       <c r="I196" s="6"/>
@@ -17087,17 +17027,17 @@
       <c r="K196" s="6"/>
     </row>
     <row r="197">
-      <c r="A197" s="49" t="s">
+      <c r="A197" s="50" t="s">
         <v>814</v>
       </c>
-      <c r="B197" s="48" t="s">
+      <c r="B197" s="49" t="s">
         <v>815</v>
       </c>
-      <c r="C197" s="127" t="s">
+      <c r="C197" s="124" t="s">
         <v>447</v>
       </c>
-      <c r="D197" s="129"/>
-      <c r="E197" s="40" t="s">
+      <c r="D197" s="126"/>
+      <c r="E197" s="37" t="s">
         <v>816</v>
       </c>
       <c r="F197" s="36"/>
@@ -17112,55 +17052,55 @@
       <c r="K197" s="6"/>
     </row>
     <row r="198">
-      <c r="A198" s="76" t="s">
+      <c r="A198" s="75" t="s">
         <v>818</v>
       </c>
       <c r="B198" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C198" s="62" t="s">
+      <c r="C198" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D198" s="62" t="s">
+      <c r="D198" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E198" s="50" t="s">
+      <c r="E198" s="51" t="s">
         <v>819</v>
       </c>
-      <c r="F198" s="50"/>
-      <c r="G198" s="40" t="s">
+      <c r="F198" s="36"/>
+      <c r="G198" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H198" s="40" t="s">
+      <c r="H198" s="37" t="s">
         <v>820</v>
       </c>
-      <c r="I198" s="6" t="s">
+      <c r="I198" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
     </row>
     <row r="199">
-      <c r="A199" s="76" t="s">
+      <c r="A199" s="75" t="s">
         <v>821</v>
       </c>
       <c r="B199" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C199" s="62" t="s">
+      <c r="C199" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D199" s="62" t="s">
+      <c r="D199" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E199" s="50" t="s">
+      <c r="E199" s="51" t="s">
         <v>822</v>
       </c>
-      <c r="F199" s="50"/>
-      <c r="G199" s="40" t="s">
+      <c r="F199" s="36"/>
+      <c r="G199" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H199" s="40" t="s">
+      <c r="H199" s="37" t="s">
         <v>823</v>
       </c>
       <c r="I199" s="6"/>
@@ -17168,7 +17108,7 @@
       <c r="K199" s="6"/>
     </row>
     <row r="200">
-      <c r="A200" s="76" t="s">
+      <c r="A200" s="75" t="s">
         <v>824</v>
       </c>
       <c r="B200" s="56" t="s">
@@ -17177,17 +17117,17 @@
       <c r="C200" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D200" s="62" t="s">
+      <c r="D200" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E200" s="50" t="s">
+      <c r="E200" s="51" t="s">
         <v>825</v>
       </c>
-      <c r="F200" s="50"/>
-      <c r="G200" s="40" t="s">
+      <c r="F200" s="36"/>
+      <c r="G200" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H200" s="40" t="s">
+      <c r="H200" s="37" t="s">
         <v>826</v>
       </c>
       <c r="I200" s="6"/>
@@ -17195,26 +17135,26 @@
       <c r="K200" s="6"/>
     </row>
     <row r="201">
-      <c r="A201" s="76" t="s">
+      <c r="A201" s="75" t="s">
         <v>827</v>
       </c>
       <c r="B201" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C201" s="62" t="s">
+      <c r="C201" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D201" s="62" t="s">
+      <c r="D201" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E201" s="50" t="s">
+      <c r="E201" s="51" t="s">
         <v>828</v>
       </c>
-      <c r="F201" s="50"/>
-      <c r="G201" s="40" t="s">
+      <c r="F201" s="36"/>
+      <c r="G201" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="H201" s="40" t="s">
+      <c r="H201" s="37" t="s">
         <v>829</v>
       </c>
       <c r="I201" s="6"/>
@@ -17222,26 +17162,26 @@
       <c r="K201" s="6"/>
     </row>
     <row r="202">
-      <c r="A202" s="76" t="s">
+      <c r="A202" s="75" t="s">
         <v>830</v>
       </c>
       <c r="B202" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C202" s="62" t="s">
+      <c r="C202" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D202" s="62" t="s">
+      <c r="D202" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="E202" s="50" t="s">
+      <c r="E202" s="51" t="s">
         <v>831</v>
       </c>
-      <c r="F202" s="50"/>
-      <c r="G202" s="40" t="s">
+      <c r="F202" s="36"/>
+      <c r="G202" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="H202" s="40" t="s">
+      <c r="H202" s="37" t="s">
         <v>832</v>
       </c>
       <c r="I202" s="6"/>
@@ -17249,26 +17189,26 @@
       <c r="K202" s="6"/>
     </row>
     <row r="203">
-      <c r="A203" s="76" t="s">
+      <c r="A203" s="75" t="s">
         <v>833</v>
       </c>
       <c r="B203" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C203" s="72" t="s">
+      <c r="C203" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="D203" s="62" t="s">
+      <c r="D203" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="E203" s="50" t="s">
+      <c r="E203" s="51" t="s">
         <v>834</v>
       </c>
-      <c r="F203" s="50"/>
-      <c r="G203" s="50" t="s">
+      <c r="F203" s="36"/>
+      <c r="G203" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="H203" s="50" t="s">
+      <c r="H203" s="51" t="s">
         <v>638</v>
       </c>
       <c r="I203" s="6"/>
@@ -17276,26 +17216,26 @@
       <c r="K203" s="6"/>
     </row>
     <row r="204">
-      <c r="A204" s="76" t="s">
+      <c r="A204" s="75" t="s">
         <v>835</v>
       </c>
       <c r="B204" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C204" s="130" t="s">
+      <c r="C204" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="D204" s="130" t="s">
+      <c r="D204" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="E204" s="50" t="s">
+      <c r="E204" s="51" t="s">
         <v>836</v>
       </c>
-      <c r="F204" s="50"/>
-      <c r="G204" s="50" t="s">
+      <c r="F204" s="36"/>
+      <c r="G204" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="H204" s="50" t="s">
+      <c r="H204" s="51" t="s">
         <v>642</v>
       </c>
       <c r="I204" s="6"/>
@@ -17303,26 +17243,26 @@
       <c r="K204" s="6"/>
     </row>
     <row r="205">
-      <c r="A205" s="76" t="s">
+      <c r="A205" s="75" t="s">
         <v>837</v>
       </c>
       <c r="B205" s="56" t="s">
         <v>644</v>
       </c>
-      <c r="C205" s="62" t="s">
+      <c r="C205" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D205" s="62" t="s">
+      <c r="D205" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="E205" s="72" t="s">
+      <c r="E205" s="71" t="s">
         <v>838</v>
       </c>
-      <c r="F205" s="72"/>
-      <c r="G205" s="68" t="s">
+      <c r="F205" s="63"/>
+      <c r="G205" s="70" t="s">
         <v>637</v>
       </c>
-      <c r="H205" s="68" t="s">
+      <c r="H205" s="69" t="s">
         <v>839</v>
       </c>
       <c r="I205" s="6"/>
@@ -17330,26 +17270,26 @@
       <c r="K205" s="6"/>
     </row>
     <row r="206">
-      <c r="A206" s="76" t="s">
+      <c r="A206" s="75" t="s">
         <v>840</v>
       </c>
       <c r="B206" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C206" s="62" t="s">
+      <c r="C206" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="D206" s="62" t="s">
+      <c r="D206" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="E206" s="50" t="s">
+      <c r="E206" s="51" t="s">
         <v>841</v>
       </c>
-      <c r="F206" s="72"/>
-      <c r="G206" s="72" t="s">
+      <c r="F206" s="63"/>
+      <c r="G206" s="71" t="s">
         <v>641</v>
       </c>
-      <c r="H206" s="72" t="s">
+      <c r="H206" s="71" t="s">
         <v>649</v>
       </c>
       <c r="I206" s="6"/>
@@ -17357,26 +17297,26 @@
       <c r="K206" s="6"/>
     </row>
     <row r="207">
-      <c r="A207" s="49" t="s">
+      <c r="A207" s="50" t="s">
         <v>842</v>
       </c>
-      <c r="B207" s="48" t="s">
+      <c r="B207" s="49" t="s">
         <v>843</v>
       </c>
-      <c r="C207" s="62" t="s">
+      <c r="C207" s="63" t="s">
         <v>844</v>
       </c>
-      <c r="D207" s="62" t="s">
+      <c r="D207" s="63" t="s">
         <v>845</v>
       </c>
-      <c r="E207" s="50" t="s">
+      <c r="E207" s="51" t="s">
         <v>846</v>
       </c>
-      <c r="F207" s="50"/>
-      <c r="G207" s="40" t="s">
+      <c r="F207" s="36"/>
+      <c r="G207" s="37" t="s">
         <v>847</v>
       </c>
-      <c r="H207" s="125" t="s">
+      <c r="H207" s="123" t="s">
         <v>848</v>
       </c>
       <c r="I207" s="6"/>
@@ -17384,18 +17324,18 @@
       <c r="K207" s="6"/>
     </row>
     <row r="208">
-      <c r="A208" s="49" t="s">
+      <c r="A208" s="50" t="s">
         <v>849</v>
       </c>
-      <c r="B208" s="48" t="s">
+      <c r="B208" s="49" t="s">
         <v>850</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
-      <c r="E208" s="40" t="s">
+      <c r="E208" s="37" t="s">
         <v>851</v>
       </c>
-      <c r="F208" s="62"/>
+      <c r="F208" s="63"/>
       <c r="G208" s="36" t="s">
         <v>54</v>
       </c>
@@ -17407,55 +17347,55 @@
       <c r="K208" s="6"/>
     </row>
     <row r="209">
-      <c r="A209" s="76" t="s">
+      <c r="A209" s="75" t="s">
         <v>852</v>
       </c>
       <c r="B209" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C209" s="62" t="s">
+      <c r="C209" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D209" s="62" t="s">
+      <c r="D209" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E209" s="50" t="s">
+      <c r="E209" s="51" t="s">
         <v>853</v>
       </c>
-      <c r="F209" s="72"/>
-      <c r="G209" s="40" t="s">
+      <c r="F209" s="63"/>
+      <c r="G209" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H209" s="80" t="s">
+      <c r="H209" s="79" t="s">
         <v>854</v>
       </c>
-      <c r="I209" s="6" t="s">
+      <c r="I209" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J209" s="6"/>
       <c r="K209" s="6"/>
     </row>
     <row r="210">
-      <c r="A210" s="76" t="s">
+      <c r="A210" s="75" t="s">
         <v>855</v>
       </c>
       <c r="B210" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C210" s="62" t="s">
+      <c r="C210" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D210" s="62" t="s">
+      <c r="D210" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E210" s="50" t="s">
+      <c r="E210" s="51" t="s">
         <v>856</v>
       </c>
-      <c r="F210" s="72"/>
-      <c r="G210" s="40" t="s">
+      <c r="F210" s="63"/>
+      <c r="G210" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H210" s="80" t="s">
+      <c r="H210" s="79" t="s">
         <v>857</v>
       </c>
       <c r="I210" s="6"/>
@@ -17463,26 +17403,26 @@
       <c r="K210" s="6"/>
     </row>
     <row r="211">
-      <c r="A211" s="76" t="s">
+      <c r="A211" s="75" t="s">
         <v>858</v>
       </c>
       <c r="B211" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C211" s="62" t="s">
+      <c r="C211" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D211" s="62" t="s">
+      <c r="D211" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E211" s="72" t="s">
+      <c r="E211" s="71" t="s">
         <v>859</v>
       </c>
-      <c r="F211" s="72"/>
-      <c r="G211" s="82" t="s">
+      <c r="F211" s="63"/>
+      <c r="G211" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="H211" s="131" t="s">
+      <c r="H211" s="128" t="s">
         <v>860</v>
       </c>
       <c r="I211" s="6"/>
@@ -17490,26 +17430,26 @@
       <c r="K211" s="6"/>
     </row>
     <row r="212">
-      <c r="A212" s="76" t="s">
+      <c r="A212" s="75" t="s">
         <v>861</v>
       </c>
       <c r="B212" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C212" s="62" t="s">
+      <c r="C212" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D212" s="62" t="s">
+      <c r="D212" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E212" s="50" t="s">
+      <c r="E212" s="51" t="s">
         <v>862</v>
       </c>
-      <c r="F212" s="72"/>
-      <c r="G212" s="40" t="s">
+      <c r="F212" s="63"/>
+      <c r="G212" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="H212" s="80" t="s">
+      <c r="H212" s="79" t="s">
         <v>863</v>
       </c>
       <c r="I212" s="6"/>
@@ -17517,26 +17457,26 @@
       <c r="K212" s="6"/>
     </row>
     <row r="213">
-      <c r="A213" s="76" t="s">
+      <c r="A213" s="75" t="s">
         <v>864</v>
       </c>
       <c r="B213" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C213" s="62" t="s">
+      <c r="C213" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D213" s="62" t="s">
+      <c r="D213" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="E213" s="50" t="s">
+      <c r="E213" s="51" t="s">
         <v>865</v>
       </c>
-      <c r="F213" s="72"/>
-      <c r="G213" s="50" t="s">
+      <c r="F213" s="63"/>
+      <c r="G213" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H213" s="96" t="s">
+      <c r="H213" s="94" t="s">
         <v>866</v>
       </c>
       <c r="I213" s="6"/>
@@ -17544,26 +17484,26 @@
       <c r="K213" s="6"/>
     </row>
     <row r="214">
-      <c r="A214" s="76" t="s">
+      <c r="A214" s="75" t="s">
         <v>867</v>
       </c>
       <c r="B214" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C214" s="72" t="s">
+      <c r="C214" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="D214" s="62" t="s">
+      <c r="D214" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="E214" s="50" t="s">
+      <c r="E214" s="51" t="s">
         <v>868</v>
       </c>
-      <c r="F214" s="72"/>
-      <c r="G214" s="50" t="s">
+      <c r="F214" s="63"/>
+      <c r="G214" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="H214" s="50" t="s">
+      <c r="H214" s="51" t="s">
         <v>638</v>
       </c>
       <c r="I214" s="6"/>
@@ -17571,26 +17511,26 @@
       <c r="K214" s="6"/>
     </row>
     <row r="215">
-      <c r="A215" s="76" t="s">
+      <c r="A215" s="75" t="s">
         <v>869</v>
       </c>
       <c r="B215" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C215" s="62" t="s">
+      <c r="C215" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D215" s="62" t="s">
+      <c r="D215" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E215" s="50" t="s">
+      <c r="E215" s="51" t="s">
         <v>870</v>
       </c>
-      <c r="F215" s="72"/>
-      <c r="G215" s="50" t="s">
+      <c r="F215" s="63"/>
+      <c r="G215" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="H215" s="96" t="s">
+      <c r="H215" s="94" t="s">
         <v>642</v>
       </c>
       <c r="I215" s="6"/>
@@ -17598,23 +17538,23 @@
       <c r="K215" s="6"/>
     </row>
     <row r="216">
-      <c r="A216" s="76" t="s">
+      <c r="A216" s="75" t="s">
         <v>871</v>
       </c>
       <c r="B216" s="56" t="s">
         <v>644</v>
       </c>
-      <c r="C216" s="62" t="s">
+      <c r="C216" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D216" s="62" t="s">
+      <c r="D216" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="E216" s="50" t="s">
+      <c r="E216" s="51" t="s">
         <v>872</v>
       </c>
-      <c r="F216" s="72"/>
-      <c r="G216" s="46" t="s">
+      <c r="F216" s="63"/>
+      <c r="G216" s="47" t="s">
         <v>637</v>
       </c>
       <c r="H216" s="46" t="s">
@@ -17625,26 +17565,26 @@
       <c r="K216" s="6"/>
     </row>
     <row r="217">
-      <c r="A217" s="76" t="s">
+      <c r="A217" s="75" t="s">
         <v>874</v>
       </c>
       <c r="B217" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C217" s="62" t="s">
+      <c r="C217" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="D217" s="62" t="s">
+      <c r="D217" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="E217" s="50" t="s">
+      <c r="E217" s="51" t="s">
         <v>875</v>
       </c>
-      <c r="F217" s="72"/>
-      <c r="G217" s="50" t="s">
+      <c r="F217" s="63"/>
+      <c r="G217" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="H217" s="50" t="s">
+      <c r="H217" s="51" t="s">
         <v>649</v>
       </c>
       <c r="I217" s="6"/>
@@ -17652,26 +17592,26 @@
       <c r="K217" s="6"/>
     </row>
     <row r="218">
-      <c r="A218" s="94" t="s">
+      <c r="A218" s="92" t="s">
         <v>876</v>
       </c>
       <c r="B218" s="39" t="s">
         <v>877</v>
       </c>
-      <c r="C218" s="132" t="s">
+      <c r="C218" s="129" t="s">
         <v>878</v>
       </c>
-      <c r="D218" s="132" t="s">
+      <c r="D218" s="129" t="s">
         <v>879</v>
       </c>
-      <c r="E218" s="133" t="s">
+      <c r="E218" s="130" t="s">
         <v>880</v>
       </c>
-      <c r="F218" s="134"/>
-      <c r="G218" s="40" t="s">
+      <c r="F218" s="63"/>
+      <c r="G218" s="37" t="s">
         <v>881</v>
       </c>
-      <c r="H218" s="135" t="s">
+      <c r="H218" s="131" t="s">
         <v>882</v>
       </c>
       <c r="I218" s="6"/>
@@ -17682,15 +17622,15 @@
       <c r="A219" s="33" t="s">
         <v>883</v>
       </c>
-      <c r="B219" s="66" t="s">
+      <c r="B219" s="67" t="s">
         <v>884</v>
       </c>
-      <c r="C219" s="71"/>
-      <c r="D219" s="71"/>
-      <c r="E219" s="70"/>
-      <c r="F219" s="71"/>
-      <c r="G219" s="70"/>
-      <c r="H219" s="70"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
@@ -17702,41 +17642,41 @@
       <c r="B220" s="39" t="s">
         <v>886</v>
       </c>
-      <c r="C220" s="136" t="s">
+      <c r="C220" s="132" t="s">
         <v>447</v>
       </c>
-      <c r="D220" s="71"/>
-      <c r="E220" s="108" t="s">
+      <c r="D220" s="6"/>
+      <c r="E220" s="106" t="s">
         <v>887</v>
       </c>
-      <c r="F220" s="71"/>
-      <c r="G220" s="71"/>
-      <c r="H220" s="71"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
     </row>
     <row r="221">
-      <c r="A221" s="47" t="s">
+      <c r="A221" s="48" t="s">
         <v>888</v>
       </c>
-      <c r="B221" s="137" t="s">
+      <c r="B221" s="133" t="s">
         <v>889</v>
       </c>
-      <c r="C221" s="71" t="s">
+      <c r="C221" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="D221" s="71" t="s">
+      <c r="D221" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E221" s="70" t="s">
+      <c r="E221" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="F221" s="71"/>
-      <c r="G221" s="70" t="s">
+      <c r="F221" s="6"/>
+      <c r="G221" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="H221" s="122" t="s">
+      <c r="H221" s="109" t="s">
         <v>894</v>
       </c>
       <c r="I221" s="6"/>
@@ -17744,26 +17684,26 @@
       <c r="K221" s="6"/>
     </row>
     <row r="222">
-      <c r="A222" s="47" t="s">
+      <c r="A222" s="48" t="s">
         <v>895</v>
       </c>
-      <c r="B222" s="137" t="s">
+      <c r="B222" s="133" t="s">
         <v>896</v>
       </c>
-      <c r="C222" s="71" t="s">
+      <c r="C222" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="D222" s="71" t="s">
+      <c r="D222" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E222" s="70" t="s">
+      <c r="E222" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="F222" s="71"/>
-      <c r="G222" s="70" t="s">
+      <c r="F222" s="6"/>
+      <c r="G222" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="H222" s="122" t="s">
+      <c r="H222" s="109" t="s">
         <v>898</v>
       </c>
       <c r="I222" s="6"/>
@@ -17771,18 +17711,18 @@
       <c r="K222" s="6"/>
     </row>
     <row r="223">
-      <c r="A223" s="47" t="s">
+      <c r="A223" s="48" t="s">
         <v>899</v>
       </c>
-      <c r="B223" s="137" t="s">
+      <c r="B223" s="133" t="s">
         <v>900</v>
       </c>
-      <c r="C223" s="71"/>
-      <c r="D223" s="71"/>
-      <c r="E223" s="71"/>
-      <c r="F223" s="71"/>
-      <c r="G223" s="71"/>
-      <c r="H223" s="71"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
@@ -17791,23 +17731,23 @@
       <c r="A224" s="55" t="s">
         <v>901</v>
       </c>
-      <c r="B224" s="138" t="s">
+      <c r="B224" s="134" t="s">
         <v>902</v>
       </c>
-      <c r="C224" s="71" t="s">
+      <c r="C224" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="D224" s="71" t="s">
+      <c r="D224" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E224" s="57" t="s">
         <v>903</v>
       </c>
-      <c r="F224" s="71"/>
-      <c r="G224" s="70" t="s">
+      <c r="F224" s="6"/>
+      <c r="G224" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="H224" s="122" t="s">
+      <c r="H224" s="109" t="s">
         <v>904</v>
       </c>
       <c r="I224" s="6"/>
@@ -17818,23 +17758,23 @@
       <c r="A225" s="55" t="s">
         <v>905</v>
       </c>
-      <c r="B225" s="138" t="s">
+      <c r="B225" s="134" t="s">
         <v>906</v>
       </c>
-      <c r="C225" s="71" t="s">
+      <c r="C225" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="D225" s="71" t="s">
+      <c r="D225" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E225" s="108" t="s">
+      <c r="E225" s="106" t="s">
         <v>907</v>
       </c>
-      <c r="F225" s="71"/>
-      <c r="G225" s="71" t="s">
+      <c r="F225" s="6"/>
+      <c r="G225" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="H225" s="139" t="s">
+      <c r="H225" s="135" t="s">
         <v>908</v>
       </c>
       <c r="I225" s="6"/>
@@ -17845,23 +17785,23 @@
       <c r="A226" s="55" t="s">
         <v>909</v>
       </c>
-      <c r="B226" s="138" t="s">
+      <c r="B226" s="134" t="s">
         <v>910</v>
       </c>
-      <c r="C226" s="71" t="s">
+      <c r="C226" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="D226" s="71" t="s">
+      <c r="D226" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E226" s="108" t="s">
+      <c r="E226" s="106" t="s">
         <v>911</v>
       </c>
-      <c r="F226" s="71"/>
-      <c r="G226" s="71" t="s">
+      <c r="F226" s="6"/>
+      <c r="G226" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="H226" s="139" t="s">
+      <c r="H226" s="135" t="s">
         <v>912</v>
       </c>
       <c r="I226" s="6"/>
@@ -17869,26 +17809,26 @@
       <c r="K226" s="6"/>
     </row>
     <row r="227">
-      <c r="A227" s="47" t="s">
+      <c r="A227" s="48" t="s">
         <v>913</v>
       </c>
-      <c r="B227" s="137" t="s">
+      <c r="B227" s="133" t="s">
         <v>914</v>
       </c>
-      <c r="C227" s="136" t="s">
+      <c r="C227" s="132" t="s">
         <v>890</v>
       </c>
-      <c r="D227" s="71" t="s">
+      <c r="D227" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E227" s="108" t="s">
+      <c r="E227" s="106" t="s">
         <v>915</v>
       </c>
-      <c r="F227" s="71"/>
-      <c r="G227" s="71" t="s">
+      <c r="F227" s="6"/>
+      <c r="G227" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="H227" s="139" t="s">
+      <c r="H227" s="135" t="s">
         <v>916</v>
       </c>
       <c r="I227" s="6"/>
@@ -17896,26 +17836,26 @@
       <c r="K227" s="6"/>
     </row>
     <row r="228">
-      <c r="A228" s="47" t="s">
+      <c r="A228" s="48" t="s">
         <v>917</v>
       </c>
-      <c r="B228" s="137" t="s">
+      <c r="B228" s="133" t="s">
         <v>918</v>
       </c>
-      <c r="C228" s="136" t="s">
+      <c r="C228" s="132" t="s">
         <v>890</v>
       </c>
-      <c r="D228" s="71" t="s">
+      <c r="D228" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E228" s="108" t="s">
+      <c r="E228" s="106" t="s">
         <v>919</v>
       </c>
-      <c r="F228" s="71"/>
-      <c r="G228" s="71" t="s">
+      <c r="F228" s="6"/>
+      <c r="G228" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="H228" s="139" t="s">
+      <c r="H228" s="135" t="s">
         <v>920</v>
       </c>
       <c r="I228" s="6"/>
@@ -17923,26 +17863,26 @@
       <c r="K228" s="6"/>
     </row>
     <row r="229">
-      <c r="A229" s="47" t="s">
+      <c r="A229" s="48" t="s">
         <v>921</v>
       </c>
-      <c r="B229" s="137" t="s">
+      <c r="B229" s="133" t="s">
         <v>922</v>
       </c>
-      <c r="C229" s="136" t="s">
+      <c r="C229" s="132" t="s">
         <v>890</v>
       </c>
-      <c r="D229" s="71" t="s">
+      <c r="D229" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E229" s="108" t="s">
+      <c r="E229" s="106" t="s">
         <v>923</v>
       </c>
-      <c r="F229" s="71"/>
-      <c r="G229" s="71" t="s">
+      <c r="F229" s="6"/>
+      <c r="G229" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="H229" s="139" t="s">
+      <c r="H229" s="135" t="s">
         <v>924</v>
       </c>
       <c r="I229" s="6"/>
@@ -17950,26 +17890,26 @@
       <c r="K229" s="6"/>
     </row>
     <row r="230">
-      <c r="A230" s="47" t="s">
+      <c r="A230" s="48" t="s">
         <v>925</v>
       </c>
-      <c r="B230" s="137" t="s">
+      <c r="B230" s="133" t="s">
         <v>926</v>
       </c>
-      <c r="C230" s="136" t="s">
+      <c r="C230" s="132" t="s">
         <v>890</v>
       </c>
-      <c r="D230" s="71" t="s">
+      <c r="D230" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E230" s="108" t="s">
+      <c r="E230" s="106" t="s">
         <v>927</v>
       </c>
-      <c r="F230" s="71"/>
-      <c r="G230" s="71" t="s">
+      <c r="F230" s="6"/>
+      <c r="G230" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="H230" s="139" t="s">
+      <c r="H230" s="135" t="s">
         <v>928</v>
       </c>
       <c r="I230" s="6"/>
@@ -17977,26 +17917,26 @@
       <c r="K230" s="6"/>
     </row>
     <row r="231">
-      <c r="A231" s="47" t="s">
+      <c r="A231" s="48" t="s">
         <v>929</v>
       </c>
-      <c r="B231" s="137" t="s">
+      <c r="B231" s="133" t="s">
         <v>930</v>
       </c>
-      <c r="C231" s="136" t="s">
+      <c r="C231" s="132" t="s">
         <v>890</v>
       </c>
-      <c r="D231" s="71" t="s">
+      <c r="D231" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E231" s="108" t="s">
+      <c r="E231" s="106" t="s">
         <v>931</v>
       </c>
-      <c r="F231" s="71"/>
-      <c r="G231" s="71" t="s">
+      <c r="F231" s="6"/>
+      <c r="G231" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="H231" s="139" t="s">
+      <c r="H231" s="135" t="s">
         <v>932</v>
       </c>
       <c r="I231" s="6"/>
@@ -18004,20 +17944,20 @@
       <c r="K231" s="6"/>
     </row>
     <row r="232">
-      <c r="A232" s="47" t="s">
+      <c r="A232" s="48" t="s">
         <v>933</v>
       </c>
-      <c r="B232" s="137" t="s">
+      <c r="B232" s="133" t="s">
         <v>934</v>
       </c>
-      <c r="C232" s="136" t="s">
+      <c r="C232" s="132" t="s">
         <v>447</v>
       </c>
-      <c r="D232" s="71"/>
-      <c r="E232" s="71"/>
-      <c r="F232" s="71"/>
-      <c r="G232" s="71"/>
-      <c r="H232" s="71"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
@@ -18026,23 +17966,23 @@
       <c r="A233" s="55" t="s">
         <v>935</v>
       </c>
-      <c r="B233" s="138" t="s">
+      <c r="B233" s="134" t="s">
         <v>936</v>
       </c>
-      <c r="C233" s="71" t="s">
+      <c r="C233" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="D233" s="71" t="s">
+      <c r="D233" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E233" s="108" t="s">
+      <c r="E233" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="F233" s="71"/>
-      <c r="G233" s="71" t="s">
+      <c r="F233" s="6"/>
+      <c r="G233" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="H233" s="139" t="s">
+      <c r="H233" s="135" t="s">
         <v>938</v>
       </c>
       <c r="I233" s="6"/>
@@ -18053,23 +17993,23 @@
       <c r="A234" s="55" t="s">
         <v>939</v>
       </c>
-      <c r="B234" s="138" t="s">
+      <c r="B234" s="134" t="s">
         <v>940</v>
       </c>
-      <c r="C234" s="71" t="s">
+      <c r="C234" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="D234" s="71" t="s">
+      <c r="D234" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E234" s="108" t="s">
+      <c r="E234" s="106" t="s">
         <v>941</v>
       </c>
-      <c r="F234" s="71"/>
-      <c r="G234" s="71" t="s">
+      <c r="F234" s="6"/>
+      <c r="G234" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="H234" s="139" t="s">
+      <c r="H234" s="135" t="s">
         <v>942</v>
       </c>
       <c r="I234" s="6"/>
@@ -18077,26 +18017,26 @@
       <c r="K234" s="6"/>
     </row>
     <row r="235">
-      <c r="A235" s="47" t="s">
+      <c r="A235" s="48" t="s">
         <v>943</v>
       </c>
-      <c r="B235" s="137" t="s">
+      <c r="B235" s="133" t="s">
         <v>944</v>
       </c>
-      <c r="C235" s="71" t="s">
+      <c r="C235" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="D235" s="71" t="s">
+      <c r="D235" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E235" s="71" t="s">
+      <c r="E235" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="F235" s="71"/>
-      <c r="G235" s="71" t="s">
+      <c r="F235" s="6"/>
+      <c r="G235" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="H235" s="139" t="s">
+      <c r="H235" s="135" t="s">
         <v>946</v>
       </c>
       <c r="I235" s="6"/>
@@ -18107,85 +18047,83 @@
       <c r="A236" s="38" t="s">
         <v>947</v>
       </c>
-      <c r="B236" s="61" t="s">
+      <c r="B236" s="62" t="s">
         <v>948</v>
       </c>
-      <c r="C236" s="71"/>
-      <c r="D236" s="71"/>
-      <c r="E236" s="71"/>
-      <c r="F236" s="71"/>
-      <c r="G236" s="71"/>
-      <c r="H236" s="71"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
     </row>
     <row r="237">
-      <c r="A237" s="47" t="s">
+      <c r="A237" s="48" t="s">
         <v>949</v>
       </c>
-      <c r="B237" s="137" t="s">
+      <c r="B237" s="133" t="s">
         <v>950</v>
       </c>
-      <c r="C237" s="140" t="s">
+      <c r="C237" s="136" t="s">
         <v>557</v>
       </c>
-      <c r="D237" s="71"/>
-      <c r="E237" s="108" t="s">
+      <c r="D237" s="6"/>
+      <c r="E237" s="106" t="s">
         <v>951</v>
       </c>
-      <c r="F237" s="71"/>
-      <c r="G237" s="71" t="s">
-        <v>893</v>
-      </c>
-      <c r="H237" s="139" t="s">
-        <v>952</v>
-      </c>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
-      <c r="K237" s="6"/>
+      <c r="K237" s="6" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="38" t="s">
         <v>953</v>
       </c>
-      <c r="B238" s="61" t="s">
+      <c r="B238" s="62" t="s">
         <v>954</v>
       </c>
-      <c r="C238" s="71"/>
-      <c r="D238" s="71"/>
-      <c r="E238" s="71"/>
-      <c r="F238" s="71"/>
-      <c r="G238" s="71"/>
-      <c r="H238" s="71"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
     </row>
     <row r="239">
-      <c r="A239" s="47" t="s">
+      <c r="A239" s="48" t="s">
         <v>955</v>
       </c>
-      <c r="B239" s="137" t="s">
+      <c r="B239" s="133" t="s">
         <v>956</v>
       </c>
-      <c r="C239" s="136" t="s">
+      <c r="C239" s="132" t="s">
         <v>957</v>
       </c>
-      <c r="D239" s="71" t="s">
+      <c r="D239" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="E239" s="141" t="s">
+      <c r="E239" s="137" t="s">
         <v>959</v>
       </c>
-      <c r="F239" s="71"/>
-      <c r="G239" s="71" t="s">
+      <c r="F239" s="6"/>
+      <c r="G239" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="H239" s="142" t="s">
+      <c r="H239" s="128" t="s">
         <v>961</v>
       </c>
-      <c r="I239" s="6" t="s">
+      <c r="I239" s="61" t="s">
         <v>962</v>
       </c>
       <c r="J239" s="6"/>
@@ -18270,10 +18208,9 @@
     <hyperlink r:id="rId46" ref="H233"/>
     <hyperlink r:id="rId47" ref="H234"/>
     <hyperlink r:id="rId48" ref="H235"/>
-    <hyperlink r:id="rId49" ref="H237"/>
-    <hyperlink r:id="rId50" ref="H239"/>
+    <hyperlink r:id="rId49" ref="H239"/>
   </hyperlinks>
-  <drawing r:id="rId51"/>
+  <drawing r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -18294,22 +18231,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="144" t="s">
+      <c r="D1" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="144" t="s">
+      <c r="E1" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="139" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="6"/>
@@ -18318,17 +18255,17 @@
       <c r="A2" s="18" t="s">
         <v>963</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>964</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="71" t="s">
         <v>965</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="37" t="s">
         <v>966</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="37" t="s">
         <v>967</v>
       </c>
       <c r="G2" s="6"/>
@@ -18337,119 +18274,119 @@
       <c r="A3" s="18" t="s">
         <v>963</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="61" t="s">
         <v>964</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="71" t="s">
         <v>965</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="37" t="s">
         <v>968</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="37" t="s">
         <v>969</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="41" t="s">
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="40" t="s">
         <v>970</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="143" t="s">
         <v>971</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="140" t="s">
         <v>333</v>
       </c>
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="41" t="s">
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="40" t="s">
         <v>972</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>973</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="149"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="149"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
-      <c r="X5" s="149"/>
-      <c r="Y5" s="149"/>
-      <c r="Z5" s="149"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="144"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
         <v>974</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="61" t="s">
         <v>975</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="71" t="s">
         <v>976</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>977</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>978</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>979</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="149"/>
-      <c r="X6" s="149"/>
-      <c r="Y6" s="149"/>
-      <c r="Z6" s="149"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="144"/>
+      <c r="T6" s="144"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="144"/>
+      <c r="W6" s="144"/>
+      <c r="X6" s="144"/>
+      <c r="Y6" s="144"/>
+      <c r="Z6" s="144"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="37" t="s">
         <v>531</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -18458,10 +18395,10 @@
       <c r="D7" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>980</v>
       </c>
       <c r="G7" s="6"/>
@@ -18470,50 +18407,50 @@
       <c r="A8" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="145" t="s">
         <v>607</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="61" t="s">
         <v>981</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="61" t="s">
         <v>982</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="140" t="s">
         <v>580</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="146" t="s">
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="141" t="s">
         <v>983</v>
       </c>
-      <c r="F9" s="151" t="s">
+      <c r="F9" s="146" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="142" t="s">
         <v>611</v>
       </c>
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="146" t="s">
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="141" t="s">
         <v>985</v>
       </c>
-      <c r="F10" s="151" t="s">
+      <c r="F10" s="146" t="s">
         <v>986</v>
       </c>
     </row>
@@ -18521,7 +18458,7 @@
       <c r="A11" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="61" t="s">
         <v>651</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -18530,90 +18467,90 @@
       <c r="D11" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="61" t="s">
         <v>987</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="61" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="142" t="s">
         <v>661</v>
       </c>
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="146" t="s">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="141" t="s">
         <v>989</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="F12" s="141" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="142" t="s">
         <v>746</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="141" t="s">
         <v>747</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="146" t="s">
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="141" t="s">
         <v>991</v>
       </c>
-      <c r="F13" s="146" t="s">
+      <c r="F13" s="141" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="142" t="s">
         <v>750</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="141" t="s">
         <v>747</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="146" t="s">
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="141" t="s">
         <v>993</v>
       </c>
-      <c r="F14" s="146" t="s">
+      <c r="F14" s="141" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="142" t="s">
         <v>772</v>
       </c>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="141" t="s">
         <v>747</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="146" t="s">
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="141" t="s">
         <v>994</v>
       </c>
-      <c r="F15" s="146" t="s">
+      <c r="F15" s="141" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="147" t="s">
+      <c r="A16" s="142" t="s">
         <v>778</v>
       </c>
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="141" t="s">
         <v>747</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="146" t="s">
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="141" t="s">
         <v>995</v>
       </c>
-      <c r="F16" s="146" t="s">
+      <c r="F16" s="141" t="s">
         <v>992</v>
       </c>
     </row>
@@ -22478,93 +22415,93 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="147" t="s">
         <v>996</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="148" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="149" t="s">
         <v>998</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="148" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="150" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="151" t="s">
         <v>1001</v>
       </c>
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="148" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="148" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="153"/>
+      <c r="B8" s="148"/>
     </row>
     <row r="9">
-      <c r="B9" s="153"/>
+      <c r="B9" s="148"/>
     </row>
     <row r="10">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="151" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="156" t="s">
+      <c r="A11" s="151" t="s">
         <v>1005</v>
       </c>
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="152" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="153" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="159"/>
-      <c r="B13" s="160" t="s">
+      <c r="A13" s="154"/>
+      <c r="B13" s="155" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="156" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="157" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="158" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="156"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="156" t="s">
+      <c r="A18" s="151" t="s">
         <v>1012</v>
       </c>
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="159" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -22572,13 +22509,13 @@
       <c r="A19" s="6" t="s">
         <v>1014</v>
       </c>
-      <c r="B19" s="165"/>
+      <c r="B19" s="160"/>
     </row>
     <row r="21">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="151" t="s">
         <v>1015</v>
       </c>
-      <c r="B21" s="166" t="s">
+      <c r="B21" s="161" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -22604,7 +22541,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="151" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -22639,7 +22576,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="162" t="s">
         <v>1024</v>
       </c>
     </row>
@@ -22678,7 +22615,7 @@
       <c r="A1" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="163" t="s">
         <v>1027</v>
       </c>
     </row>
@@ -22721,12 +22658,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="164" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="170" t="s">
+      <c r="A10" s="165" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -22746,7 +22683,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="157"/>
+      <c r="A1" s="152"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22770,10 +22707,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="166" t="s">
         <v>1038</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="166" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -22792,10 +22729,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>1044</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>1045</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22807,10 +22744,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="37" t="s">
         <v>1047</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="37" t="s">
         <v>1045</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -22822,16 +22759,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="37" t="s">
         <v>1048</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>1049</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -22857,7 +22794,7 @@
       <c r="C7" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="D7" s="172" t="s">
+      <c r="D7" s="4" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -22876,220 +22813,220 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="167" t="s">
         <v>1059</v>
       </c>
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="168" t="s">
         <v>1060</v>
       </c>
-      <c r="C9" s="174" t="s">
+      <c r="C9" s="168" t="s">
         <v>1046</v>
       </c>
-      <c r="D9" s="174" t="s">
+      <c r="D9" s="168" t="s">
         <v>1061</v>
       </c>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
-      <c r="M9" s="174"/>
-      <c r="N9" s="174"/>
-      <c r="O9" s="174"/>
-      <c r="P9" s="174"/>
-      <c r="Q9" s="174"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="174"/>
-      <c r="T9" s="174"/>
-      <c r="U9" s="174"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="174"/>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="174"/>
-      <c r="Z9" s="174"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
+      <c r="U9" s="168"/>
+      <c r="V9" s="168"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="168"/>
     </row>
     <row r="10">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="167" t="s">
         <v>1062</v>
       </c>
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="168" t="s">
         <v>1060</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="168" t="s">
         <v>1046</v>
       </c>
-      <c r="D10" s="174" t="s">
+      <c r="D10" s="168" t="s">
         <v>1063</v>
       </c>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
-      <c r="Y10" s="175"/>
-      <c r="Z10" s="175"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
+      <c r="Y10" s="169"/>
+      <c r="Z10" s="169"/>
     </row>
     <row r="11">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="167" t="s">
         <v>1064</v>
       </c>
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="168" t="s">
         <v>1065</v>
       </c>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="168" t="s">
         <v>1046</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D11" s="168" t="s">
         <v>1066</v>
       </c>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="175"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="175"/>
-      <c r="Q11" s="175"/>
-      <c r="R11" s="175"/>
-      <c r="S11" s="175"/>
-      <c r="T11" s="175"/>
-      <c r="U11" s="175"/>
-      <c r="V11" s="175"/>
-      <c r="W11" s="175"/>
-      <c r="X11" s="175"/>
-      <c r="Y11" s="175"/>
-      <c r="Z11" s="175"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="169"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="169"/>
+      <c r="T11" s="169"/>
+      <c r="U11" s="169"/>
+      <c r="V11" s="169"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="169"/>
+      <c r="Y11" s="169"/>
+      <c r="Z11" s="169"/>
     </row>
     <row r="12">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="167" t="s">
         <v>1067</v>
       </c>
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="168" t="s">
         <v>1065</v>
       </c>
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="168" t="s">
         <v>1046</v>
       </c>
-      <c r="D12" s="174" t="s">
+      <c r="D12" s="168" t="s">
         <v>1068</v>
       </c>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="175"/>
-      <c r="M12" s="175"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="175"/>
-      <c r="Q12" s="175"/>
-      <c r="R12" s="175"/>
-      <c r="S12" s="175"/>
-      <c r="T12" s="175"/>
-      <c r="U12" s="175"/>
-      <c r="V12" s="175"/>
-      <c r="W12" s="175"/>
-      <c r="X12" s="175"/>
-      <c r="Y12" s="175"/>
-      <c r="Z12" s="175"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="169"/>
+      <c r="T12" s="169"/>
+      <c r="U12" s="169"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="169"/>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="169"/>
     </row>
     <row r="13">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="167" t="s">
         <v>1069</v>
       </c>
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="167" t="s">
         <v>1049</v>
       </c>
-      <c r="C13" s="174" t="s">
+      <c r="C13" s="168" t="s">
         <v>1046</v>
       </c>
-      <c r="D13" s="174" t="s">
+      <c r="D13" s="168" t="s">
         <v>1070</v>
       </c>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="175"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="175"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="175"/>
-      <c r="Q13" s="175"/>
-      <c r="R13" s="175"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="175"/>
-      <c r="U13" s="175"/>
-      <c r="V13" s="175"/>
-      <c r="W13" s="175"/>
-      <c r="X13" s="175"/>
-      <c r="Y13" s="175"/>
-      <c r="Z13" s="175"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="169"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="169"/>
+      <c r="T13" s="169"/>
+      <c r="U13" s="169"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="169"/>
+      <c r="X13" s="169"/>
+      <c r="Y13" s="169"/>
+      <c r="Z13" s="169"/>
     </row>
     <row r="14">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="167" t="s">
         <v>1071</v>
       </c>
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="167" t="s">
         <v>1049</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="168" t="s">
         <v>1046</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="168" t="s">
         <v>1072</v>
       </c>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="175"/>
-      <c r="N14" s="175"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="175"/>
-      <c r="Q14" s="175"/>
-      <c r="R14" s="175"/>
-      <c r="S14" s="175"/>
-      <c r="T14" s="175"/>
-      <c r="U14" s="175"/>
-      <c r="V14" s="175"/>
-      <c r="W14" s="175"/>
-      <c r="X14" s="175"/>
-      <c r="Y14" s="175"/>
-      <c r="Z14" s="175"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="169"/>
+      <c r="T14" s="169"/>
+      <c r="U14" s="169"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="169"/>
+      <c r="X14" s="169"/>
+      <c r="Y14" s="169"/>
+      <c r="Z14" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23117,51 +23054,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="170" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="151" t="s">
         <v>1040</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="151" t="s">
         <v>1041</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="151" t="s">
         <v>1042</v>
       </c>
-      <c r="D2" s="156" t="s">
+      <c r="D2" s="151" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="148" t="s">
         <v>1073</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="148" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="148" t="s">
         <v>1075</v>
       </c>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="148" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="148" t="s">
         <v>1077</v>
       </c>
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="148" t="s">
         <v>1078</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="171" t="s">
         <v>1076</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="148" t="s">
         <v>1079</v>
       </c>
     </row>

--- a/mappings/package_F06/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F06/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.7.3</t>
+    <t>6.8.1</t>
   </si>
   <si>
     <r>
